--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5276" uniqueCount="4723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5292" uniqueCount="4737">
   <si>
     <t>key</t>
   </si>
@@ -6472,6 +6472,18 @@
     <t>有效投注金額</t>
   </si>
   <si>
+    <t>backstage.system.betWin</t>
+  </si>
+  <si>
+    <t>Lottery payout amount</t>
+  </si>
+  <si>
+    <t>派彩金额</t>
+  </si>
+  <si>
+    <t>派彩金額</t>
+  </si>
+  <si>
     <t>backstage.system.settleAmount</t>
   </si>
   <si>
@@ -8282,18 +8294,6 @@
   </si>
   <si>
     <t>出款人數</t>
-  </si>
-  <si>
-    <t>backstage.withdrawl.fee</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>手续费</t>
-  </si>
-  <si>
-    <t>手續費</t>
   </si>
   <si>
     <t>backstage.agent.sharingItem</t>
@@ -11339,6 +11339,30 @@
     <t>提款日期</t>
   </si>
   <si>
+    <t>frontstage.user.withdrawalRecord.column.Subtotal</t>
+  </si>
+  <si>
+    <t>Actual amount</t>
+  </si>
+  <si>
+    <t>实际金额</t>
+  </si>
+  <si>
+    <t>實際金額</t>
+  </si>
+  <si>
+    <t>frontstage.user.withdrawalRecord.column.WithdrawalAmount</t>
+  </si>
+  <si>
+    <t>Apply amount</t>
+  </si>
+  <si>
+    <t>填单金额</t>
+  </si>
+  <si>
+    <t>填單金額</t>
+  </si>
+  <si>
     <t>frontstage.user.betRecord.column.BetNumber</t>
   </si>
   <si>
@@ -11369,6 +11393,24 @@
     <t>frontstage.user.betRecord.column.ValidAmount</t>
   </si>
   <si>
+    <t>frontstage.user.betRecord.column.WinLossAmount</t>
+  </si>
+  <si>
+    <t>Amount of winning or losing</t>
+  </si>
+  <si>
+    <t>输赢金额</t>
+  </si>
+  <si>
+    <t>輸贏金額</t>
+  </si>
+  <si>
+    <t>frontstage.user.betRecord.column.PayoutAmount</t>
+  </si>
+  <si>
+    <t>Payout amount</t>
+  </si>
+  <si>
     <t>frontstage.user.betRecord.pickGamePlatform</t>
   </si>
   <si>
@@ -13550,21 +13592,6 @@
     <t>backstage.state.WithdrawalStateEnum.Success</t>
   </si>
   <si>
-    <t>backstage.system.betWin</t>
-  </si>
-  <si>
-    <t>Lottery payout amount</t>
-  </si>
-  <si>
-    <t>派彩金额</t>
-  </si>
-  <si>
-    <t>派彩金額</t>
-  </si>
-  <si>
-    <t>frontstage.user.betRecord.column.WinLossAmount</t>
-  </si>
-  <si>
     <t>backstage.system.betAmount</t>
   </si>
   <si>
@@ -13626,6 +13653,21 @@
   </si>
   <si>
     <t>backstage.withdrawl.allAmount</t>
+  </si>
+  <si>
+    <t>backstage.withdrawl.fee</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>手续费</t>
+  </si>
+  <si>
+    <t>手續費</t>
+  </si>
+  <si>
+    <t>frontstage.user.withdrawalRecord.column.Fee</t>
   </si>
   <si>
     <t>backstage.member.transferSubordinate</t>
@@ -14584,7 +14626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1426"/>
+  <dimension ref="A1:E1430"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -24274,7 +24316,7 @@
         <v>2156</v>
       </c>
       <c r="E570">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
@@ -24291,7 +24333,7 @@
         <v>2160</v>
       </c>
       <c r="E571">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
@@ -24308,7 +24350,7 @@
         <v>2164</v>
       </c>
       <c r="E572">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
@@ -24325,7 +24367,7 @@
         <v>2168</v>
       </c>
       <c r="E573">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
@@ -24333,24 +24375,24 @@
         <v>2169</v>
       </c>
       <c r="B574" t="s">
-        <v>1922</v>
+        <v>2170</v>
       </c>
       <c r="C574" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D574" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="E574">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B575" t="s">
-        <v>2173</v>
+        <v>1922</v>
       </c>
       <c r="C575" t="s">
         <v>2174</v>
@@ -24359,7 +24401,7 @@
         <v>2175</v>
       </c>
       <c r="E575">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
@@ -24376,7 +24418,7 @@
         <v>2179</v>
       </c>
       <c r="E576">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
@@ -24393,7 +24435,7 @@
         <v>2183</v>
       </c>
       <c r="E577">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
@@ -24410,7 +24452,7 @@
         <v>2187</v>
       </c>
       <c r="E578">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
@@ -24427,7 +24469,7 @@
         <v>2191</v>
       </c>
       <c r="E579">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
@@ -24444,7 +24486,7 @@
         <v>2195</v>
       </c>
       <c r="E580">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
@@ -24461,7 +24503,7 @@
         <v>2199</v>
       </c>
       <c r="E581">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
@@ -24478,7 +24520,7 @@
         <v>2203</v>
       </c>
       <c r="E582">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
@@ -24495,7 +24537,7 @@
         <v>2207</v>
       </c>
       <c r="E583">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
@@ -24503,24 +24545,24 @@
         <v>2208</v>
       </c>
       <c r="B584" t="s">
-        <v>1922</v>
+        <v>2209</v>
       </c>
       <c r="C584" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D584" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E584">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B585" t="s">
-        <v>2212</v>
+        <v>1922</v>
       </c>
       <c r="C585" t="s">
         <v>2213</v>
@@ -24529,7 +24571,7 @@
         <v>2214</v>
       </c>
       <c r="E585">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
@@ -24546,7 +24588,7 @@
         <v>2218</v>
       </c>
       <c r="E586">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
@@ -24563,7 +24605,7 @@
         <v>2222</v>
       </c>
       <c r="E587">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
@@ -24580,7 +24622,7 @@
         <v>2226</v>
       </c>
       <c r="E588">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
@@ -24594,27 +24636,27 @@
         <v>2229</v>
       </c>
       <c r="D589" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="E589">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="B590" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="C590" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="D590" t="s">
         <v>2233</v>
       </c>
       <c r="E590">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
@@ -24631,7 +24673,7 @@
         <v>2237</v>
       </c>
       <c r="E591">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
@@ -24648,7 +24690,7 @@
         <v>2241</v>
       </c>
       <c r="E592">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
@@ -24665,7 +24707,7 @@
         <v>2245</v>
       </c>
       <c r="E593">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
@@ -24682,7 +24724,7 @@
         <v>2249</v>
       </c>
       <c r="E594">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
@@ -24699,7 +24741,7 @@
         <v>2253</v>
       </c>
       <c r="E595">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
@@ -24716,7 +24758,7 @@
         <v>2257</v>
       </c>
       <c r="E596">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
@@ -24733,7 +24775,7 @@
         <v>2261</v>
       </c>
       <c r="E597">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
@@ -24750,7 +24792,7 @@
         <v>2265</v>
       </c>
       <c r="E598">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
@@ -24767,7 +24809,7 @@
         <v>2269</v>
       </c>
       <c r="E599">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
@@ -24784,7 +24826,7 @@
         <v>2273</v>
       </c>
       <c r="E600">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
@@ -24801,7 +24843,7 @@
         <v>2277</v>
       </c>
       <c r="E601">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
@@ -24818,7 +24860,7 @@
         <v>2281</v>
       </c>
       <c r="E602">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
@@ -24835,7 +24877,7 @@
         <v>2285</v>
       </c>
       <c r="E603">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
@@ -24852,7 +24894,7 @@
         <v>2289</v>
       </c>
       <c r="E604">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
@@ -24869,7 +24911,7 @@
         <v>2293</v>
       </c>
       <c r="E605">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
@@ -24886,7 +24928,7 @@
         <v>2297</v>
       </c>
       <c r="E606">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
@@ -24903,7 +24945,7 @@
         <v>2301</v>
       </c>
       <c r="E607">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
@@ -24920,7 +24962,7 @@
         <v>2305</v>
       </c>
       <c r="E608">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
@@ -24937,7 +24979,7 @@
         <v>2309</v>
       </c>
       <c r="E609">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
@@ -24954,7 +24996,7 @@
         <v>2313</v>
       </c>
       <c r="E610">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
@@ -24968,44 +25010,44 @@
         <v>2316</v>
       </c>
       <c r="D611" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="E611">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="B612" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="C612" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D612" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="E612">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="B613" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C613" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="D613" t="s">
         <v>2323</v>
       </c>
       <c r="E613">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
@@ -25022,7 +25064,7 @@
         <v>2327</v>
       </c>
       <c r="E614">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
@@ -25039,7 +25081,7 @@
         <v>2331</v>
       </c>
       <c r="E615">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
@@ -25056,7 +25098,7 @@
         <v>2335</v>
       </c>
       <c r="E616">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
@@ -25073,7 +25115,7 @@
         <v>2339</v>
       </c>
       <c r="E617">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
@@ -25090,7 +25132,7 @@
         <v>2343</v>
       </c>
       <c r="E618">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -25107,7 +25149,7 @@
         <v>2347</v>
       </c>
       <c r="E619">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
@@ -25115,41 +25157,41 @@
         <v>2348</v>
       </c>
       <c r="B620" t="s">
-        <v>637</v>
+        <v>2349</v>
       </c>
       <c r="C620" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="D620" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="E620">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B621" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C621" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="D621" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="E621">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B622" t="s">
-        <v>2355</v>
+        <v>641</v>
       </c>
       <c r="C622" t="s">
         <v>2356</v>
@@ -25158,7 +25200,7 @@
         <v>2357</v>
       </c>
       <c r="E622">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
@@ -25175,7 +25217,7 @@
         <v>2361</v>
       </c>
       <c r="E623">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
@@ -25192,7 +25234,7 @@
         <v>2365</v>
       </c>
       <c r="E624">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -25206,27 +25248,27 @@
         <v>2368</v>
       </c>
       <c r="D625" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E625">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B626" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C626" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="D626" t="s">
         <v>2372</v>
       </c>
       <c r="E626">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
@@ -25237,30 +25279,30 @@
         <v>2374</v>
       </c>
       <c r="C627" t="s">
-        <v>2056</v>
+        <v>2375</v>
       </c>
       <c r="D627" t="s">
-        <v>2057</v>
+        <v>2376</v>
       </c>
       <c r="E627">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="B628" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="C628" t="s">
-        <v>2377</v>
+        <v>2056</v>
       </c>
       <c r="D628" t="s">
-        <v>2378</v>
+        <v>2057</v>
       </c>
       <c r="E628">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -25277,7 +25319,7 @@
         <v>2382</v>
       </c>
       <c r="E629">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
@@ -25294,7 +25336,7 @@
         <v>2386</v>
       </c>
       <c r="E630">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -25311,7 +25353,7 @@
         <v>2390</v>
       </c>
       <c r="E631">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
@@ -25328,7 +25370,7 @@
         <v>2394</v>
       </c>
       <c r="E632">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
@@ -25345,7 +25387,7 @@
         <v>2398</v>
       </c>
       <c r="E633">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
@@ -25353,50 +25395,50 @@
         <v>2399</v>
       </c>
       <c r="B634" t="s">
-        <v>1823</v>
+        <v>2400</v>
       </c>
       <c r="C634" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="D634" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="E634">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B635" t="s">
-        <v>2403</v>
+        <v>1823</v>
       </c>
       <c r="C635" t="s">
         <v>2404</v>
       </c>
       <c r="D635" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="E635">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="B636" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="C636" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="D636" t="s">
         <v>2408</v>
       </c>
       <c r="E636">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
@@ -25413,7 +25455,7 @@
         <v>2412</v>
       </c>
       <c r="E637">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
@@ -25421,24 +25463,24 @@
         <v>2413</v>
       </c>
       <c r="B638" t="s">
-        <v>1974</v>
+        <v>2414</v>
       </c>
       <c r="C638" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D638" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="E638">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="B639" t="s">
-        <v>2417</v>
+        <v>1974</v>
       </c>
       <c r="C639" t="s">
         <v>2418</v>
@@ -25447,7 +25489,7 @@
         <v>2419</v>
       </c>
       <c r="E639">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
@@ -25464,7 +25506,7 @@
         <v>2423</v>
       </c>
       <c r="E640">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
@@ -25481,7 +25523,7 @@
         <v>2427</v>
       </c>
       <c r="E641">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
@@ -25498,7 +25540,7 @@
         <v>2431</v>
       </c>
       <c r="E642">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
@@ -25515,7 +25557,7 @@
         <v>2435</v>
       </c>
       <c r="E643">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
@@ -25529,27 +25571,27 @@
         <v>2438</v>
       </c>
       <c r="D644" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="E644">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="B645" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="C645" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="D645" t="s">
         <v>2442</v>
       </c>
       <c r="E645">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
@@ -25557,24 +25599,24 @@
         <v>2443</v>
       </c>
       <c r="B646" t="s">
-        <v>554</v>
+        <v>2444</v>
       </c>
       <c r="C646" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="D646" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="E646">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="B647" t="s">
-        <v>2447</v>
+        <v>554</v>
       </c>
       <c r="C647" t="s">
         <v>2448</v>
@@ -25583,7 +25625,7 @@
         <v>2449</v>
       </c>
       <c r="E647">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
@@ -25600,7 +25642,7 @@
         <v>2453</v>
       </c>
       <c r="E648">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
@@ -25617,7 +25659,7 @@
         <v>2457</v>
       </c>
       <c r="E649">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
@@ -25634,7 +25676,7 @@
         <v>2461</v>
       </c>
       <c r="E650">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
@@ -25642,24 +25684,24 @@
         <v>2462</v>
       </c>
       <c r="B651" t="s">
-        <v>407</v>
+        <v>2463</v>
       </c>
       <c r="C651" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="D651" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E651">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="B652" t="s">
-        <v>2466</v>
+        <v>407</v>
       </c>
       <c r="C652" t="s">
         <v>2467</v>
@@ -25668,7 +25710,7 @@
         <v>2468</v>
       </c>
       <c r="E652">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
@@ -25685,7 +25727,7 @@
         <v>2472</v>
       </c>
       <c r="E653">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
@@ -25702,7 +25744,7 @@
         <v>2476</v>
       </c>
       <c r="E654">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
@@ -25710,24 +25752,24 @@
         <v>2477</v>
       </c>
       <c r="B655" t="s">
-        <v>1823</v>
+        <v>2478</v>
       </c>
       <c r="C655" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="D655" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="E655">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="B656" t="s">
-        <v>2481</v>
+        <v>1823</v>
       </c>
       <c r="C656" t="s">
         <v>2482</v>
@@ -25736,7 +25778,7 @@
         <v>2483</v>
       </c>
       <c r="E656">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
@@ -25753,7 +25795,7 @@
         <v>2487</v>
       </c>
       <c r="E657">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
@@ -25770,7 +25812,7 @@
         <v>2491</v>
       </c>
       <c r="E658">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
@@ -25787,7 +25829,7 @@
         <v>2495</v>
       </c>
       <c r="E659">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
@@ -25804,7 +25846,7 @@
         <v>2499</v>
       </c>
       <c r="E660">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
@@ -25821,7 +25863,7 @@
         <v>2503</v>
       </c>
       <c r="E661">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
@@ -25838,7 +25880,7 @@
         <v>2507</v>
       </c>
       <c r="E662">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
@@ -25855,7 +25897,7 @@
         <v>2511</v>
       </c>
       <c r="E663">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
@@ -25872,7 +25914,7 @@
         <v>2515</v>
       </c>
       <c r="E664">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
@@ -25889,7 +25931,7 @@
         <v>2519</v>
       </c>
       <c r="E665">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
@@ -25906,7 +25948,7 @@
         <v>2523</v>
       </c>
       <c r="E666">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
@@ -25923,7 +25965,7 @@
         <v>2527</v>
       </c>
       <c r="E667">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
@@ -25940,7 +25982,7 @@
         <v>2531</v>
       </c>
       <c r="E668">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
@@ -25948,24 +25990,24 @@
         <v>2532</v>
       </c>
       <c r="B669" t="s">
-        <v>581</v>
+        <v>2533</v>
       </c>
       <c r="C669" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="D669" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="E669">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B670" t="s">
-        <v>2536</v>
+        <v>581</v>
       </c>
       <c r="C670" t="s">
         <v>2537</v>
@@ -25974,7 +26016,7 @@
         <v>2538</v>
       </c>
       <c r="E670">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
@@ -25991,7 +26033,7 @@
         <v>2542</v>
       </c>
       <c r="E671">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
@@ -26008,7 +26050,7 @@
         <v>2546</v>
       </c>
       <c r="E672">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
@@ -26025,7 +26067,7 @@
         <v>2550</v>
       </c>
       <c r="E673">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
@@ -26042,7 +26084,7 @@
         <v>2554</v>
       </c>
       <c r="E674">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
@@ -26059,7 +26101,7 @@
         <v>2558</v>
       </c>
       <c r="E675">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
@@ -26076,7 +26118,7 @@
         <v>2562</v>
       </c>
       <c r="E676">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
@@ -26093,7 +26135,7 @@
         <v>2566</v>
       </c>
       <c r="E677">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
@@ -26107,27 +26149,27 @@
         <v>2569</v>
       </c>
       <c r="D678" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="E678">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="B679" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="C679" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="D679" t="s">
         <v>2573</v>
       </c>
       <c r="E679">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
@@ -26144,7 +26186,7 @@
         <v>2577</v>
       </c>
       <c r="E680">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
@@ -26161,7 +26203,7 @@
         <v>2581</v>
       </c>
       <c r="E681">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
@@ -26178,7 +26220,7 @@
         <v>2585</v>
       </c>
       <c r="E682">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
@@ -26195,7 +26237,7 @@
         <v>2589</v>
       </c>
       <c r="E683">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -26212,7 +26254,7 @@
         <v>2593</v>
       </c>
       <c r="E684">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
@@ -26229,7 +26271,7 @@
         <v>2597</v>
       </c>
       <c r="E685">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.25">
@@ -26246,7 +26288,7 @@
         <v>2601</v>
       </c>
       <c r="E686">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.25">
@@ -26263,7 +26305,7 @@
         <v>2605</v>
       </c>
       <c r="E687">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.25">
@@ -26280,7 +26322,7 @@
         <v>2609</v>
       </c>
       <c r="E688">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.25">
@@ -26294,44 +26336,44 @@
         <v>2612</v>
       </c>
       <c r="D689" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="E689">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="B690" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="C690" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="D690" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="E690">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="B691" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="C691" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="D691" t="s">
         <v>2619</v>
       </c>
       <c r="E691">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.25">
@@ -26348,7 +26390,7 @@
         <v>2623</v>
       </c>
       <c r="E692">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.25">
@@ -26365,7 +26407,7 @@
         <v>2627</v>
       </c>
       <c r="E693">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.25">
@@ -26382,7 +26424,7 @@
         <v>2631</v>
       </c>
       <c r="E694">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
@@ -26399,7 +26441,7 @@
         <v>2635</v>
       </c>
       <c r="E695">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.25">
@@ -26416,7 +26458,7 @@
         <v>2639</v>
       </c>
       <c r="E696">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
@@ -26433,7 +26475,7 @@
         <v>2643</v>
       </c>
       <c r="E697">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
@@ -26450,7 +26492,7 @@
         <v>2647</v>
       </c>
       <c r="E698">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.25">
@@ -26467,7 +26509,7 @@
         <v>2651</v>
       </c>
       <c r="E699">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.25">
@@ -26484,7 +26526,7 @@
         <v>2655</v>
       </c>
       <c r="E700">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.25">
@@ -26501,7 +26543,7 @@
         <v>2659</v>
       </c>
       <c r="E701">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.25">
@@ -26518,7 +26560,7 @@
         <v>2663</v>
       </c>
       <c r="E702">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.25">
@@ -26535,7 +26577,7 @@
         <v>2667</v>
       </c>
       <c r="E703">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.25">
@@ -26549,44 +26591,44 @@
         <v>2670</v>
       </c>
       <c r="D704" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="E704">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="B705" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="C705" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="D705" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="E705">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="B706" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C706" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="D706" t="s">
         <v>2677</v>
       </c>
       <c r="E706">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.25">
@@ -26603,7 +26645,7 @@
         <v>2681</v>
       </c>
       <c r="E707">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
@@ -26620,7 +26662,7 @@
         <v>2685</v>
       </c>
       <c r="E708">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.25">
@@ -26637,7 +26679,7 @@
         <v>2689</v>
       </c>
       <c r="E709">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
@@ -26654,7 +26696,7 @@
         <v>2693</v>
       </c>
       <c r="E710">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
@@ -26671,7 +26713,7 @@
         <v>2697</v>
       </c>
       <c r="E711">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.25">
@@ -26685,27 +26727,27 @@
         <v>2700</v>
       </c>
       <c r="D712" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="E712">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="B713" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="C713" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="D713" t="s">
         <v>2704</v>
       </c>
       <c r="E713">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.25">
@@ -26722,7 +26764,7 @@
         <v>2708</v>
       </c>
       <c r="E714">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.25">
@@ -26739,7 +26781,7 @@
         <v>2712</v>
       </c>
       <c r="E715">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.25">
@@ -26753,35 +26795,35 @@
         <v>2715</v>
       </c>
       <c r="D716" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E716">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="B717" t="s">
-        <v>1225</v>
+        <v>2718</v>
       </c>
       <c r="C717" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="D717" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="E717">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="B718" t="s">
-        <v>2720</v>
+        <v>1225</v>
       </c>
       <c r="C718" t="s">
         <v>2721</v>
@@ -26790,7 +26832,7 @@
         <v>2722</v>
       </c>
       <c r="E718">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
@@ -26807,7 +26849,7 @@
         <v>2726</v>
       </c>
       <c r="E719">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -26824,7 +26866,7 @@
         <v>2730</v>
       </c>
       <c r="E720">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -26841,7 +26883,7 @@
         <v>2734</v>
       </c>
       <c r="E721">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -26858,7 +26900,7 @@
         <v>2738</v>
       </c>
       <c r="E722">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -26875,7 +26917,7 @@
         <v>2742</v>
       </c>
       <c r="E723">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
@@ -26892,7 +26934,7 @@
         <v>2746</v>
       </c>
       <c r="E724">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
@@ -26900,41 +26942,41 @@
         <v>2747</v>
       </c>
       <c r="B725" t="s">
-        <v>2287</v>
+        <v>2748</v>
       </c>
       <c r="C725" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="D725" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E725">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="B726" t="s">
-        <v>2744</v>
+        <v>2291</v>
       </c>
       <c r="C726" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="D726" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E726">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="B727" t="s">
-        <v>2754</v>
+        <v>2748</v>
       </c>
       <c r="C727" t="s">
         <v>2755</v>
@@ -26943,7 +26985,7 @@
         <v>2756</v>
       </c>
       <c r="E727">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
@@ -26960,7 +27002,7 @@
         <v>2760</v>
       </c>
       <c r="E728">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
@@ -27855,10 +27897,10 @@
         <v>1823</v>
       </c>
       <c r="C781" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="D781" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="E781">
         <v>866</v>
@@ -28467,10 +28509,10 @@
         <v>2989</v>
       </c>
       <c r="C817" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
       <c r="D817" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="E817">
         <v>904</v>
@@ -28773,10 +28815,10 @@
         <v>3049</v>
       </c>
       <c r="C835" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="D835" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="E835">
         <v>942</v>
@@ -28858,10 +28900,10 @@
         <v>3066</v>
       </c>
       <c r="C840" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="D840" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="E840">
         <v>948</v>
@@ -30405,10 +30447,10 @@
         <v>3407</v>
       </c>
       <c r="C931" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="D931" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="E931">
         <v>1053</v>
@@ -32037,10 +32079,10 @@
         <v>3758</v>
       </c>
       <c r="C1027" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="D1027" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="E1027">
         <v>1248</v>
@@ -32094,7 +32136,7 @@
         <v>3769</v>
       </c>
       <c r="E1030">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
@@ -32108,7 +32150,7 @@
         <v>3772</v>
       </c>
       <c r="D1031" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="E1031">
         <v>1254</v>
@@ -32116,50 +32158,50 @@
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="B1032" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="C1032" t="s">
-        <v>2170</v>
+        <v>3776</v>
       </c>
       <c r="D1032" t="s">
-        <v>2171</v>
+        <v>3777</v>
       </c>
       <c r="E1032">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>3775</v>
+        <v>3778</v>
       </c>
       <c r="B1033" t="s">
-        <v>2150</v>
+        <v>3779</v>
       </c>
       <c r="C1033" t="s">
-        <v>2765</v>
+        <v>3780</v>
       </c>
       <c r="D1033" t="s">
-        <v>2765</v>
+        <v>3780</v>
       </c>
       <c r="E1033">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>3776</v>
+        <v>3781</v>
       </c>
       <c r="B1034" t="s">
-        <v>3777</v>
+        <v>3782</v>
       </c>
       <c r="C1034" t="s">
-        <v>3778</v>
+        <v>2174</v>
       </c>
       <c r="D1034" t="s">
-        <v>3779</v>
+        <v>2175</v>
       </c>
       <c r="E1034">
         <v>1258</v>
@@ -32167,19 +32209,19 @@
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>3780</v>
+        <v>3783</v>
       </c>
       <c r="B1035" t="s">
-        <v>3781</v>
+        <v>2150</v>
       </c>
       <c r="C1035" t="s">
-        <v>3782</v>
+        <v>2765</v>
       </c>
       <c r="D1035" t="s">
-        <v>3783</v>
+        <v>2765</v>
       </c>
       <c r="E1035">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
@@ -32190,30 +32232,30 @@
         <v>3785</v>
       </c>
       <c r="C1036" t="s">
-        <v>372</v>
+        <v>3786</v>
       </c>
       <c r="D1036" t="s">
-        <v>373</v>
+        <v>3787</v>
       </c>
       <c r="E1036">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>3786</v>
+        <v>3788</v>
       </c>
       <c r="B1037" t="s">
-        <v>3787</v>
+        <v>3789</v>
       </c>
       <c r="C1037" t="s">
-        <v>3788</v>
+        <v>2155</v>
       </c>
       <c r="D1037" t="s">
-        <v>3789</v>
+        <v>2156</v>
       </c>
       <c r="E1037">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
@@ -32230,7 +32272,7 @@
         <v>3793</v>
       </c>
       <c r="E1038">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
@@ -32241,10 +32283,10 @@
         <v>3795</v>
       </c>
       <c r="C1039" t="s">
-        <v>368</v>
+        <v>3796</v>
       </c>
       <c r="D1039" t="s">
-        <v>369</v>
+        <v>3797</v>
       </c>
       <c r="E1039">
         <v>1265</v>
@@ -32252,16 +32294,16 @@
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>3796</v>
+        <v>3798</v>
       </c>
       <c r="B1040" t="s">
-        <v>3797</v>
+        <v>3799</v>
       </c>
       <c r="C1040" t="s">
-        <v>3798</v>
+        <v>372</v>
       </c>
       <c r="D1040" t="s">
-        <v>3798</v>
+        <v>373</v>
       </c>
       <c r="E1040">
         <v>1266</v>
@@ -32269,16 +32311,16 @@
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>3799</v>
+        <v>3800</v>
       </c>
       <c r="B1041" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="C1041" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="D1041" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="E1041">
         <v>1267</v>
@@ -32286,16 +32328,16 @@
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="B1042" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="C1042" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="D1042" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="E1042">
         <v>1268</v>
@@ -32303,16 +32345,16 @@
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="B1043" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="C1043" t="s">
-        <v>3809</v>
+        <v>368</v>
       </c>
       <c r="D1043" t="s">
-        <v>3810</v>
+        <v>369</v>
       </c>
       <c r="E1043">
         <v>1269</v>
@@ -32320,16 +32362,16 @@
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B1044" t="s">
         <v>3811</v>
       </c>
-      <c r="B1044" t="s">
+      <c r="C1044" t="s">
         <v>3812</v>
       </c>
-      <c r="C1044" t="s">
-        <v>3813</v>
-      </c>
       <c r="D1044" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="E1044">
         <v>1270</v>
@@ -32337,152 +32379,152 @@
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C1045" t="s">
         <v>3815</v>
       </c>
-      <c r="B1045" t="s">
+      <c r="D1045" t="s">
         <v>3816</v>
       </c>
-      <c r="C1045" t="s">
-        <v>3817</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>3818</v>
-      </c>
       <c r="E1045">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C1046" t="s">
         <v>3819</v>
       </c>
-      <c r="B1046" t="s">
+      <c r="D1046" t="s">
         <v>3820</v>
       </c>
-      <c r="C1046" t="s">
-        <v>3821</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>3822</v>
-      </c>
       <c r="E1046">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C1047" t="s">
         <v>3823</v>
       </c>
-      <c r="B1047" t="s">
+      <c r="D1047" t="s">
         <v>3824</v>
       </c>
-      <c r="C1047" t="s">
-        <v>3825</v>
-      </c>
-      <c r="D1047" t="s">
-        <v>3826</v>
-      </c>
       <c r="E1047">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C1048" t="s">
         <v>3827</v>
       </c>
-      <c r="B1048" t="s">
+      <c r="D1048" t="s">
         <v>3828</v>
       </c>
-      <c r="C1048" t="s">
-        <v>3829</v>
-      </c>
-      <c r="D1048" t="s">
-        <v>3830</v>
-      </c>
       <c r="E1048">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C1049" t="s">
         <v>3831</v>
       </c>
-      <c r="B1049" t="s">
+      <c r="D1049" t="s">
         <v>3832</v>
       </c>
-      <c r="C1049" t="s">
-        <v>3833</v>
-      </c>
-      <c r="D1049" t="s">
-        <v>3833</v>
-      </c>
       <c r="E1049">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B1050" t="s">
         <v>3834</v>
       </c>
-      <c r="B1050" t="s">
+      <c r="C1050" t="s">
         <v>3835</v>
       </c>
-      <c r="C1050" t="s">
+      <c r="D1050" t="s">
         <v>3836</v>
       </c>
-      <c r="D1050" t="s">
-        <v>3837</v>
-      </c>
       <c r="E1050">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B1051" t="s">
         <v>3838</v>
       </c>
-      <c r="B1051" t="s">
+      <c r="C1051" t="s">
         <v>3839</v>
       </c>
-      <c r="C1051" t="s">
+      <c r="D1051" t="s">
         <v>3840</v>
       </c>
-      <c r="D1051" t="s">
-        <v>3841</v>
-      </c>
       <c r="E1051">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B1052" t="s">
         <v>3842</v>
       </c>
-      <c r="B1052" t="s">
+      <c r="C1052" t="s">
         <v>3843</v>
       </c>
-      <c r="C1052" t="s">
+      <c r="D1052" t="s">
         <v>3844</v>
       </c>
-      <c r="D1052" t="s">
-        <v>3845</v>
-      </c>
       <c r="E1052">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B1053" t="s">
         <v>3846</v>
       </c>
-      <c r="B1053" t="s">
+      <c r="C1053" t="s">
         <v>3847</v>
       </c>
-      <c r="C1053" t="s">
-        <v>3848</v>
-      </c>
       <c r="D1053" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="E1053">
         <v>1281</v>
@@ -32490,16 +32532,16 @@
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1054" t="s">
         <v>3850</v>
       </c>
-      <c r="B1054" t="s">
+      <c r="D1054" t="s">
         <v>3851</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>3852</v>
-      </c>
-      <c r="D1054" t="s">
-        <v>3853</v>
       </c>
       <c r="E1054">
         <v>1282</v>
@@ -32507,16 +32549,16 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C1055" t="s">
         <v>3854</v>
       </c>
-      <c r="B1055" t="s">
+      <c r="D1055" t="s">
         <v>3855</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>3856</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>3857</v>
       </c>
       <c r="E1055">
         <v>1283</v>
@@ -32524,16 +32566,16 @@
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1056" t="s">
         <v>3858</v>
       </c>
-      <c r="B1056" t="s">
+      <c r="D1056" t="s">
         <v>3859</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>3860</v>
-      </c>
-      <c r="D1056" t="s">
-        <v>3860</v>
       </c>
       <c r="E1056">
         <v>1284</v>
@@ -32541,16 +32583,16 @@
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1057" t="s">
         <v>3861</v>
       </c>
-      <c r="B1057" t="s">
+      <c r="C1057" t="s">
         <v>3862</v>
       </c>
-      <c r="C1057" t="s">
+      <c r="D1057" t="s">
         <v>3863</v>
-      </c>
-      <c r="D1057" t="s">
-        <v>3864</v>
       </c>
       <c r="E1057">
         <v>1285</v>
@@ -32558,13 +32600,13 @@
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B1058" t="s">
         <v>3865</v>
       </c>
-      <c r="B1058" t="s">
+      <c r="C1058" t="s">
         <v>3866</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>3867</v>
       </c>
       <c r="D1058" t="s">
         <v>3867</v>
@@ -32601,7 +32643,7 @@
         <v>3874</v>
       </c>
       <c r="D1060" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="E1060">
         <v>1288</v>
@@ -32609,13 +32651,13 @@
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B1061" t="s">
         <v>3876</v>
       </c>
-      <c r="B1061" t="s">
+      <c r="C1061" t="s">
         <v>3877</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>3878</v>
       </c>
       <c r="D1061" t="s">
         <v>3878</v>
@@ -32635,7 +32677,7 @@
         <v>3881</v>
       </c>
       <c r="D1062" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="E1062">
         <v>1290</v>
@@ -32643,87 +32685,87 @@
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B1063" t="s">
         <v>3883</v>
       </c>
-      <c r="B1063" t="s">
+      <c r="C1063" t="s">
         <v>3884</v>
       </c>
-      <c r="C1063" t="s">
-        <v>2888</v>
-      </c>
       <c r="D1063" t="s">
-        <v>2889</v>
+        <v>3885</v>
       </c>
       <c r="E1063">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
       <c r="B1064" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="C1064" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="D1064" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="E1064">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="B1065" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="C1065" t="s">
-        <v>392</v>
+        <v>3892</v>
       </c>
       <c r="D1065" t="s">
-        <v>393</v>
+        <v>3892</v>
       </c>
       <c r="E1065">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="B1066" t="s">
-        <v>3892</v>
+        <v>3894</v>
       </c>
       <c r="C1066" t="s">
-        <v>3893</v>
+        <v>3895</v>
       </c>
       <c r="D1066" t="s">
-        <v>3894</v>
+        <v>3896</v>
       </c>
       <c r="E1066">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="B1067" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
       <c r="C1067" t="s">
-        <v>3897</v>
+        <v>2888</v>
       </c>
       <c r="D1067" t="s">
-        <v>3898</v>
+        <v>2889</v>
       </c>
       <c r="E1067">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
@@ -32740,7 +32782,7 @@
         <v>3902</v>
       </c>
       <c r="E1068">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
@@ -32751,10 +32793,10 @@
         <v>3904</v>
       </c>
       <c r="C1069" t="s">
-        <v>3905</v>
+        <v>392</v>
       </c>
       <c r="D1069" t="s">
-        <v>3906</v>
+        <v>393</v>
       </c>
       <c r="E1069">
         <v>1301</v>
@@ -32762,16 +32804,16 @@
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1070" t="s">
         <v>3907</v>
       </c>
-      <c r="B1070" t="s">
+      <c r="D1070" t="s">
         <v>3908</v>
-      </c>
-      <c r="C1070" t="s">
-        <v>3909</v>
-      </c>
-      <c r="D1070" t="s">
-        <v>3910</v>
       </c>
       <c r="E1070">
         <v>1302</v>
@@ -32779,16 +32821,16 @@
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C1071" t="s">
         <v>3911</v>
       </c>
-      <c r="B1071" t="s">
+      <c r="D1071" t="s">
         <v>3912</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>3913</v>
-      </c>
-      <c r="D1071" t="s">
-        <v>3914</v>
       </c>
       <c r="E1071">
         <v>1303</v>
@@ -32796,16 +32838,16 @@
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C1072" t="s">
         <v>3915</v>
       </c>
-      <c r="B1072" t="s">
+      <c r="D1072" t="s">
         <v>3916</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>3917</v>
-      </c>
-      <c r="D1072" t="s">
-        <v>3918</v>
       </c>
       <c r="E1072">
         <v>1304</v>
@@ -32813,16 +32855,16 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1073" t="s">
         <v>3919</v>
       </c>
-      <c r="B1073" t="s">
+      <c r="D1073" t="s">
         <v>3920</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>3921</v>
-      </c>
-      <c r="D1073" t="s">
-        <v>3922</v>
       </c>
       <c r="E1073">
         <v>1305</v>
@@ -32830,16 +32872,16 @@
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C1074" t="s">
         <v>3923</v>
       </c>
-      <c r="B1074" t="s">
+      <c r="D1074" t="s">
         <v>3924</v>
-      </c>
-      <c r="C1074" t="s">
-        <v>3925</v>
-      </c>
-      <c r="D1074" t="s">
-        <v>3926</v>
       </c>
       <c r="E1074">
         <v>1306</v>
@@ -32847,84 +32889,84 @@
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
+        <v>3925</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C1075" t="s">
         <v>3927</v>
       </c>
-      <c r="B1075" t="s">
+      <c r="D1075" t="s">
         <v>3928</v>
       </c>
-      <c r="C1075" t="s">
-        <v>3929</v>
-      </c>
-      <c r="D1075" t="s">
-        <v>3930</v>
-      </c>
       <c r="E1075">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C1076" t="s">
         <v>3931</v>
       </c>
-      <c r="B1076" t="s">
+      <c r="D1076" t="s">
         <v>3932</v>
       </c>
-      <c r="C1076" t="s">
-        <v>3933</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>3934</v>
-      </c>
       <c r="E1076">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C1077" t="s">
         <v>3935</v>
       </c>
-      <c r="B1077" t="s">
+      <c r="D1077" t="s">
         <v>3936</v>
       </c>
-      <c r="C1077" t="s">
-        <v>3937</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>3938</v>
-      </c>
       <c r="E1077">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C1078" t="s">
         <v>3939</v>
       </c>
-      <c r="B1078" t="s">
+      <c r="D1078" t="s">
         <v>3940</v>
       </c>
-      <c r="C1078" t="s">
-        <v>3941</v>
-      </c>
-      <c r="D1078" t="s">
-        <v>3942</v>
-      </c>
       <c r="E1078">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1079" t="s">
         <v>3943</v>
       </c>
-      <c r="B1079" t="s">
+      <c r="D1079" t="s">
         <v>3944</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>3945</v>
-      </c>
-      <c r="D1079" t="s">
-        <v>3946</v>
       </c>
       <c r="E1079">
         <v>1312</v>
@@ -32932,16 +32974,16 @@
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C1080" t="s">
         <v>3947</v>
       </c>
-      <c r="B1080" t="s">
+      <c r="D1080" t="s">
         <v>3948</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>3949</v>
-      </c>
-      <c r="D1080" t="s">
-        <v>3950</v>
       </c>
       <c r="E1080">
         <v>1313</v>
@@ -32949,16 +32991,16 @@
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C1081" t="s">
         <v>3951</v>
       </c>
-      <c r="B1081" t="s">
+      <c r="D1081" t="s">
         <v>3952</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>3953</v>
-      </c>
-      <c r="D1081" t="s">
-        <v>3954</v>
       </c>
       <c r="E1081">
         <v>1314</v>
@@ -32966,16 +33008,16 @@
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
+        <v>3953</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C1082" t="s">
         <v>3955</v>
       </c>
-      <c r="B1082" t="s">
+      <c r="D1082" t="s">
         <v>3956</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>3957</v>
-      </c>
-      <c r="D1082" t="s">
-        <v>3958</v>
       </c>
       <c r="E1082">
         <v>1315</v>
@@ -32983,16 +33025,16 @@
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
+        <v>3957</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C1083" t="s">
         <v>3959</v>
       </c>
-      <c r="B1083" t="s">
+      <c r="D1083" t="s">
         <v>3960</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>3961</v>
-      </c>
-      <c r="D1083" t="s">
-        <v>3962</v>
       </c>
       <c r="E1083">
         <v>1316</v>
@@ -33000,84 +33042,84 @@
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
+        <v>3961</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C1084" t="s">
         <v>3963</v>
       </c>
-      <c r="B1084" t="s">
+      <c r="D1084" t="s">
         <v>3964</v>
       </c>
-      <c r="C1084" t="s">
-        <v>3965</v>
-      </c>
-      <c r="D1084" t="s">
-        <v>3966</v>
-      </c>
       <c r="E1084">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
+        <v>3965</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1085" t="s">
         <v>3967</v>
       </c>
-      <c r="B1085" t="s">
+      <c r="D1085" t="s">
         <v>3968</v>
       </c>
-      <c r="C1085" t="s">
-        <v>3969</v>
-      </c>
-      <c r="D1085" t="s">
-        <v>3970</v>
-      </c>
       <c r="E1085">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C1086" t="s">
         <v>3971</v>
       </c>
-      <c r="B1086" t="s">
+      <c r="D1086" t="s">
         <v>3972</v>
       </c>
-      <c r="C1086" t="s">
-        <v>3973</v>
-      </c>
-      <c r="D1086" t="s">
-        <v>3974</v>
-      </c>
       <c r="E1086">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
+        <v>3973</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C1087" t="s">
         <v>3975</v>
       </c>
-      <c r="B1087" t="s">
+      <c r="D1087" t="s">
         <v>3976</v>
       </c>
-      <c r="C1087" t="s">
-        <v>3977</v>
-      </c>
-      <c r="D1087" t="s">
-        <v>3978</v>
-      </c>
       <c r="E1087">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
+        <v>3977</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>3978</v>
+      </c>
+      <c r="C1088" t="s">
         <v>3979</v>
       </c>
-      <c r="B1088" t="s">
+      <c r="D1088" t="s">
         <v>3980</v>
-      </c>
-      <c r="C1088" t="s">
-        <v>3981</v>
-      </c>
-      <c r="D1088" t="s">
-        <v>3982</v>
       </c>
       <c r="E1088">
         <v>1322</v>
@@ -33085,16 +33127,16 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1089" t="s">
         <v>3983</v>
       </c>
-      <c r="B1089" t="s">
+      <c r="D1089" t="s">
         <v>3984</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>3985</v>
-      </c>
-      <c r="D1089" t="s">
-        <v>3986</v>
       </c>
       <c r="E1089">
         <v>1323</v>
@@ -33102,16 +33144,16 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C1090" t="s">
         <v>3987</v>
       </c>
-      <c r="B1090" t="s">
+      <c r="D1090" t="s">
         <v>3988</v>
-      </c>
-      <c r="C1090" t="s">
-        <v>3989</v>
-      </c>
-      <c r="D1090" t="s">
-        <v>3990</v>
       </c>
       <c r="E1090">
         <v>1324</v>
@@ -33119,16 +33161,16 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C1091" t="s">
         <v>3991</v>
       </c>
-      <c r="B1091" t="s">
+      <c r="D1091" t="s">
         <v>3992</v>
-      </c>
-      <c r="C1091" t="s">
-        <v>3993</v>
-      </c>
-      <c r="D1091" t="s">
-        <v>3994</v>
       </c>
       <c r="E1091">
         <v>1325</v>
@@ -33136,16 +33178,16 @@
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C1092" t="s">
         <v>3995</v>
       </c>
-      <c r="B1092" t="s">
+      <c r="D1092" t="s">
         <v>3996</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>3997</v>
-      </c>
-      <c r="D1092" t="s">
-        <v>3998</v>
       </c>
       <c r="E1092">
         <v>1326</v>
@@ -33153,16 +33195,16 @@
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C1093" t="s">
         <v>3999</v>
       </c>
-      <c r="B1093" t="s">
+      <c r="D1093" t="s">
         <v>4000</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>4001</v>
-      </c>
-      <c r="D1093" t="s">
-        <v>4002</v>
       </c>
       <c r="E1093">
         <v>1327</v>
@@ -33170,16 +33212,16 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C1094" t="s">
         <v>4003</v>
       </c>
-      <c r="B1094" t="s">
+      <c r="D1094" t="s">
         <v>4004</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>4005</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>4006</v>
       </c>
       <c r="E1094">
         <v>1328</v>
@@ -33187,16 +33229,16 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C1095" t="s">
         <v>4007</v>
       </c>
-      <c r="B1095" t="s">
+      <c r="D1095" t="s">
         <v>4008</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>4009</v>
-      </c>
-      <c r="D1095" t="s">
-        <v>4010</v>
       </c>
       <c r="E1095">
         <v>1329</v>
@@ -33204,16 +33246,16 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C1096" t="s">
         <v>4011</v>
       </c>
-      <c r="B1096" t="s">
+      <c r="D1096" t="s">
         <v>4012</v>
-      </c>
-      <c r="C1096" t="s">
-        <v>4013</v>
-      </c>
-      <c r="D1096" t="s">
-        <v>4014</v>
       </c>
       <c r="E1096">
         <v>1330</v>
@@ -33221,16 +33263,16 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>4014</v>
+      </c>
+      <c r="C1097" t="s">
         <v>4015</v>
       </c>
-      <c r="B1097" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C1097" t="s">
+      <c r="D1097" t="s">
         <v>4016</v>
-      </c>
-      <c r="D1097" t="s">
-        <v>4017</v>
       </c>
       <c r="E1097">
         <v>1331</v>
@@ -33238,16 +33280,16 @@
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B1098" t="s">
         <v>4018</v>
       </c>
-      <c r="B1098" t="s">
+      <c r="C1098" t="s">
         <v>4019</v>
       </c>
-      <c r="C1098" t="s">
-        <v>3782</v>
-      </c>
       <c r="D1098" t="s">
-        <v>3783</v>
+        <v>4020</v>
       </c>
       <c r="E1098">
         <v>1332</v>
@@ -33255,16 +33297,16 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="B1099" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="C1099" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="D1099" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="E1099">
         <v>1333</v>
@@ -33272,16 +33314,16 @@
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="B1100" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
       <c r="C1100" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="D1100" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="E1100">
         <v>1334</v>
@@ -33289,16 +33331,16 @@
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="B1101" t="s">
-        <v>4029</v>
+        <v>1433</v>
       </c>
       <c r="C1101" t="s">
-        <v>877</v>
+        <v>4030</v>
       </c>
       <c r="D1101" t="s">
-        <v>878</v>
+        <v>4031</v>
       </c>
       <c r="E1101">
         <v>1335</v>
@@ -33306,16 +33348,16 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>4030</v>
+        <v>4032</v>
       </c>
       <c r="B1102" t="s">
-        <v>4031</v>
+        <v>4033</v>
       </c>
       <c r="C1102" t="s">
-        <v>796</v>
+        <v>3796</v>
       </c>
       <c r="D1102" t="s">
-        <v>797</v>
+        <v>3797</v>
       </c>
       <c r="E1102">
         <v>1336</v>
@@ -33323,16 +33365,16 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>4032</v>
+        <v>4034</v>
       </c>
       <c r="B1103" t="s">
-        <v>4033</v>
+        <v>4035</v>
       </c>
       <c r="C1103" t="s">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="D1103" t="s">
-        <v>4035</v>
+        <v>4037</v>
       </c>
       <c r="E1103">
         <v>1337</v>
@@ -33340,16 +33382,16 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>4036</v>
+        <v>4038</v>
       </c>
       <c r="B1104" t="s">
-        <v>4037</v>
+        <v>4039</v>
       </c>
       <c r="C1104" t="s">
-        <v>4038</v>
+        <v>4040</v>
       </c>
       <c r="D1104" t="s">
-        <v>4039</v>
+        <v>4041</v>
       </c>
       <c r="E1104">
         <v>1338</v>
@@ -33357,16 +33399,16 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>4040</v>
+        <v>4042</v>
       </c>
       <c r="B1105" t="s">
-        <v>4041</v>
+        <v>4043</v>
       </c>
       <c r="C1105" t="s">
-        <v>4042</v>
+        <v>877</v>
       </c>
       <c r="D1105" t="s">
-        <v>4043</v>
+        <v>878</v>
       </c>
       <c r="E1105">
         <v>1339</v>
@@ -33380,10 +33422,10 @@
         <v>4045</v>
       </c>
       <c r="C1106" t="s">
-        <v>905</v>
+        <v>796</v>
       </c>
       <c r="D1106" t="s">
-        <v>906</v>
+        <v>797</v>
       </c>
       <c r="E1106">
         <v>1340</v>
@@ -33397,10 +33439,10 @@
         <v>4047</v>
       </c>
       <c r="C1107" t="s">
-        <v>869</v>
+        <v>4048</v>
       </c>
       <c r="D1107" t="s">
-        <v>870</v>
+        <v>4049</v>
       </c>
       <c r="E1107">
         <v>1341</v>
@@ -33408,16 +33450,16 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>4048</v>
+        <v>4050</v>
       </c>
       <c r="B1108" t="s">
-        <v>4049</v>
+        <v>4051</v>
       </c>
       <c r="C1108" t="s">
-        <v>893</v>
+        <v>4052</v>
       </c>
       <c r="D1108" t="s">
-        <v>894</v>
+        <v>4053</v>
       </c>
       <c r="E1108">
         <v>1342</v>
@@ -33425,16 +33467,16 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>4050</v>
+        <v>4054</v>
       </c>
       <c r="B1109" t="s">
-        <v>4051</v>
+        <v>4055</v>
       </c>
       <c r="C1109" t="s">
-        <v>4052</v>
+        <v>4056</v>
       </c>
       <c r="D1109" t="s">
-        <v>4053</v>
+        <v>4057</v>
       </c>
       <c r="E1109">
         <v>1343</v>
@@ -33442,16 +33484,16 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>4054</v>
+        <v>4058</v>
       </c>
       <c r="B1110" t="s">
-        <v>4055</v>
+        <v>4059</v>
       </c>
       <c r="C1110" t="s">
-        <v>4056</v>
+        <v>905</v>
       </c>
       <c r="D1110" t="s">
-        <v>4057</v>
+        <v>906</v>
       </c>
       <c r="E1110">
         <v>1344</v>
@@ -33459,16 +33501,16 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>4058</v>
+        <v>4060</v>
       </c>
       <c r="B1111" t="s">
-        <v>4059</v>
+        <v>4061</v>
       </c>
       <c r="C1111" t="s">
-        <v>4060</v>
+        <v>869</v>
       </c>
       <c r="D1111" t="s">
-        <v>4061</v>
+        <v>870</v>
       </c>
       <c r="E1111">
         <v>1345</v>
@@ -33482,10 +33524,10 @@
         <v>4063</v>
       </c>
       <c r="C1112" t="s">
-        <v>4064</v>
+        <v>893</v>
       </c>
       <c r="D1112" t="s">
-        <v>4065</v>
+        <v>894</v>
       </c>
       <c r="E1112">
         <v>1346</v>
@@ -33493,84 +33535,84 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>4065</v>
+      </c>
+      <c r="C1113" t="s">
         <v>4066</v>
       </c>
-      <c r="B1113" t="s">
+      <c r="D1113" t="s">
         <v>4067</v>
       </c>
-      <c r="C1113" t="s">
-        <v>4068</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>4069</v>
-      </c>
       <c r="E1113">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>4069</v>
+      </c>
+      <c r="C1114" t="s">
         <v>4070</v>
       </c>
-      <c r="B1114" t="s">
+      <c r="D1114" t="s">
         <v>4071</v>
       </c>
-      <c r="C1114" t="s">
-        <v>4072</v>
-      </c>
-      <c r="D1114" t="s">
-        <v>4073</v>
-      </c>
       <c r="E1114">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>4073</v>
+      </c>
+      <c r="C1115" t="s">
         <v>4074</v>
       </c>
-      <c r="B1115" t="s">
+      <c r="D1115" t="s">
         <v>4075</v>
       </c>
-      <c r="C1115" t="s">
-        <v>4076</v>
-      </c>
-      <c r="D1115" t="s">
-        <v>4077</v>
-      </c>
       <c r="E1115">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>4077</v>
+      </c>
+      <c r="C1116" t="s">
         <v>4078</v>
       </c>
-      <c r="B1116" t="s">
+      <c r="D1116" t="s">
         <v>4079</v>
       </c>
-      <c r="C1116" t="s">
-        <v>4080</v>
-      </c>
-      <c r="D1116" t="s">
-        <v>4081</v>
-      </c>
       <c r="E1116">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>4081</v>
+      </c>
+      <c r="C1117" t="s">
         <v>4082</v>
       </c>
-      <c r="B1117" t="s">
+      <c r="D1117" t="s">
         <v>4083</v>
-      </c>
-      <c r="C1117" t="s">
-        <v>4084</v>
-      </c>
-      <c r="D1117" t="s">
-        <v>4085</v>
       </c>
       <c r="E1117">
         <v>1352</v>
@@ -33578,16 +33620,16 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>4085</v>
+      </c>
+      <c r="C1118" t="s">
         <v>4086</v>
       </c>
-      <c r="B1118" t="s">
+      <c r="D1118" t="s">
         <v>4087</v>
-      </c>
-      <c r="C1118" t="s">
-        <v>792</v>
-      </c>
-      <c r="D1118" t="s">
-        <v>793</v>
       </c>
       <c r="E1118">
         <v>1353</v>
@@ -33652,10 +33694,10 @@
         <v>4101</v>
       </c>
       <c r="C1122" t="s">
-        <v>4102</v>
+        <v>792</v>
       </c>
       <c r="D1122" t="s">
-        <v>4103</v>
+        <v>793</v>
       </c>
       <c r="E1122">
         <v>1357</v>
@@ -33663,19 +33705,19 @@
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C1123" t="s">
         <v>4104</v>
       </c>
-      <c r="B1123" t="s">
+      <c r="D1123" t="s">
         <v>4105</v>
       </c>
-      <c r="C1123" t="s">
-        <v>881</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>882</v>
-      </c>
       <c r="E1123">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
@@ -33686,61 +33728,61 @@
         <v>4107</v>
       </c>
       <c r="C1124" t="s">
-        <v>222</v>
+        <v>4108</v>
       </c>
       <c r="D1124" t="s">
-        <v>223</v>
+        <v>4109</v>
       </c>
       <c r="E1124">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>4108</v>
+        <v>4110</v>
       </c>
       <c r="B1125" t="s">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="C1125" t="s">
-        <v>897</v>
+        <v>4112</v>
       </c>
       <c r="D1125" t="s">
-        <v>898</v>
+        <v>4113</v>
       </c>
       <c r="E1125">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>4110</v>
+        <v>4114</v>
       </c>
       <c r="B1126" t="s">
-        <v>4111</v>
+        <v>4115</v>
       </c>
       <c r="C1126" t="s">
-        <v>4112</v>
+        <v>4116</v>
       </c>
       <c r="D1126" t="s">
-        <v>4113</v>
+        <v>4117</v>
       </c>
       <c r="E1126">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>4114</v>
+        <v>4118</v>
       </c>
       <c r="B1127" t="s">
-        <v>4115</v>
+        <v>4119</v>
       </c>
       <c r="C1127" t="s">
-        <v>628</v>
+        <v>881</v>
       </c>
       <c r="D1127" t="s">
-        <v>628</v>
+        <v>882</v>
       </c>
       <c r="E1127">
         <v>1363</v>
@@ -33748,16 +33790,16 @@
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>4116</v>
+        <v>4120</v>
       </c>
       <c r="B1128" t="s">
-        <v>4117</v>
+        <v>4121</v>
       </c>
       <c r="C1128" t="s">
-        <v>4118</v>
+        <v>222</v>
       </c>
       <c r="D1128" t="s">
-        <v>4119</v>
+        <v>223</v>
       </c>
       <c r="E1128">
         <v>1364</v>
@@ -33765,16 +33807,16 @@
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>4120</v>
+        <v>4122</v>
       </c>
       <c r="B1129" t="s">
-        <v>4121</v>
+        <v>4123</v>
       </c>
       <c r="C1129" t="s">
-        <v>4122</v>
+        <v>897</v>
       </c>
       <c r="D1129" t="s">
-        <v>4123</v>
+        <v>898</v>
       </c>
       <c r="E1129">
         <v>1365</v>
@@ -33788,10 +33830,10 @@
         <v>4125</v>
       </c>
       <c r="C1130" t="s">
-        <v>873</v>
+        <v>4126</v>
       </c>
       <c r="D1130" t="s">
-        <v>874</v>
+        <v>4127</v>
       </c>
       <c r="E1130">
         <v>1366</v>
@@ -33799,16 +33841,16 @@
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>4126</v>
+        <v>4128</v>
       </c>
       <c r="B1131" t="s">
-        <v>4127</v>
+        <v>4129</v>
       </c>
       <c r="C1131" t="s">
-        <v>4128</v>
+        <v>628</v>
       </c>
       <c r="D1131" t="s">
-        <v>4129</v>
+        <v>628</v>
       </c>
       <c r="E1131">
         <v>1367</v>
@@ -33839,10 +33881,10 @@
         <v>4135</v>
       </c>
       <c r="C1133" t="s">
-        <v>889</v>
+        <v>4136</v>
       </c>
       <c r="D1133" t="s">
-        <v>890</v>
+        <v>4137</v>
       </c>
       <c r="E1133">
         <v>1369</v>
@@ -33850,16 +33892,16 @@
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>4136</v>
+        <v>4138</v>
       </c>
       <c r="B1134" t="s">
-        <v>4137</v>
+        <v>4139</v>
       </c>
       <c r="C1134" t="s">
-        <v>4138</v>
+        <v>873</v>
       </c>
       <c r="D1134" t="s">
-        <v>4139</v>
+        <v>874</v>
       </c>
       <c r="E1134">
         <v>1370</v>
@@ -33904,13 +33946,13 @@
         <v>4148</v>
       </c>
       <c r="B1137" t="s">
-        <v>836</v>
+        <v>4149</v>
       </c>
       <c r="C1137" t="s">
-        <v>838</v>
+        <v>889</v>
       </c>
       <c r="D1137" t="s">
-        <v>837</v>
+        <v>890</v>
       </c>
       <c r="E1137">
         <v>1373</v>
@@ -33918,16 +33960,16 @@
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="B1138" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="C1138" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="D1138" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="E1138">
         <v>1374</v>
@@ -33935,16 +33977,16 @@
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="B1139" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="C1139" t="s">
-        <v>845</v>
+        <v>4156</v>
       </c>
       <c r="D1139" t="s">
-        <v>846</v>
+        <v>4157</v>
       </c>
       <c r="E1139">
         <v>1375</v>
@@ -33952,16 +33994,16 @@
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>4155</v>
+        <v>4158</v>
       </c>
       <c r="B1140" t="s">
-        <v>4156</v>
+        <v>4159</v>
       </c>
       <c r="C1140" t="s">
-        <v>1667</v>
+        <v>4160</v>
       </c>
       <c r="D1140" t="s">
-        <v>1667</v>
+        <v>4161</v>
       </c>
       <c r="E1140">
         <v>1376</v>
@@ -33969,16 +34011,16 @@
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>4157</v>
+        <v>4162</v>
       </c>
       <c r="B1141" t="s">
-        <v>4158</v>
+        <v>836</v>
       </c>
       <c r="C1141" t="s">
-        <v>4159</v>
+        <v>838</v>
       </c>
       <c r="D1141" t="s">
-        <v>4160</v>
+        <v>837</v>
       </c>
       <c r="E1141">
         <v>1377</v>
@@ -33986,16 +34028,16 @@
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>4161</v>
+        <v>4163</v>
       </c>
       <c r="B1142" t="s">
-        <v>4162</v>
+        <v>4164</v>
       </c>
       <c r="C1142" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="D1142" t="s">
-        <v>4164</v>
+        <v>4166</v>
       </c>
       <c r="E1142">
         <v>1378</v>
@@ -34003,16 +34045,16 @@
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>4165</v>
+        <v>4167</v>
       </c>
       <c r="B1143" t="s">
-        <v>4166</v>
+        <v>4168</v>
       </c>
       <c r="C1143" t="s">
-        <v>4167</v>
+        <v>845</v>
       </c>
       <c r="D1143" t="s">
-        <v>4168</v>
+        <v>846</v>
       </c>
       <c r="E1143">
         <v>1379</v>
@@ -34026,10 +34068,10 @@
         <v>4170</v>
       </c>
       <c r="C1144" t="s">
-        <v>4171</v>
+        <v>1667</v>
       </c>
       <c r="D1144" t="s">
-        <v>4172</v>
+        <v>1667</v>
       </c>
       <c r="E1144">
         <v>1380</v>
@@ -34037,16 +34079,16 @@
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C1145" t="s">
         <v>4173</v>
       </c>
-      <c r="B1145" t="s">
+      <c r="D1145" t="s">
         <v>4174</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>819</v>
-      </c>
-      <c r="D1145" t="s">
-        <v>819</v>
       </c>
       <c r="E1145">
         <v>1381</v>
@@ -34063,7 +34105,7 @@
         <v>4177</v>
       </c>
       <c r="D1146" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
       <c r="E1146">
         <v>1382</v>
@@ -34071,16 +34113,16 @@
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="B1147" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="C1147" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
       <c r="D1147" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="E1147">
         <v>1383</v>
@@ -34088,16 +34130,16 @@
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="B1148" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
       <c r="C1148" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="D1148" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="E1148">
         <v>1384</v>
@@ -34105,16 +34147,16 @@
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
       <c r="B1149" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="C1149" t="s">
-        <v>4188</v>
+        <v>819</v>
       </c>
       <c r="D1149" t="s">
-        <v>4189</v>
+        <v>819</v>
       </c>
       <c r="E1149">
         <v>1385</v>
@@ -34122,16 +34164,16 @@
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B1150" t="s">
         <v>4190</v>
       </c>
-      <c r="B1150" t="s">
+      <c r="C1150" t="s">
         <v>4191</v>
       </c>
-      <c r="C1150" t="s">
-        <v>1670</v>
-      </c>
       <c r="D1150" t="s">
-        <v>1670</v>
+        <v>4191</v>
       </c>
       <c r="E1150">
         <v>1386</v>
@@ -34179,10 +34221,10 @@
         <v>4201</v>
       </c>
       <c r="C1153" t="s">
-        <v>1673</v>
+        <v>4202</v>
       </c>
       <c r="D1153" t="s">
-        <v>1673</v>
+        <v>4203</v>
       </c>
       <c r="E1153">
         <v>1389</v>
@@ -34190,16 +34232,16 @@
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>4202</v>
+        <v>4204</v>
       </c>
       <c r="B1154" t="s">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="C1154" t="s">
-        <v>4204</v>
+        <v>1670</v>
       </c>
       <c r="D1154" t="s">
-        <v>4205</v>
+        <v>1670</v>
       </c>
       <c r="E1154">
         <v>1390</v>
@@ -34213,10 +34255,10 @@
         <v>4207</v>
       </c>
       <c r="C1155" t="s">
-        <v>849</v>
+        <v>4208</v>
       </c>
       <c r="D1155" t="s">
-        <v>850</v>
+        <v>4209</v>
       </c>
       <c r="E1155">
         <v>1391</v>
@@ -34224,16 +34266,16 @@
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>4208</v>
+        <v>4210</v>
       </c>
       <c r="B1156" t="s">
-        <v>4209</v>
+        <v>4211</v>
       </c>
       <c r="C1156" t="s">
-        <v>865</v>
+        <v>4212</v>
       </c>
       <c r="D1156" t="s">
-        <v>866</v>
+        <v>4213</v>
       </c>
       <c r="E1156">
         <v>1392</v>
@@ -34241,84 +34283,84 @@
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>4210</v>
+        <v>4214</v>
       </c>
       <c r="B1157" t="s">
-        <v>4211</v>
+        <v>4215</v>
       </c>
       <c r="C1157" t="s">
-        <v>659</v>
+        <v>1673</v>
       </c>
       <c r="D1157" t="s">
-        <v>659</v>
+        <v>1673</v>
       </c>
       <c r="E1157">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>4212</v>
+        <v>4216</v>
       </c>
       <c r="B1158" t="s">
-        <v>4213</v>
+        <v>4217</v>
       </c>
       <c r="C1158" t="s">
-        <v>669</v>
+        <v>4218</v>
       </c>
       <c r="D1158" t="s">
-        <v>670</v>
+        <v>4219</v>
       </c>
       <c r="E1158">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>4214</v>
+        <v>4220</v>
       </c>
       <c r="B1159" t="s">
-        <v>4215</v>
+        <v>4221</v>
       </c>
       <c r="C1159" t="s">
-        <v>663</v>
+        <v>849</v>
       </c>
       <c r="D1159" t="s">
-        <v>663</v>
+        <v>850</v>
       </c>
       <c r="E1159">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>4216</v>
+        <v>4222</v>
       </c>
       <c r="B1160" t="s">
-        <v>4217</v>
+        <v>4223</v>
       </c>
       <c r="C1160" t="s">
-        <v>666</v>
+        <v>865</v>
       </c>
       <c r="D1160" t="s">
-        <v>4218</v>
+        <v>866</v>
       </c>
       <c r="E1160">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>4219</v>
+        <v>4224</v>
       </c>
       <c r="B1161" t="s">
-        <v>4220</v>
+        <v>4225</v>
       </c>
       <c r="C1161" t="s">
-        <v>834</v>
+        <v>659</v>
       </c>
       <c r="D1161" t="s">
-        <v>834</v>
+        <v>659</v>
       </c>
       <c r="E1161">
         <v>1398</v>
@@ -34326,16 +34368,16 @@
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>4221</v>
+        <v>4226</v>
       </c>
       <c r="B1162" t="s">
-        <v>4222</v>
+        <v>4227</v>
       </c>
       <c r="C1162" t="s">
-        <v>853</v>
+        <v>669</v>
       </c>
       <c r="D1162" t="s">
-        <v>854</v>
+        <v>670</v>
       </c>
       <c r="E1162">
         <v>1399</v>
@@ -34343,16 +34385,16 @@
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>4223</v>
+        <v>4228</v>
       </c>
       <c r="B1163" t="s">
-        <v>4224</v>
+        <v>4229</v>
       </c>
       <c r="C1163" t="s">
-        <v>4225</v>
+        <v>663</v>
       </c>
       <c r="D1163" t="s">
-        <v>4226</v>
+        <v>663</v>
       </c>
       <c r="E1163">
         <v>1400</v>
@@ -34360,16 +34402,16 @@
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>4227</v>
+        <v>4230</v>
       </c>
       <c r="B1164" t="s">
-        <v>4228</v>
+        <v>4231</v>
       </c>
       <c r="C1164" t="s">
-        <v>861</v>
+        <v>666</v>
       </c>
       <c r="D1164" t="s">
-        <v>862</v>
+        <v>4232</v>
       </c>
       <c r="E1164">
         <v>1401</v>
@@ -34377,16 +34419,16 @@
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>4229</v>
+        <v>4233</v>
       </c>
       <c r="B1165" t="s">
-        <v>4230</v>
+        <v>4234</v>
       </c>
       <c r="C1165" t="s">
-        <v>4231</v>
+        <v>834</v>
       </c>
       <c r="D1165" t="s">
-        <v>4232</v>
+        <v>834</v>
       </c>
       <c r="E1165">
         <v>1402</v>
@@ -34394,16 +34436,16 @@
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>4233</v>
+        <v>4235</v>
       </c>
       <c r="B1166" t="s">
-        <v>4234</v>
+        <v>4236</v>
       </c>
       <c r="C1166" t="s">
-        <v>901</v>
+        <v>853</v>
       </c>
       <c r="D1166" t="s">
-        <v>902</v>
+        <v>854</v>
       </c>
       <c r="E1166">
         <v>1403</v>
@@ -34411,16 +34453,16 @@
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>4235</v>
+        <v>4237</v>
       </c>
       <c r="B1167" t="s">
-        <v>4236</v>
+        <v>4238</v>
       </c>
       <c r="C1167" t="s">
-        <v>4237</v>
+        <v>4239</v>
       </c>
       <c r="D1167" t="s">
-        <v>4238</v>
+        <v>4240</v>
       </c>
       <c r="E1167">
         <v>1404</v>
@@ -34428,16 +34470,16 @@
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>4239</v>
+        <v>4241</v>
       </c>
       <c r="B1168" t="s">
-        <v>4240</v>
+        <v>4242</v>
       </c>
       <c r="C1168" t="s">
-        <v>4241</v>
+        <v>861</v>
       </c>
       <c r="D1168" t="s">
-        <v>4242</v>
+        <v>862</v>
       </c>
       <c r="E1168">
         <v>1405</v>
@@ -34468,10 +34510,10 @@
         <v>4248</v>
       </c>
       <c r="C1170" t="s">
-        <v>4249</v>
+        <v>901</v>
       </c>
       <c r="D1170" t="s">
-        <v>4250</v>
+        <v>902</v>
       </c>
       <c r="E1170">
         <v>1407</v>
@@ -34479,16 +34521,16 @@
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C1171" t="s">
         <v>4251</v>
       </c>
-      <c r="B1171" t="s">
+      <c r="D1171" t="s">
         <v>4252</v>
-      </c>
-      <c r="C1171" t="s">
-        <v>885</v>
-      </c>
-      <c r="D1171" t="s">
-        <v>886</v>
       </c>
       <c r="E1171">
         <v>1408</v>
@@ -34516,13 +34558,13 @@
         <v>4257</v>
       </c>
       <c r="B1173" t="s">
-        <v>1823</v>
+        <v>4258</v>
       </c>
       <c r="C1173" t="s">
-        <v>1823</v>
+        <v>4259</v>
       </c>
       <c r="D1173" t="s">
-        <v>4258</v>
+        <v>4260</v>
       </c>
       <c r="E1173">
         <v>1410</v>
@@ -34530,16 +34572,16 @@
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>4259</v>
+        <v>4261</v>
       </c>
       <c r="B1174" t="s">
-        <v>1823</v>
+        <v>4262</v>
       </c>
       <c r="C1174" t="s">
-        <v>1823</v>
+        <v>4263</v>
       </c>
       <c r="D1174" t="s">
-        <v>207</v>
+        <v>4264</v>
       </c>
       <c r="E1174">
         <v>1411</v>
@@ -34547,41 +34589,41 @@
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>4260</v>
+        <v>4265</v>
       </c>
       <c r="B1175" t="s">
-        <v>1823</v>
+        <v>4266</v>
       </c>
       <c r="C1175" t="s">
-        <v>1823</v>
+        <v>885</v>
       </c>
       <c r="D1175" t="s">
-        <v>128</v>
+        <v>886</v>
       </c>
       <c r="E1175">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>4261</v>
+        <v>4267</v>
       </c>
       <c r="B1176" t="s">
-        <v>1823</v>
+        <v>4268</v>
       </c>
       <c r="C1176" t="s">
-        <v>1823</v>
+        <v>4269</v>
       </c>
       <c r="D1176" t="s">
-        <v>4262</v>
+        <v>4270</v>
       </c>
       <c r="E1176">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>4263</v>
+        <v>4271</v>
       </c>
       <c r="B1177" t="s">
         <v>1823</v>
@@ -34590,15 +34632,15 @@
         <v>1823</v>
       </c>
       <c r="D1177" t="s">
-        <v>4264</v>
+        <v>4272</v>
       </c>
       <c r="E1177">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>4265</v>
+        <v>4273</v>
       </c>
       <c r="B1178" t="s">
         <v>1823</v>
@@ -34607,15 +34649,15 @@
         <v>1823</v>
       </c>
       <c r="D1178" t="s">
-        <v>4266</v>
+        <v>207</v>
       </c>
       <c r="E1178">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>4267</v>
+        <v>4274</v>
       </c>
       <c r="B1179" t="s">
         <v>1823</v>
@@ -34624,7 +34666,7 @@
         <v>1823</v>
       </c>
       <c r="D1179" t="s">
-        <v>4268</v>
+        <v>128</v>
       </c>
       <c r="E1179">
         <v>1418</v>
@@ -34632,7 +34674,7 @@
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>4269</v>
+        <v>4275</v>
       </c>
       <c r="B1180" t="s">
         <v>1823</v>
@@ -34641,7 +34683,7 @@
         <v>1823</v>
       </c>
       <c r="D1180" t="s">
-        <v>4270</v>
+        <v>4276</v>
       </c>
       <c r="E1180">
         <v>1419</v>
@@ -34649,7 +34691,7 @@
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>4271</v>
+        <v>4277</v>
       </c>
       <c r="B1181" t="s">
         <v>1823</v>
@@ -34658,7 +34700,7 @@
         <v>1823</v>
       </c>
       <c r="D1181" t="s">
-        <v>4272</v>
+        <v>4278</v>
       </c>
       <c r="E1181">
         <v>1420</v>
@@ -34666,7 +34708,7 @@
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>4273</v>
+        <v>4279</v>
       </c>
       <c r="B1182" t="s">
         <v>1823</v>
@@ -34675,7 +34717,7 @@
         <v>1823</v>
       </c>
       <c r="D1182" t="s">
-        <v>4274</v>
+        <v>4280</v>
       </c>
       <c r="E1182">
         <v>1421</v>
@@ -34683,7 +34725,7 @@
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>4275</v>
+        <v>4281</v>
       </c>
       <c r="B1183" t="s">
         <v>1823</v>
@@ -34692,7 +34734,7 @@
         <v>1823</v>
       </c>
       <c r="D1183" t="s">
-        <v>4276</v>
+        <v>4282</v>
       </c>
       <c r="E1183">
         <v>1422</v>
@@ -34700,7 +34742,7 @@
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>4277</v>
+        <v>4283</v>
       </c>
       <c r="B1184" t="s">
         <v>1823</v>
@@ -34709,7 +34751,7 @@
         <v>1823</v>
       </c>
       <c r="D1184" t="s">
-        <v>4278</v>
+        <v>4284</v>
       </c>
       <c r="E1184">
         <v>1423</v>
@@ -34717,7 +34759,7 @@
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>4279</v>
+        <v>4285</v>
       </c>
       <c r="B1185" t="s">
         <v>1823</v>
@@ -34726,7 +34768,7 @@
         <v>1823</v>
       </c>
       <c r="D1185" t="s">
-        <v>4280</v>
+        <v>4286</v>
       </c>
       <c r="E1185">
         <v>1424</v>
@@ -34734,3260 +34776,3322 @@
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>4281</v>
+        <v>4287</v>
       </c>
       <c r="B1186" t="s">
-        <v>4282</v>
+        <v>1823</v>
       </c>
       <c r="C1186" t="s">
-        <v>4283</v>
+        <v>1823</v>
       </c>
       <c r="D1186" t="s">
-        <v>4283</v>
+        <v>4288</v>
       </c>
       <c r="E1186">
-        <v>22</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>4284</v>
-      </c>
-      <c r="B1187"/>
-      <c r="C1187"/>
-      <c r="D1187"/>
+        <v>4289</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>4290</v>
+      </c>
       <c r="E1187">
-        <v>899</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>4285</v>
+        <v>4291</v>
       </c>
       <c r="B1188" t="s">
-        <v>4286</v>
+        <v>1823</v>
       </c>
       <c r="C1188" t="s">
-        <v>4287</v>
+        <v>1823</v>
       </c>
       <c r="D1188" t="s">
-        <v>4288</v>
+        <v>4292</v>
       </c>
       <c r="E1188">
-        <v>47</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>4289</v>
-      </c>
-      <c r="B1189"/>
-      <c r="C1189"/>
-      <c r="D1189"/>
+        <v>4293</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>4294</v>
+      </c>
       <c r="E1189">
-        <v>589</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>4290</v>
-      </c>
-      <c r="B1190"/>
-      <c r="C1190"/>
-      <c r="D1190"/>
+        <v>4295</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>4297</v>
+      </c>
       <c r="E1190">
-        <v>593</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>4291</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>4292</v>
-      </c>
-      <c r="C1191" t="s">
-        <v>4293</v>
-      </c>
-      <c r="D1191" t="s">
-        <v>172</v>
-      </c>
+        <v>4298</v>
+      </c>
+      <c r="B1191"/>
+      <c r="C1191"/>
+      <c r="D1191"/>
       <c r="E1191">
-        <v>49</v>
+        <v>899</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>4294</v>
-      </c>
-      <c r="B1192"/>
-      <c r="C1192"/>
-      <c r="D1192"/>
+        <v>4299</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>4302</v>
+      </c>
       <c r="E1192">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>4295</v>
+        <v>4303</v>
       </c>
       <c r="B1193"/>
       <c r="C1193"/>
       <c r="D1193"/>
       <c r="E1193">
-        <v>60</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>4296</v>
-      </c>
-      <c r="B1194" t="s">
-        <v>4297</v>
-      </c>
-      <c r="C1194" t="s">
-        <v>4298</v>
-      </c>
-      <c r="D1194" t="s">
-        <v>4298</v>
-      </c>
+        <v>4304</v>
+      </c>
+      <c r="B1194"/>
+      <c r="C1194"/>
+      <c r="D1194"/>
       <c r="E1194">
-        <v>57</v>
+        <v>593</v>
       </c>
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>4299</v>
-      </c>
-      <c r="B1195"/>
-      <c r="C1195"/>
-      <c r="D1195"/>
+        <v>4305</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>172</v>
+      </c>
       <c r="E1195">
-        <v>1052</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>4300</v>
-      </c>
-      <c r="B1196" t="s">
-        <v>4301</v>
-      </c>
-      <c r="C1196" t="s">
-        <v>4302</v>
-      </c>
-      <c r="D1196" t="s">
-        <v>4303</v>
-      </c>
+        <v>4308</v>
+      </c>
+      <c r="B1196"/>
+      <c r="C1196"/>
+      <c r="D1196"/>
       <c r="E1196">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>4304</v>
+        <v>4309</v>
       </c>
       <c r="B1197"/>
       <c r="C1197"/>
       <c r="D1197"/>
       <c r="E1197">
-        <v>927</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>4305</v>
+        <v>4310</v>
       </c>
       <c r="B1198" t="s">
-        <v>4306</v>
+        <v>4311</v>
       </c>
       <c r="C1198" t="s">
-        <v>4307</v>
+        <v>4312</v>
       </c>
       <c r="D1198" t="s">
-        <v>4307</v>
+        <v>4312</v>
       </c>
       <c r="E1198">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>4308</v>
+        <v>4313</v>
       </c>
       <c r="B1199"/>
       <c r="C1199"/>
       <c r="D1199"/>
       <c r="E1199">
-        <v>928</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>4309</v>
+        <v>4314</v>
       </c>
       <c r="B1200" t="s">
-        <v>4310</v>
+        <v>4315</v>
       </c>
       <c r="C1200" t="s">
-        <v>4311</v>
+        <v>4316</v>
       </c>
       <c r="D1200" t="s">
-        <v>4311</v>
+        <v>4317</v>
       </c>
       <c r="E1200">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>4312</v>
+        <v>4318</v>
       </c>
       <c r="B1201"/>
       <c r="C1201"/>
       <c r="D1201"/>
       <c r="E1201">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>4313</v>
+        <v>4319</v>
       </c>
       <c r="B1202" t="s">
-        <v>4314</v>
+        <v>4320</v>
       </c>
       <c r="C1202" t="s">
-        <v>4311</v>
+        <v>4321</v>
       </c>
       <c r="D1202" t="s">
-        <v>4311</v>
+        <v>4321</v>
       </c>
       <c r="E1202">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>4315</v>
+        <v>4322</v>
       </c>
       <c r="B1203"/>
       <c r="C1203"/>
       <c r="D1203"/>
       <c r="E1203">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>4316</v>
+        <v>4323</v>
       </c>
       <c r="B1204" t="s">
-        <v>4317</v>
+        <v>4324</v>
       </c>
       <c r="C1204" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
       <c r="D1204" t="s">
-        <v>4318</v>
+        <v>4325</v>
       </c>
       <c r="E1204">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>4319</v>
+        <v>4326</v>
       </c>
       <c r="B1205"/>
       <c r="C1205"/>
       <c r="D1205"/>
       <c r="E1205">
-        <v>964</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>4320</v>
+        <v>4327</v>
       </c>
       <c r="B1206" t="s">
-        <v>4321</v>
+        <v>4328</v>
       </c>
       <c r="C1206" t="s">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="D1206" t="s">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="E1206">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="B1207"/>
       <c r="C1207"/>
       <c r="D1207"/>
       <c r="E1207">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>4324</v>
+        <v>4330</v>
       </c>
       <c r="B1208" t="s">
-        <v>4325</v>
+        <v>4331</v>
       </c>
       <c r="C1208" t="s">
-        <v>4326</v>
+        <v>4332</v>
       </c>
       <c r="D1208" t="s">
-        <v>4327</v>
+        <v>4332</v>
       </c>
       <c r="E1208">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>4328</v>
+        <v>4333</v>
       </c>
       <c r="B1209"/>
       <c r="C1209"/>
       <c r="D1209"/>
       <c r="E1209">
-        <v>956</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>4329</v>
+        <v>4334</v>
       </c>
       <c r="B1210" t="s">
-        <v>4330</v>
+        <v>4335</v>
       </c>
       <c r="C1210" t="s">
-        <v>4331</v>
+        <v>4336</v>
       </c>
       <c r="D1210" t="s">
-        <v>4331</v>
+        <v>4336</v>
       </c>
       <c r="E1210">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>4332</v>
+        <v>4337</v>
       </c>
       <c r="B1211"/>
       <c r="C1211"/>
       <c r="D1211"/>
       <c r="E1211">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>4333</v>
+        <v>4338</v>
       </c>
       <c r="B1212" t="s">
-        <v>4334</v>
+        <v>4339</v>
       </c>
       <c r="C1212" t="s">
-        <v>4335</v>
+        <v>4340</v>
       </c>
       <c r="D1212" t="s">
-        <v>4335</v>
+        <v>4341</v>
       </c>
       <c r="E1212">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>4336</v>
+        <v>4342</v>
       </c>
       <c r="B1213"/>
       <c r="C1213"/>
       <c r="D1213"/>
       <c r="E1213">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>4337</v>
+        <v>4343</v>
       </c>
       <c r="B1214" t="s">
-        <v>4338</v>
+        <v>4344</v>
       </c>
       <c r="C1214" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="D1214" t="s">
-        <v>4340</v>
+        <v>4345</v>
       </c>
       <c r="E1214">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>4341</v>
+        <v>4346</v>
       </c>
       <c r="B1215"/>
       <c r="C1215"/>
       <c r="D1215"/>
       <c r="E1215">
-        <v>1124</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>4342</v>
+        <v>4347</v>
       </c>
       <c r="B1216" t="s">
-        <v>4343</v>
+        <v>4348</v>
       </c>
       <c r="C1216" t="s">
-        <v>4344</v>
+        <v>4349</v>
       </c>
       <c r="D1216" t="s">
-        <v>4344</v>
+        <v>4349</v>
       </c>
       <c r="E1216">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>4345</v>
+        <v>4350</v>
       </c>
       <c r="B1217"/>
       <c r="C1217"/>
       <c r="D1217"/>
       <c r="E1217">
-        <v>1121</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>4346</v>
+        <v>4351</v>
       </c>
       <c r="B1218" t="s">
-        <v>4347</v>
+        <v>4352</v>
       </c>
       <c r="C1218" t="s">
-        <v>4348</v>
+        <v>4353</v>
       </c>
       <c r="D1218" t="s">
-        <v>4349</v>
+        <v>4354</v>
       </c>
       <c r="E1218">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>4350</v>
+        <v>4355</v>
       </c>
       <c r="B1219"/>
       <c r="C1219"/>
       <c r="D1219"/>
       <c r="E1219">
-        <v>1259</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>4351</v>
+        <v>4356</v>
       </c>
       <c r="B1220" t="s">
-        <v>4352</v>
+        <v>4357</v>
       </c>
       <c r="C1220" t="s">
-        <v>4353</v>
+        <v>4358</v>
       </c>
       <c r="D1220" t="s">
-        <v>4354</v>
+        <v>4358</v>
       </c>
       <c r="E1220">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>4355</v>
+        <v>4359</v>
       </c>
       <c r="B1221"/>
       <c r="C1221"/>
       <c r="D1221"/>
       <c r="E1221">
-        <v>1078</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>4356</v>
-      </c>
-      <c r="B1222"/>
-      <c r="C1222"/>
-      <c r="D1222"/>
+        <v>4360</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>4362</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>4363</v>
+      </c>
       <c r="E1222">
-        <v>1222</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>4357</v>
+        <v>4364</v>
       </c>
       <c r="B1223"/>
       <c r="C1223"/>
       <c r="D1223"/>
       <c r="E1223">
-        <v>1232</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>4358</v>
+        <v>4365</v>
       </c>
       <c r="B1224" t="s">
-        <v>4359</v>
+        <v>4366</v>
       </c>
       <c r="C1224" t="s">
-        <v>3487</v>
+        <v>4367</v>
       </c>
       <c r="D1224" t="s">
-        <v>3488</v>
+        <v>4368</v>
       </c>
       <c r="E1224">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>4360</v>
+        <v>4369</v>
       </c>
       <c r="B1225"/>
       <c r="C1225"/>
       <c r="D1225"/>
       <c r="E1225">
-        <v>1223</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>4361</v>
+        <v>4370</v>
       </c>
       <c r="B1226"/>
       <c r="C1226"/>
       <c r="D1226"/>
       <c r="E1226">
-        <v>1235</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>4362</v>
-      </c>
-      <c r="B1227" t="s">
-        <v>4363</v>
-      </c>
-      <c r="C1227" t="s">
-        <v>4364</v>
-      </c>
-      <c r="D1227" t="s">
-        <v>4365</v>
-      </c>
+        <v>4371</v>
+      </c>
+      <c r="B1227"/>
+      <c r="C1227"/>
+      <c r="D1227"/>
       <c r="E1227">
-        <v>177</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>4366</v>
-      </c>
-      <c r="B1228"/>
-      <c r="C1228"/>
-      <c r="D1228"/>
+        <v>4372</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>3488</v>
+      </c>
       <c r="E1228">
-        <v>1079</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>4367</v>
+        <v>4374</v>
       </c>
       <c r="B1229"/>
       <c r="C1229"/>
       <c r="D1229"/>
       <c r="E1229">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>4368</v>
+        <v>4375</v>
       </c>
       <c r="B1230"/>
       <c r="C1230"/>
       <c r="D1230"/>
       <c r="E1230">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>4369</v>
+        <v>4376</v>
       </c>
       <c r="B1231" t="s">
-        <v>3490</v>
+        <v>4377</v>
       </c>
       <c r="C1231" t="s">
-        <v>4370</v>
+        <v>4378</v>
       </c>
       <c r="D1231" t="s">
-        <v>4371</v>
+        <v>4379</v>
       </c>
       <c r="E1231">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>4372</v>
+        <v>4380</v>
       </c>
       <c r="B1232"/>
       <c r="C1232"/>
       <c r="D1232"/>
       <c r="E1232">
-        <v>1225</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>4373</v>
+        <v>4381</v>
       </c>
       <c r="B1233"/>
       <c r="C1233"/>
       <c r="D1233"/>
       <c r="E1233">
-        <v>1236</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>4374</v>
-      </c>
-      <c r="B1234" t="s">
-        <v>4375</v>
-      </c>
-      <c r="C1234" t="s">
-        <v>3514</v>
-      </c>
-      <c r="D1234" t="s">
-        <v>3515</v>
-      </c>
+        <v>4382</v>
+      </c>
+      <c r="B1234"/>
+      <c r="C1234"/>
+      <c r="D1234"/>
       <c r="E1234">
-        <v>181</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>4376</v>
-      </c>
-      <c r="B1235"/>
-      <c r="C1235"/>
-      <c r="D1235"/>
+        <v>4383</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>4385</v>
+      </c>
       <c r="E1235">
-        <v>1228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>4377</v>
+        <v>4386</v>
       </c>
       <c r="B1236"/>
       <c r="C1236"/>
       <c r="D1236"/>
       <c r="E1236">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>4378</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>4379</v>
-      </c>
-      <c r="C1237" t="s">
-        <v>4380</v>
-      </c>
-      <c r="D1237" t="s">
-        <v>4380</v>
-      </c>
+        <v>4387</v>
+      </c>
+      <c r="B1237"/>
+      <c r="C1237"/>
+      <c r="D1237"/>
       <c r="E1237">
-        <v>195</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>4381</v>
-      </c>
-      <c r="B1238"/>
-      <c r="C1238"/>
-      <c r="D1238"/>
+        <v>4388</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>3514</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>3515</v>
+      </c>
       <c r="E1238">
-        <v>1347</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>4382</v>
-      </c>
-      <c r="B1239" t="s">
-        <v>4383</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>4384</v>
-      </c>
-      <c r="D1239" t="s">
-        <v>4384</v>
-      </c>
+        <v>4390</v>
+      </c>
+      <c r="B1239"/>
+      <c r="C1239"/>
+      <c r="D1239"/>
       <c r="E1239">
-        <v>196</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>4385</v>
+        <v>4391</v>
       </c>
       <c r="B1240"/>
       <c r="C1240"/>
       <c r="D1240"/>
       <c r="E1240">
-        <v>1393</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>4386</v>
+        <v>4392</v>
       </c>
       <c r="B1241" t="s">
-        <v>3396</v>
+        <v>4393</v>
       </c>
       <c r="C1241" t="s">
-        <v>1990</v>
+        <v>4394</v>
       </c>
       <c r="D1241" t="s">
-        <v>1990</v>
+        <v>4394</v>
       </c>
       <c r="E1241">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>4387</v>
+        <v>4395</v>
       </c>
       <c r="B1242"/>
       <c r="C1242"/>
       <c r="D1242"/>
       <c r="E1242">
-        <v>718</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>4388</v>
+        <v>4396</v>
       </c>
       <c r="B1243" t="s">
-        <v>4059</v>
+        <v>4397</v>
       </c>
       <c r="C1243" t="s">
-        <v>4389</v>
+        <v>4398</v>
       </c>
       <c r="D1243" t="s">
-        <v>4390</v>
+        <v>4398</v>
       </c>
       <c r="E1243">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>4391</v>
+        <v>4399</v>
       </c>
       <c r="B1244"/>
       <c r="C1244"/>
       <c r="D1244"/>
       <c r="E1244">
-        <v>543</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>4392</v>
+        <v>4400</v>
       </c>
       <c r="B1245" t="s">
-        <v>4393</v>
+        <v>3396</v>
       </c>
       <c r="C1245" t="s">
-        <v>4394</v>
+        <v>1990</v>
       </c>
       <c r="D1245" t="s">
-        <v>4395</v>
+        <v>1990</v>
       </c>
       <c r="E1245">
-        <v>275</v>
+        <v>225</v>
       </c>
     </row>
     <row r="1246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>4396</v>
+        <v>4401</v>
       </c>
       <c r="B1246"/>
       <c r="C1246"/>
       <c r="D1246"/>
       <c r="E1246">
-        <v>1260</v>
+        <v>718</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>4397</v>
+        <v>4402</v>
       </c>
       <c r="B1247" t="s">
-        <v>908</v>
+        <v>4073</v>
       </c>
       <c r="C1247" t="s">
-        <v>3373</v>
+        <v>4403</v>
       </c>
       <c r="D1247" t="s">
-        <v>3374</v>
+        <v>4404</v>
       </c>
       <c r="E1247">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>4398</v>
+        <v>4405</v>
       </c>
       <c r="B1248"/>
       <c r="C1248"/>
       <c r="D1248"/>
       <c r="E1248">
-        <v>1239</v>
+        <v>543</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>4399</v>
+        <v>4406</v>
       </c>
       <c r="B1249" t="s">
-        <v>4400</v>
+        <v>4407</v>
       </c>
       <c r="C1249" t="s">
-        <v>4401</v>
+        <v>4408</v>
       </c>
       <c r="D1249" t="s">
-        <v>4401</v>
+        <v>4409</v>
       </c>
       <c r="E1249">
-        <v>352</v>
+        <v>275</v>
       </c>
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>4402</v>
+        <v>4410</v>
       </c>
       <c r="B1250"/>
       <c r="C1250"/>
       <c r="D1250"/>
       <c r="E1250">
-        <v>932</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>4403</v>
+        <v>4411</v>
       </c>
       <c r="B1251" t="s">
-        <v>4404</v>
+        <v>908</v>
       </c>
       <c r="C1251" t="s">
-        <v>4405</v>
+        <v>3373</v>
       </c>
       <c r="D1251" t="s">
-        <v>4406</v>
+        <v>3374</v>
       </c>
       <c r="E1251">
-        <v>408</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>4407</v>
+        <v>4412</v>
       </c>
       <c r="B1252"/>
       <c r="C1252"/>
       <c r="D1252"/>
       <c r="E1252">
-        <v>422</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>4408</v>
+        <v>4413</v>
       </c>
       <c r="B1253" t="s">
-        <v>4409</v>
+        <v>4414</v>
       </c>
       <c r="C1253" t="s">
-        <v>3456</v>
+        <v>4415</v>
       </c>
       <c r="D1253" t="s">
-        <v>3457</v>
+        <v>4415</v>
       </c>
       <c r="E1253">
-        <v>410</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>4410</v>
+        <v>4416</v>
       </c>
       <c r="B1254"/>
       <c r="C1254"/>
       <c r="D1254"/>
       <c r="E1254">
-        <v>423</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>4411</v>
-      </c>
-      <c r="B1255"/>
-      <c r="C1255"/>
-      <c r="D1255"/>
+        <v>4417</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>4420</v>
+      </c>
       <c r="E1255">
-        <v>926</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>4412</v>
-      </c>
-      <c r="B1256" t="s">
-        <v>4413</v>
-      </c>
-      <c r="C1256" t="s">
-        <v>4414</v>
-      </c>
-      <c r="D1256" t="s">
-        <v>4415</v>
-      </c>
+        <v>4421</v>
+      </c>
+      <c r="B1256"/>
+      <c r="C1256"/>
+      <c r="D1256"/>
       <c r="E1256">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>4416</v>
-      </c>
-      <c r="B1257"/>
-      <c r="C1257"/>
-      <c r="D1257"/>
+        <v>4422</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>3457</v>
+      </c>
       <c r="E1257">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>4417</v>
-      </c>
-      <c r="B1258" t="s">
-        <v>4418</v>
-      </c>
-      <c r="C1258" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D1258" t="s">
-        <v>1872</v>
-      </c>
+        <v>4424</v>
+      </c>
+      <c r="B1258"/>
+      <c r="C1258"/>
+      <c r="D1258"/>
       <c r="E1258">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>4419</v>
+        <v>4425</v>
       </c>
       <c r="B1259"/>
       <c r="C1259"/>
       <c r="D1259"/>
       <c r="E1259">
-        <v>505</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>4420</v>
-      </c>
-      <c r="B1260"/>
-      <c r="C1260"/>
-      <c r="D1260"/>
+        <v>4426</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>4429</v>
+      </c>
       <c r="E1260">
-        <v>506</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>4421</v>
-      </c>
-      <c r="B1261" t="s">
-        <v>4422</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>4423</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>4424</v>
-      </c>
+        <v>4430</v>
+      </c>
+      <c r="B1261"/>
+      <c r="C1261"/>
+      <c r="D1261"/>
       <c r="E1261">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>4425</v>
-      </c>
-      <c r="B1262"/>
-      <c r="C1262"/>
-      <c r="D1262"/>
+        <v>4431</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1872</v>
+      </c>
       <c r="E1262">
-        <v>1062</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>4426</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>4427</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>4428</v>
-      </c>
-      <c r="D1263" t="s">
-        <v>4428</v>
-      </c>
+        <v>4433</v>
+      </c>
+      <c r="B1263"/>
+      <c r="C1263"/>
+      <c r="D1263"/>
       <c r="E1263">
-        <v>438</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>4429</v>
+        <v>4434</v>
       </c>
       <c r="B1264"/>
       <c r="C1264"/>
       <c r="D1264"/>
       <c r="E1264">
-        <v>460</v>
+        <v>506</v>
       </c>
     </row>
     <row r="1265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>4430</v>
+        <v>4435</v>
       </c>
       <c r="B1265" t="s">
-        <v>4431</v>
+        <v>4436</v>
       </c>
       <c r="C1265" t="s">
-        <v>4432</v>
+        <v>4437</v>
       </c>
       <c r="D1265" t="s">
-        <v>4433</v>
+        <v>4438</v>
       </c>
       <c r="E1265">
-        <v>461</v>
+        <v>430</v>
       </c>
     </row>
     <row r="1266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>4434</v>
+        <v>4439</v>
       </c>
       <c r="B1266"/>
       <c r="C1266"/>
       <c r="D1266"/>
       <c r="E1266">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>4435</v>
+        <v>4440</v>
       </c>
       <c r="B1267" t="s">
-        <v>4436</v>
+        <v>4441</v>
       </c>
       <c r="C1267" t="s">
-        <v>4437</v>
+        <v>4442</v>
       </c>
       <c r="D1267" t="s">
-        <v>4438</v>
+        <v>4442</v>
       </c>
       <c r="E1267">
-        <v>511</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>4439</v>
+        <v>4443</v>
       </c>
       <c r="B1268"/>
       <c r="C1268"/>
       <c r="D1268"/>
       <c r="E1268">
-        <v>512</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>4440</v>
+        <v>4444</v>
       </c>
       <c r="B1269" t="s">
-        <v>4441</v>
+        <v>4445</v>
       </c>
       <c r="C1269" t="s">
-        <v>4442</v>
+        <v>4446</v>
       </c>
       <c r="D1269" t="s">
-        <v>4443</v>
+        <v>4447</v>
       </c>
       <c r="E1269">
-        <v>565</v>
+        <v>461</v>
       </c>
     </row>
     <row r="1270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>4444</v>
+        <v>4448</v>
       </c>
       <c r="B1270"/>
       <c r="C1270"/>
       <c r="D1270"/>
       <c r="E1270">
-        <v>1050</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>4445</v>
+        <v>4449</v>
       </c>
       <c r="B1271" t="s">
-        <v>4446</v>
+        <v>4450</v>
       </c>
       <c r="C1271" t="s">
-        <v>4447</v>
+        <v>4451</v>
       </c>
       <c r="D1271" t="s">
-        <v>706</v>
+        <v>4452</v>
       </c>
       <c r="E1271">
-        <v>569</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>4448</v>
+        <v>4453</v>
       </c>
       <c r="B1272"/>
       <c r="C1272"/>
       <c r="D1272"/>
       <c r="E1272">
-        <v>937</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>4449</v>
+        <v>4454</v>
       </c>
       <c r="B1273" t="s">
-        <v>4450</v>
+        <v>4455</v>
       </c>
       <c r="C1273" t="s">
-        <v>2411</v>
+        <v>4456</v>
       </c>
       <c r="D1273" t="s">
-        <v>2412</v>
+        <v>4457</v>
       </c>
       <c r="E1273">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="1274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
-        <v>4451</v>
+        <v>4458</v>
       </c>
       <c r="B1274"/>
       <c r="C1274"/>
       <c r="D1274"/>
       <c r="E1274">
-        <v>592</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>4452</v>
-      </c>
-      <c r="B1275"/>
-      <c r="C1275"/>
-      <c r="D1275"/>
+        <v>4459</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>706</v>
+      </c>
       <c r="E1275">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>4453</v>
+        <v>4462</v>
       </c>
       <c r="B1276"/>
       <c r="C1276"/>
       <c r="D1276"/>
       <c r="E1276">
-        <v>598</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1277" t="s">
-        <v>4454</v>
-      </c>
-      <c r="B1277"/>
-      <c r="C1277"/>
-      <c r="D1277"/>
+        <v>4463</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>2416</v>
+      </c>
       <c r="E1277">
-        <v>601</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1278" t="s">
-        <v>4455</v>
+        <v>4465</v>
       </c>
       <c r="B1278"/>
       <c r="C1278"/>
       <c r="D1278"/>
       <c r="E1278">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>4456</v>
+        <v>4466</v>
       </c>
       <c r="B1279"/>
       <c r="C1279"/>
       <c r="D1279"/>
       <c r="E1279">
-        <v>616</v>
+        <v>594</v>
       </c>
     </row>
     <row r="1280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>4457</v>
+        <v>4467</v>
       </c>
       <c r="B1280"/>
       <c r="C1280"/>
       <c r="D1280"/>
       <c r="E1280">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>4458</v>
+        <v>4468</v>
       </c>
       <c r="B1281"/>
       <c r="C1281"/>
       <c r="D1281"/>
       <c r="E1281">
-        <v>621</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>4459</v>
+        <v>4469</v>
       </c>
       <c r="B1282"/>
       <c r="C1282"/>
       <c r="D1282"/>
       <c r="E1282">
-        <v>1146</v>
+        <v>609</v>
       </c>
     </row>
     <row r="1283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1283" t="s">
-        <v>4460</v>
+        <v>4470</v>
       </c>
       <c r="B1283"/>
       <c r="C1283"/>
       <c r="D1283"/>
       <c r="E1283">
-        <v>1153</v>
+        <v>616</v>
       </c>
     </row>
     <row r="1284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>4461</v>
+        <v>4471</v>
       </c>
       <c r="B1284"/>
       <c r="C1284"/>
       <c r="D1284"/>
       <c r="E1284">
-        <v>1154</v>
+        <v>617</v>
       </c>
     </row>
     <row r="1285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>4462</v>
+        <v>4472</v>
       </c>
       <c r="B1285"/>
       <c r="C1285"/>
       <c r="D1285"/>
       <c r="E1285">
-        <v>1163</v>
+        <v>621</v>
       </c>
     </row>
     <row r="1286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>4463</v>
+        <v>4473</v>
       </c>
       <c r="B1286"/>
       <c r="C1286"/>
       <c r="D1286"/>
       <c r="E1286">
-        <v>1164</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>4464</v>
+        <v>4474</v>
       </c>
       <c r="B1287"/>
       <c r="C1287"/>
       <c r="D1287"/>
       <c r="E1287">
-        <v>1171</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>4465</v>
+        <v>4475</v>
       </c>
       <c r="B1288"/>
       <c r="C1288"/>
       <c r="D1288"/>
       <c r="E1288">
-        <v>1172</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>4466</v>
+        <v>4476</v>
       </c>
       <c r="B1289"/>
       <c r="C1289"/>
       <c r="D1289"/>
       <c r="E1289">
-        <v>1184</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>4467</v>
+        <v>4477</v>
       </c>
       <c r="B1290"/>
       <c r="C1290"/>
       <c r="D1290"/>
       <c r="E1290">
-        <v>1189</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>4468</v>
+        <v>4478</v>
       </c>
       <c r="B1291"/>
       <c r="C1291"/>
       <c r="D1291"/>
       <c r="E1291">
-        <v>1200</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>4469</v>
+        <v>4479</v>
       </c>
       <c r="B1292"/>
       <c r="C1292"/>
       <c r="D1292"/>
       <c r="E1292">
-        <v>1201</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>4470</v>
+        <v>4480</v>
       </c>
       <c r="B1293"/>
       <c r="C1293"/>
       <c r="D1293"/>
       <c r="E1293">
-        <v>1210</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>4471</v>
+        <v>4481</v>
       </c>
       <c r="B1294"/>
       <c r="C1294"/>
       <c r="D1294"/>
       <c r="E1294">
-        <v>1358</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>4472</v>
-      </c>
-      <c r="B1295" t="s">
-        <v>4473</v>
-      </c>
-      <c r="C1295" t="s">
-        <v>4474</v>
-      </c>
-      <c r="D1295" t="s">
-        <v>4475</v>
-      </c>
+        <v>4482</v>
+      </c>
+      <c r="B1295"/>
+      <c r="C1295"/>
+      <c r="D1295"/>
       <c r="E1295">
-        <v>588</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>4476</v>
+        <v>4483</v>
       </c>
       <c r="B1296"/>
       <c r="C1296"/>
       <c r="D1296"/>
       <c r="E1296">
-        <v>595</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>4477</v>
+        <v>4484</v>
       </c>
       <c r="B1297"/>
       <c r="C1297"/>
       <c r="D1297"/>
       <c r="E1297">
-        <v>599</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>4478</v>
+        <v>4485</v>
       </c>
       <c r="B1298"/>
       <c r="C1298"/>
       <c r="D1298"/>
       <c r="E1298">
-        <v>602</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>4479</v>
-      </c>
-      <c r="B1299"/>
-      <c r="C1299"/>
-      <c r="D1299"/>
+        <v>4486</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>4489</v>
+      </c>
       <c r="E1299">
-        <v>608</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>4480</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>4481</v>
-      </c>
-      <c r="C1300" t="s">
-        <v>4482</v>
-      </c>
-      <c r="D1300" t="s">
-        <v>4482</v>
-      </c>
+        <v>4490</v>
+      </c>
+      <c r="B1300"/>
+      <c r="C1300"/>
+      <c r="D1300"/>
       <c r="E1300">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>4483</v>
+        <v>4491</v>
       </c>
       <c r="B1301"/>
       <c r="C1301"/>
       <c r="D1301"/>
       <c r="E1301">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>4484</v>
+        <v>4492</v>
       </c>
       <c r="B1302"/>
       <c r="C1302"/>
       <c r="D1302"/>
       <c r="E1302">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1303" t="s">
-        <v>4485</v>
+        <v>4493</v>
       </c>
       <c r="B1303"/>
       <c r="C1303"/>
       <c r="D1303"/>
       <c r="E1303">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>4486</v>
-      </c>
-      <c r="B1304"/>
-      <c r="C1304"/>
-      <c r="D1304"/>
+        <v>4494</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>4496</v>
+      </c>
       <c r="E1304">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>4487</v>
-      </c>
-      <c r="B1305" t="s">
-        <v>4488</v>
-      </c>
-      <c r="C1305" t="s">
-        <v>4489</v>
-      </c>
-      <c r="D1305" t="s">
-        <v>2951</v>
-      </c>
+        <v>4497</v>
+      </c>
+      <c r="B1305"/>
+      <c r="C1305"/>
+      <c r="D1305"/>
       <c r="E1305">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>4490</v>
+        <v>4498</v>
       </c>
       <c r="B1306"/>
       <c r="C1306"/>
       <c r="D1306"/>
       <c r="E1306">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
     <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1307" t="s">
-        <v>4491</v>
+        <v>4499</v>
       </c>
       <c r="B1307"/>
       <c r="C1307"/>
       <c r="D1307"/>
       <c r="E1307">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>4492</v>
+        <v>4500</v>
       </c>
       <c r="B1308"/>
       <c r="C1308"/>
       <c r="D1308"/>
       <c r="E1308">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>4493</v>
+        <v>4501</v>
       </c>
       <c r="B1309" t="s">
-        <v>4494</v>
+        <v>4502</v>
       </c>
       <c r="C1309" t="s">
-        <v>4495</v>
+        <v>4503</v>
       </c>
       <c r="D1309" t="s">
-        <v>4495</v>
+        <v>2951</v>
       </c>
       <c r="E1309">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>4496</v>
+        <v>4504</v>
       </c>
       <c r="B1310"/>
       <c r="C1310"/>
       <c r="D1310"/>
       <c r="E1310">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>4497</v>
-      </c>
-      <c r="B1311" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C1311" t="s">
-        <v>3720</v>
-      </c>
-      <c r="D1311" t="s">
-        <v>4498</v>
-      </c>
+        <v>4505</v>
+      </c>
+      <c r="B1311"/>
+      <c r="C1311"/>
+      <c r="D1311"/>
       <c r="E1311">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>4499</v>
+        <v>4506</v>
       </c>
       <c r="B1312"/>
       <c r="C1312"/>
       <c r="D1312"/>
       <c r="E1312">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>4500</v>
+        <v>4507</v>
       </c>
       <c r="B1313" t="s">
-        <v>4494</v>
+        <v>4508</v>
       </c>
       <c r="C1313" t="s">
-        <v>4501</v>
+        <v>4509</v>
       </c>
       <c r="D1313" t="s">
-        <v>4501</v>
+        <v>4509</v>
       </c>
       <c r="E1313">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>4502</v>
+        <v>4510</v>
       </c>
       <c r="B1314"/>
       <c r="C1314"/>
       <c r="D1314"/>
       <c r="E1314">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>4503</v>
+        <v>4511</v>
       </c>
       <c r="B1315" t="s">
-        <v>4504</v>
+        <v>2067</v>
       </c>
       <c r="C1315" t="s">
-        <v>4505</v>
+        <v>3720</v>
       </c>
       <c r="D1315" t="s">
-        <v>4506</v>
+        <v>4512</v>
       </c>
       <c r="E1315">
-        <v>647</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
-        <v>4507</v>
+        <v>4513</v>
       </c>
       <c r="B1316"/>
       <c r="C1316"/>
       <c r="D1316"/>
       <c r="E1316">
-        <v>1257</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1317" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B1317" t="s">
         <v>4508</v>
       </c>
-      <c r="B1317" t="s">
-        <v>4509</v>
-      </c>
       <c r="C1317" t="s">
-        <v>4510</v>
+        <v>4515</v>
       </c>
       <c r="D1317" t="s">
-        <v>4511</v>
+        <v>4515</v>
       </c>
       <c r="E1317">
-        <v>678</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
-        <v>4512</v>
+        <v>4516</v>
       </c>
       <c r="B1318"/>
       <c r="C1318"/>
       <c r="D1318"/>
       <c r="E1318">
-        <v>1252</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1319" t="s">
-        <v>4513</v>
-      </c>
-      <c r="B1319"/>
-      <c r="C1319"/>
-      <c r="D1319"/>
+        <v>4517</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>4519</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>4520</v>
+      </c>
       <c r="E1319">
-        <v>1276</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>4514</v>
-      </c>
-      <c r="B1320" t="s">
-        <v>4515</v>
-      </c>
-      <c r="C1320" t="s">
-        <v>4516</v>
-      </c>
-      <c r="D1320" t="s">
-        <v>4517</v>
-      </c>
+        <v>4521</v>
+      </c>
+      <c r="B1320"/>
+      <c r="C1320"/>
+      <c r="D1320"/>
       <c r="E1320">
-        <v>741</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>4518</v>
+        <v>4522</v>
       </c>
       <c r="B1321"/>
       <c r="C1321"/>
       <c r="D1321"/>
       <c r="E1321">
-        <v>980</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>4519</v>
+        <v>4523</v>
       </c>
       <c r="B1322" t="s">
-        <v>4520</v>
+        <v>4524</v>
       </c>
       <c r="C1322" t="s">
-        <v>4521</v>
+        <v>4525</v>
       </c>
       <c r="D1322" t="s">
-        <v>4522</v>
+        <v>4526</v>
       </c>
       <c r="E1322">
-        <v>801</v>
+        <v>741</v>
       </c>
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>4523</v>
+        <v>4527</v>
       </c>
       <c r="B1323"/>
       <c r="C1323"/>
       <c r="D1323"/>
       <c r="E1323">
-        <v>1251</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>4524</v>
+        <v>4528</v>
       </c>
       <c r="B1324" t="s">
-        <v>4525</v>
+        <v>4529</v>
       </c>
       <c r="C1324" t="s">
-        <v>4526</v>
+        <v>4530</v>
       </c>
       <c r="D1324" t="s">
-        <v>4527</v>
+        <v>4531</v>
       </c>
       <c r="E1324">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>4528</v>
+        <v>4532</v>
       </c>
       <c r="B1325"/>
       <c r="C1325"/>
       <c r="D1325"/>
       <c r="E1325">
-        <v>810</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>4529</v>
+        <v>4533</v>
       </c>
       <c r="B1326" t="s">
-        <v>1823</v>
+        <v>4534</v>
       </c>
       <c r="C1326" t="s">
-        <v>4530</v>
+        <v>4535</v>
       </c>
       <c r="D1326" t="s">
-        <v>4531</v>
+        <v>4536</v>
       </c>
       <c r="E1326">
-        <v>837</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>4532</v>
+        <v>4537</v>
       </c>
       <c r="B1327"/>
       <c r="C1327"/>
       <c r="D1327"/>
       <c r="E1327">
-        <v>887</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>4533</v>
+        <v>4538</v>
       </c>
       <c r="B1328" t="s">
-        <v>4534</v>
+        <v>4539</v>
       </c>
       <c r="C1328" t="s">
-        <v>4535</v>
+        <v>4540</v>
       </c>
       <c r="D1328" t="s">
-        <v>4536</v>
+        <v>4541</v>
       </c>
       <c r="E1328">
-        <v>909</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>4537</v>
+        <v>4542</v>
       </c>
       <c r="B1329"/>
       <c r="C1329"/>
       <c r="D1329"/>
       <c r="E1329">
-        <v>916</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>4538</v>
+        <v>4543</v>
       </c>
       <c r="B1330" t="s">
-        <v>4539</v>
+        <v>1823</v>
       </c>
       <c r="C1330" t="s">
-        <v>4540</v>
+        <v>4544</v>
       </c>
       <c r="D1330" t="s">
-        <v>4541</v>
+        <v>4545</v>
       </c>
       <c r="E1330">
-        <v>910</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1331" t="s">
-        <v>4542</v>
+        <v>4546</v>
       </c>
       <c r="B1331"/>
       <c r="C1331"/>
       <c r="D1331"/>
       <c r="E1331">
-        <v>921</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>4543</v>
+        <v>4547</v>
       </c>
       <c r="B1332" t="s">
-        <v>4544</v>
+        <v>4548</v>
       </c>
       <c r="C1332" t="s">
-        <v>4545</v>
+        <v>4549</v>
       </c>
       <c r="D1332" t="s">
-        <v>4546</v>
+        <v>4550</v>
       </c>
       <c r="E1332">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>4547</v>
+        <v>4551</v>
       </c>
       <c r="B1333"/>
       <c r="C1333"/>
       <c r="D1333"/>
       <c r="E1333">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>4548</v>
+        <v>4552</v>
       </c>
       <c r="B1334" t="s">
-        <v>4549</v>
+        <v>4553</v>
       </c>
       <c r="C1334" t="s">
-        <v>4550</v>
+        <v>4554</v>
       </c>
       <c r="D1334" t="s">
-        <v>4551</v>
+        <v>4555</v>
       </c>
       <c r="E1334">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>4552</v>
+        <v>4556</v>
       </c>
       <c r="B1335"/>
       <c r="C1335"/>
       <c r="D1335"/>
       <c r="E1335">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>4553</v>
+        <v>4557</v>
       </c>
       <c r="B1336" t="s">
-        <v>4554</v>
+        <v>4558</v>
       </c>
       <c r="C1336" t="s">
-        <v>4555</v>
+        <v>4559</v>
       </c>
       <c r="D1336" t="s">
-        <v>4556</v>
+        <v>4560</v>
       </c>
       <c r="E1336">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1337" t="s">
-        <v>4557</v>
+        <v>4561</v>
       </c>
       <c r="B1337"/>
       <c r="C1337"/>
       <c r="D1337"/>
       <c r="E1337">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>4558</v>
+        <v>4562</v>
       </c>
       <c r="B1338" t="s">
-        <v>4559</v>
+        <v>4563</v>
       </c>
       <c r="C1338" t="s">
-        <v>1143</v>
+        <v>4564</v>
       </c>
       <c r="D1338" t="s">
-        <v>1144</v>
+        <v>4565</v>
       </c>
       <c r="E1338">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>4560</v>
+        <v>4566</v>
       </c>
       <c r="B1339"/>
       <c r="C1339"/>
       <c r="D1339"/>
       <c r="E1339">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>4561</v>
+        <v>4567</v>
       </c>
       <c r="B1340" t="s">
-        <v>4562</v>
+        <v>4568</v>
       </c>
       <c r="C1340" t="s">
-        <v>4563</v>
+        <v>4569</v>
       </c>
       <c r="D1340" t="s">
-        <v>4564</v>
+        <v>4570</v>
       </c>
       <c r="E1340">
-        <v>945</v>
+        <v>913</v>
       </c>
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>4565</v>
+        <v>4571</v>
       </c>
       <c r="B1341"/>
       <c r="C1341"/>
       <c r="D1341"/>
       <c r="E1341">
-        <v>977</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1342" t="s">
-        <v>4566</v>
+        <v>4572</v>
       </c>
       <c r="B1342" t="s">
-        <v>4567</v>
+        <v>4573</v>
       </c>
       <c r="C1342" t="s">
-        <v>4568</v>
+        <v>1143</v>
       </c>
       <c r="D1342" t="s">
-        <v>4569</v>
+        <v>1144</v>
       </c>
       <c r="E1342">
-        <v>953</v>
+        <v>914</v>
       </c>
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>4570</v>
+        <v>4574</v>
       </c>
       <c r="B1343"/>
       <c r="C1343"/>
       <c r="D1343"/>
       <c r="E1343">
-        <v>1317</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>4571</v>
+        <v>4575</v>
       </c>
       <c r="B1344" t="s">
-        <v>4572</v>
+        <v>4576</v>
       </c>
       <c r="C1344" t="s">
-        <v>4573</v>
+        <v>4577</v>
       </c>
       <c r="D1344" t="s">
-        <v>4574</v>
+        <v>4578</v>
       </c>
       <c r="E1344">
-        <v>973</v>
+        <v>945</v>
       </c>
     </row>
     <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>4575</v>
+        <v>4579</v>
       </c>
       <c r="B1345"/>
       <c r="C1345"/>
       <c r="D1345"/>
       <c r="E1345">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>4576</v>
+        <v>4580</v>
       </c>
       <c r="B1346" t="s">
-        <v>4577</v>
+        <v>4581</v>
       </c>
       <c r="C1346" t="s">
-        <v>4578</v>
+        <v>4582</v>
       </c>
       <c r="D1346" t="s">
-        <v>4579</v>
+        <v>4583</v>
       </c>
       <c r="E1346">
-        <v>1011</v>
+        <v>953</v>
       </c>
     </row>
     <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>4580</v>
+        <v>4584</v>
       </c>
       <c r="B1347"/>
       <c r="C1347"/>
       <c r="D1347"/>
       <c r="E1347">
-        <v>1023</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>4581</v>
+        <v>4585</v>
       </c>
       <c r="B1348" t="s">
-        <v>4582</v>
+        <v>4586</v>
       </c>
       <c r="C1348" t="s">
-        <v>4583</v>
+        <v>4587</v>
       </c>
       <c r="D1348" t="s">
-        <v>4584</v>
+        <v>4588</v>
       </c>
       <c r="E1348">
-        <v>1047</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>4585</v>
+        <v>4589</v>
       </c>
       <c r="B1349"/>
       <c r="C1349"/>
       <c r="D1349"/>
       <c r="E1349">
-        <v>1243</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>4586</v>
-      </c>
-      <c r="B1350"/>
-      <c r="C1350"/>
-      <c r="D1350"/>
+        <v>4590</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>4593</v>
+      </c>
       <c r="E1350">
-        <v>1296</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>4587</v>
-      </c>
-      <c r="B1351" t="s">
-        <v>4588</v>
-      </c>
-      <c r="C1351" t="s">
-        <v>2773</v>
-      </c>
-      <c r="D1351" t="s">
-        <v>2773</v>
-      </c>
+        <v>4594</v>
+      </c>
+      <c r="B1351"/>
+      <c r="C1351"/>
+      <c r="D1351"/>
       <c r="E1351">
-        <v>1065</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>4589</v>
-      </c>
-      <c r="B1352"/>
-      <c r="C1352"/>
-      <c r="D1352"/>
+        <v>4595</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>4598</v>
+      </c>
       <c r="E1352">
-        <v>1205</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>4590</v>
+        <v>4599</v>
       </c>
       <c r="B1353"/>
       <c r="C1353"/>
       <c r="D1353"/>
       <c r="E1353">
-        <v>1208</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>4591</v>
-      </c>
-      <c r="B1354" t="s">
-        <v>4592</v>
-      </c>
-      <c r="C1354" t="s">
-        <v>610</v>
-      </c>
-      <c r="D1354" t="s">
-        <v>611</v>
-      </c>
+        <v>4600</v>
+      </c>
+      <c r="B1354"/>
+      <c r="C1354"/>
+      <c r="D1354"/>
       <c r="E1354">
-        <v>1080</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>4593</v>
-      </c>
-      <c r="B1355"/>
-      <c r="C1355"/>
-      <c r="D1355"/>
+        <v>4601</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>2773</v>
+      </c>
       <c r="E1355">
-        <v>1227</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>4594</v>
+        <v>4603</v>
       </c>
       <c r="B1356"/>
       <c r="C1356"/>
       <c r="D1356"/>
       <c r="E1356">
-        <v>1229</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>4595</v>
+        <v>4604</v>
       </c>
       <c r="B1357"/>
       <c r="C1357"/>
       <c r="D1357"/>
       <c r="E1357">
-        <v>1234</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>4596</v>
+        <v>4605</v>
       </c>
       <c r="B1358" t="s">
-        <v>4597</v>
+        <v>4606</v>
       </c>
       <c r="C1358" t="s">
-        <v>4598</v>
+        <v>610</v>
       </c>
       <c r="D1358" t="s">
-        <v>4599</v>
+        <v>611</v>
       </c>
       <c r="E1358">
-        <v>1116</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
-        <v>4600</v>
+        <v>4607</v>
       </c>
       <c r="B1359"/>
       <c r="C1359"/>
       <c r="D1359"/>
       <c r="E1359">
-        <v>1117</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>4601</v>
-      </c>
-      <c r="B1360" t="s">
-        <v>4602</v>
-      </c>
-      <c r="C1360" t="s">
-        <v>4603</v>
-      </c>
-      <c r="D1360" t="s">
-        <v>4603</v>
-      </c>
+        <v>4608</v>
+      </c>
+      <c r="B1360"/>
+      <c r="C1360"/>
+      <c r="D1360"/>
       <c r="E1360">
-        <v>1147</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>4604</v>
+        <v>4609</v>
       </c>
       <c r="B1361"/>
       <c r="C1361"/>
       <c r="D1361"/>
       <c r="E1361">
-        <v>1151</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>4605</v>
+        <v>4610</v>
       </c>
       <c r="B1362" t="s">
-        <v>4606</v>
+        <v>4611</v>
       </c>
       <c r="C1362" t="s">
-        <v>4495</v>
+        <v>4612</v>
       </c>
       <c r="D1362" t="s">
-        <v>4495</v>
+        <v>4613</v>
       </c>
       <c r="E1362">
-        <v>1148</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>4607</v>
+        <v>4614</v>
       </c>
       <c r="B1363"/>
       <c r="C1363"/>
       <c r="D1363"/>
       <c r="E1363">
-        <v>1152</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>4608</v>
+        <v>4615</v>
       </c>
       <c r="B1364" t="s">
-        <v>4488</v>
+        <v>4616</v>
       </c>
       <c r="C1364" t="s">
-        <v>4609</v>
+        <v>4617</v>
       </c>
       <c r="D1364" t="s">
-        <v>4610</v>
+        <v>4617</v>
       </c>
       <c r="E1364">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>4611</v>
+        <v>4618</v>
       </c>
       <c r="B1365"/>
       <c r="C1365"/>
       <c r="D1365"/>
       <c r="E1365">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>4612</v>
+        <v>4619</v>
       </c>
       <c r="B1366" t="s">
-        <v>4613</v>
+        <v>4620</v>
       </c>
       <c r="C1366" t="s">
-        <v>4614</v>
+        <v>4509</v>
       </c>
       <c r="D1366" t="s">
-        <v>4614</v>
+        <v>4509</v>
       </c>
       <c r="E1366">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>4615</v>
+        <v>4621</v>
       </c>
       <c r="B1367"/>
       <c r="C1367"/>
       <c r="D1367"/>
       <c r="E1367">
-        <v>1161</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>4616</v>
+        <v>4622</v>
       </c>
       <c r="B1368" t="s">
-        <v>4617</v>
+        <v>4502</v>
       </c>
       <c r="C1368" t="s">
-        <v>427</v>
+        <v>4623</v>
       </c>
       <c r="D1368" t="s">
-        <v>428</v>
+        <v>4624</v>
       </c>
       <c r="E1368">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>4618</v>
+        <v>4625</v>
       </c>
       <c r="B1369"/>
       <c r="C1369"/>
       <c r="D1369"/>
       <c r="E1369">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>4619</v>
+        <v>4626</v>
       </c>
       <c r="B1370" t="s">
-        <v>4620</v>
+        <v>4627</v>
       </c>
       <c r="C1370" t="s">
-        <v>4621</v>
+        <v>4628</v>
       </c>
       <c r="D1370" t="s">
-        <v>4621</v>
+        <v>4628</v>
       </c>
       <c r="E1370">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>4622</v>
+        <v>4629</v>
       </c>
       <c r="B1371"/>
       <c r="C1371"/>
       <c r="D1371"/>
       <c r="E1371">
-        <v>1170</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>4623</v>
+        <v>4630</v>
       </c>
       <c r="B1372" t="s">
-        <v>4624</v>
+        <v>4631</v>
       </c>
       <c r="C1372" t="s">
-        <v>4625</v>
+        <v>427</v>
       </c>
       <c r="D1372" t="s">
-        <v>4625</v>
+        <v>428</v>
       </c>
       <c r="E1372">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>4626</v>
+        <v>4632</v>
       </c>
       <c r="B1373"/>
       <c r="C1373"/>
       <c r="D1373"/>
       <c r="E1373">
-        <v>1169</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1374" t="s">
-        <v>4627</v>
+        <v>4633</v>
       </c>
       <c r="B1374" t="s">
-        <v>4628</v>
+        <v>4634</v>
       </c>
       <c r="C1374" t="s">
-        <v>2891</v>
+        <v>4635</v>
       </c>
       <c r="D1374" t="s">
-        <v>2892</v>
+        <v>4635</v>
       </c>
       <c r="E1374">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>4629</v>
+        <v>4636</v>
       </c>
       <c r="B1375"/>
       <c r="C1375"/>
       <c r="D1375"/>
       <c r="E1375">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>4630</v>
-      </c>
-      <c r="B1376"/>
-      <c r="C1376"/>
-      <c r="D1376"/>
+        <v>4637</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>4639</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>4639</v>
+      </c>
       <c r="E1376">
-        <v>1294</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>4631</v>
-      </c>
-      <c r="B1377" t="s">
-        <v>4632</v>
-      </c>
-      <c r="C1377" t="s">
-        <v>4633</v>
-      </c>
-      <c r="D1377" t="s">
-        <v>3857</v>
-      </c>
+        <v>4640</v>
+      </c>
+      <c r="B1377"/>
+      <c r="C1377"/>
+      <c r="D1377"/>
       <c r="E1377">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>4634</v>
-      </c>
-      <c r="B1378"/>
-      <c r="C1378"/>
-      <c r="D1378"/>
+        <v>4641</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>4642</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>2892</v>
+      </c>
       <c r="E1378">
-        <v>1181</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>4635</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>4636</v>
-      </c>
-      <c r="C1379" t="s">
-        <v>4637</v>
-      </c>
-      <c r="D1379" t="s">
-        <v>4638</v>
-      </c>
+        <v>4643</v>
+      </c>
+      <c r="B1379"/>
+      <c r="C1379"/>
+      <c r="D1379"/>
       <c r="E1379">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>4639</v>
+        <v>4644</v>
       </c>
       <c r="B1380"/>
       <c r="C1380"/>
       <c r="D1380"/>
       <c r="E1380">
-        <v>1183</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>4640</v>
+        <v>4645</v>
       </c>
       <c r="B1381" t="s">
-        <v>4641</v>
+        <v>4646</v>
       </c>
       <c r="C1381" t="s">
-        <v>4642</v>
+        <v>4647</v>
       </c>
       <c r="D1381" t="s">
-        <v>4642</v>
+        <v>3871</v>
       </c>
       <c r="E1381">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>4643</v>
+        <v>4648</v>
       </c>
       <c r="B1382"/>
       <c r="C1382"/>
       <c r="D1382"/>
       <c r="E1382">
-        <v>1187</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>4644</v>
+        <v>4649</v>
       </c>
       <c r="B1383" t="s">
-        <v>4645</v>
+        <v>4650</v>
       </c>
       <c r="C1383" t="s">
-        <v>4646</v>
+        <v>4651</v>
       </c>
       <c r="D1383" t="s">
-        <v>4647</v>
+        <v>4652</v>
       </c>
       <c r="E1383">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>4648</v>
+        <v>4653</v>
       </c>
       <c r="B1384"/>
       <c r="C1384"/>
       <c r="D1384"/>
       <c r="E1384">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>4649</v>
+        <v>4654</v>
       </c>
       <c r="B1385" t="s">
-        <v>4650</v>
+        <v>4655</v>
       </c>
       <c r="C1385" t="s">
-        <v>4651</v>
+        <v>4656</v>
       </c>
       <c r="D1385" t="s">
-        <v>4652</v>
+        <v>4656</v>
       </c>
       <c r="E1385">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>4653</v>
+        <v>4657</v>
       </c>
       <c r="B1386"/>
       <c r="C1386"/>
       <c r="D1386"/>
       <c r="E1386">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>4654</v>
+        <v>4658</v>
       </c>
       <c r="B1387" t="s">
-        <v>4655</v>
+        <v>4659</v>
       </c>
       <c r="C1387" t="s">
-        <v>4656</v>
+        <v>4660</v>
       </c>
       <c r="D1387" t="s">
-        <v>4657</v>
+        <v>4661</v>
       </c>
       <c r="E1387">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>4658</v>
+        <v>4662</v>
       </c>
       <c r="B1388"/>
       <c r="C1388"/>
       <c r="D1388"/>
       <c r="E1388">
-        <v>1186</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>4659</v>
+        <v>4663</v>
       </c>
       <c r="B1389" t="s">
-        <v>4660</v>
+        <v>4664</v>
       </c>
       <c r="C1389" t="s">
-        <v>3731</v>
+        <v>4665</v>
       </c>
       <c r="D1389" t="s">
-        <v>4661</v>
+        <v>4666</v>
       </c>
       <c r="E1389">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>4662</v>
+        <v>4667</v>
       </c>
       <c r="B1390"/>
       <c r="C1390"/>
       <c r="D1390"/>
       <c r="E1390">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>4663</v>
+        <v>4668</v>
       </c>
       <c r="B1391" t="s">
-        <v>4664</v>
+        <v>4669</v>
       </c>
       <c r="C1391" t="s">
-        <v>2865</v>
+        <v>4670</v>
       </c>
       <c r="D1391" t="s">
-        <v>2865</v>
+        <v>4671</v>
       </c>
       <c r="E1391">
-        <v>1190</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>4665</v>
+        <v>4672</v>
       </c>
       <c r="B1392"/>
       <c r="C1392"/>
       <c r="D1392"/>
       <c r="E1392">
-        <v>1198</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>4666</v>
+        <v>4673</v>
       </c>
       <c r="B1393" t="s">
-        <v>4667</v>
+        <v>4674</v>
       </c>
       <c r="C1393" t="s">
-        <v>2867</v>
+        <v>3731</v>
       </c>
       <c r="D1393" t="s">
-        <v>2867</v>
+        <v>4675</v>
       </c>
       <c r="E1393">
-        <v>1191</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>4668</v>
+        <v>4676</v>
       </c>
       <c r="B1394"/>
       <c r="C1394"/>
       <c r="D1394"/>
       <c r="E1394">
-        <v>1196</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>4669</v>
+        <v>4677</v>
       </c>
       <c r="B1395" t="s">
-        <v>4670</v>
+        <v>4678</v>
       </c>
       <c r="C1395" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="D1395" t="s">
-        <v>2870</v>
+        <v>2865</v>
       </c>
       <c r="E1395">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>4671</v>
+        <v>4679</v>
       </c>
       <c r="B1396"/>
       <c r="C1396"/>
       <c r="D1396"/>
       <c r="E1396">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>4672</v>
+        <v>4680</v>
       </c>
       <c r="B1397" t="s">
-        <v>4673</v>
+        <v>4681</v>
       </c>
       <c r="C1397" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="D1397" t="s">
-        <v>2872</v>
+        <v>2867</v>
       </c>
       <c r="E1397">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>4674</v>
+        <v>4682</v>
       </c>
       <c r="B1398"/>
       <c r="C1398"/>
       <c r="D1398"/>
       <c r="E1398">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>4675</v>
+        <v>4683</v>
       </c>
       <c r="B1399" t="s">
-        <v>4676</v>
+        <v>4684</v>
       </c>
       <c r="C1399" t="s">
-        <v>2874</v>
+        <v>2869</v>
       </c>
       <c r="D1399" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="E1399">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>4677</v>
+        <v>4685</v>
       </c>
       <c r="B1400"/>
       <c r="C1400"/>
       <c r="D1400"/>
       <c r="E1400">
-        <v>1195</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>4678</v>
+        <v>4686</v>
       </c>
       <c r="B1401" t="s">
-        <v>4679</v>
+        <v>4687</v>
       </c>
       <c r="C1401" t="s">
-        <v>2765</v>
+        <v>2872</v>
       </c>
       <c r="D1401" t="s">
-        <v>2765</v>
+        <v>2872</v>
       </c>
       <c r="E1401">
-        <v>1202</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>4680</v>
+        <v>4688</v>
       </c>
       <c r="B1402"/>
       <c r="C1402"/>
       <c r="D1402"/>
       <c r="E1402">
-        <v>1207</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>4681</v>
+        <v>4689</v>
       </c>
       <c r="B1403" t="s">
-        <v>4682</v>
+        <v>4690</v>
       </c>
       <c r="C1403" t="s">
-        <v>2767</v>
+        <v>2874</v>
       </c>
       <c r="D1403" t="s">
-        <v>2768</v>
+        <v>2874</v>
       </c>
       <c r="E1403">
-        <v>1203</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>4683</v>
+        <v>4691</v>
       </c>
       <c r="B1404"/>
       <c r="C1404"/>
       <c r="D1404"/>
       <c r="E1404">
-        <v>1206</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>4684</v>
+        <v>4692</v>
       </c>
       <c r="B1405" t="s">
-        <v>4685</v>
+        <v>4693</v>
       </c>
       <c r="C1405" t="s">
-        <v>2770</v>
+        <v>2765</v>
       </c>
       <c r="D1405" t="s">
-        <v>2771</v>
+        <v>2765</v>
       </c>
       <c r="E1405">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>4686</v>
+        <v>4694</v>
       </c>
       <c r="B1406"/>
       <c r="C1406"/>
       <c r="D1406"/>
       <c r="E1406">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>4687</v>
+        <v>4695</v>
       </c>
       <c r="B1407" t="s">
-        <v>4688</v>
+        <v>4696</v>
       </c>
       <c r="C1407" t="s">
-        <v>4689</v>
+        <v>2767</v>
       </c>
       <c r="D1407" t="s">
-        <v>4690</v>
+        <v>2768</v>
       </c>
       <c r="E1407">
-        <v>1211</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>4691</v>
+        <v>4697</v>
       </c>
       <c r="B1408"/>
       <c r="C1408"/>
       <c r="D1408"/>
       <c r="E1408">
-        <v>1219</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>4692</v>
+        <v>4698</v>
       </c>
       <c r="B1409" t="s">
-        <v>330</v>
+        <v>4699</v>
       </c>
       <c r="C1409" t="s">
-        <v>4693</v>
+        <v>2770</v>
       </c>
       <c r="D1409" t="s">
-        <v>4693</v>
+        <v>2771</v>
       </c>
       <c r="E1409">
-        <v>1212</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>4694</v>
+        <v>4700</v>
       </c>
       <c r="B1410"/>
       <c r="C1410"/>
       <c r="D1410"/>
       <c r="E1410">
-        <v>1220</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>4695</v>
+        <v>4701</v>
       </c>
       <c r="B1411" t="s">
-        <v>4696</v>
+        <v>4702</v>
       </c>
       <c r="C1411" t="s">
-        <v>138</v>
+        <v>4703</v>
       </c>
       <c r="D1411" t="s">
-        <v>138</v>
+        <v>4704</v>
       </c>
       <c r="E1411">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
-        <v>4697</v>
+        <v>4705</v>
       </c>
       <c r="B1412"/>
       <c r="C1412"/>
       <c r="D1412"/>
       <c r="E1412">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>4698</v>
+        <v>4706</v>
       </c>
       <c r="B1413" t="s">
-        <v>4699</v>
+        <v>330</v>
       </c>
       <c r="C1413" t="s">
-        <v>135</v>
+        <v>4707</v>
       </c>
       <c r="D1413" t="s">
-        <v>135</v>
+        <v>4707</v>
       </c>
       <c r="E1413">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>4700</v>
+        <v>4708</v>
       </c>
       <c r="B1414"/>
       <c r="C1414"/>
       <c r="D1414"/>
       <c r="E1414">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
-        <v>4701</v>
+        <v>4709</v>
       </c>
       <c r="B1415" t="s">
-        <v>4702</v>
+        <v>4710</v>
       </c>
       <c r="C1415" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D1415" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E1415">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>4703</v>
+        <v>4711</v>
       </c>
       <c r="B1416"/>
       <c r="C1416"/>
       <c r="D1416"/>
       <c r="E1416">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>4704</v>
+        <v>4712</v>
       </c>
       <c r="B1417" t="s">
-        <v>4705</v>
+        <v>4713</v>
       </c>
       <c r="C1417" t="s">
-        <v>606</v>
+        <v>135</v>
       </c>
       <c r="D1417" t="s">
-        <v>607</v>
+        <v>135</v>
       </c>
       <c r="E1417">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>4706</v>
+        <v>4714</v>
       </c>
       <c r="B1418"/>
       <c r="C1418"/>
       <c r="D1418"/>
       <c r="E1418">
-        <v>1231</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>4707</v>
+        <v>4715</v>
       </c>
       <c r="B1419" t="s">
-        <v>4708</v>
+        <v>4716</v>
       </c>
       <c r="C1419" t="s">
-        <v>4709</v>
+        <v>132</v>
       </c>
       <c r="D1419" t="s">
-        <v>4710</v>
+        <v>132</v>
       </c>
       <c r="E1419">
-        <v>1245</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>4711</v>
+        <v>4717</v>
       </c>
       <c r="B1420"/>
       <c r="C1420"/>
       <c r="D1420"/>
       <c r="E1420">
-        <v>1291</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
-        <v>4712</v>
+        <v>4718</v>
       </c>
       <c r="B1421" t="s">
-        <v>4713</v>
+        <v>4719</v>
       </c>
       <c r="C1421" t="s">
-        <v>4714</v>
+        <v>606</v>
       </c>
       <c r="D1421" t="s">
-        <v>4715</v>
+        <v>607</v>
       </c>
       <c r="E1421">
-        <v>1246</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>4716</v>
+        <v>4720</v>
       </c>
       <c r="B1422"/>
       <c r="C1422"/>
       <c r="D1422"/>
       <c r="E1422">
-        <v>1292</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
-        <v>4717</v>
+        <v>4721</v>
       </c>
       <c r="B1423" t="s">
-        <v>4718</v>
+        <v>4722</v>
       </c>
       <c r="C1423" t="s">
-        <v>4719</v>
+        <v>4723</v>
       </c>
       <c r="D1423" t="s">
-        <v>4258</v>
+        <v>4724</v>
       </c>
       <c r="E1423">
-        <v>1271</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>4720</v>
+        <v>4725</v>
       </c>
       <c r="B1424"/>
       <c r="C1424"/>
       <c r="D1424"/>
       <c r="E1424">
-        <v>1307</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
-        <v>4721</v>
+        <v>4726</v>
       </c>
       <c r="B1425" t="s">
-        <v>1823</v>
+        <v>4727</v>
       </c>
       <c r="C1425" t="s">
-        <v>1823</v>
+        <v>4728</v>
       </c>
       <c r="D1425" t="s">
-        <v>2412</v>
+        <v>4729</v>
       </c>
       <c r="E1425">
-        <v>1412</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>4722</v>
+        <v>4730</v>
       </c>
       <c r="B1426"/>
       <c r="C1426"/>
       <c r="D1426"/>
       <c r="E1426">
-        <v>1413</v>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>4733</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E1427">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B1428"/>
+      <c r="C1428"/>
+      <c r="D1428"/>
+      <c r="E1428">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E1429">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B1430"/>
+      <c r="C1430"/>
+      <c r="D1430"/>
+      <c r="E1430">
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="294">
-    <mergeCell ref="B1186:B1187"/>
-    <mergeCell ref="C1186:C1187"/>
-    <mergeCell ref="D1186:D1187"/>
-    <mergeCell ref="B1188:B1190"/>
-    <mergeCell ref="C1188:C1190"/>
-    <mergeCell ref="D1188:D1190"/>
-    <mergeCell ref="B1191:B1193"/>
-    <mergeCell ref="C1191:C1193"/>
-    <mergeCell ref="D1191:D1193"/>
-    <mergeCell ref="B1194:B1195"/>
-    <mergeCell ref="C1194:C1195"/>
-    <mergeCell ref="D1194:D1195"/>
-    <mergeCell ref="B1196:B1197"/>
-    <mergeCell ref="C1196:C1197"/>
-    <mergeCell ref="D1196:D1197"/>
+    <mergeCell ref="B1190:B1191"/>
+    <mergeCell ref="C1190:C1191"/>
+    <mergeCell ref="D1190:D1191"/>
+    <mergeCell ref="B1192:B1194"/>
+    <mergeCell ref="C1192:C1194"/>
+    <mergeCell ref="D1192:D1194"/>
+    <mergeCell ref="B1195:B1197"/>
+    <mergeCell ref="C1195:C1197"/>
+    <mergeCell ref="D1195:D1197"/>
     <mergeCell ref="B1198:B1199"/>
     <mergeCell ref="C1198:C1199"/>
     <mergeCell ref="D1198:D1199"/>
@@ -38021,27 +38125,27 @@
     <mergeCell ref="B1218:B1219"/>
     <mergeCell ref="C1218:C1219"/>
     <mergeCell ref="D1218:D1219"/>
-    <mergeCell ref="B1220:B1223"/>
-    <mergeCell ref="C1220:C1223"/>
-    <mergeCell ref="D1220:D1223"/>
-    <mergeCell ref="B1224:B1226"/>
-    <mergeCell ref="C1224:C1226"/>
-    <mergeCell ref="D1224:D1226"/>
-    <mergeCell ref="B1227:B1230"/>
-    <mergeCell ref="C1227:C1230"/>
-    <mergeCell ref="D1227:D1230"/>
-    <mergeCell ref="B1231:B1233"/>
-    <mergeCell ref="C1231:C1233"/>
-    <mergeCell ref="D1231:D1233"/>
-    <mergeCell ref="B1234:B1236"/>
-    <mergeCell ref="C1234:C1236"/>
-    <mergeCell ref="D1234:D1236"/>
-    <mergeCell ref="B1237:B1238"/>
-    <mergeCell ref="C1237:C1238"/>
-    <mergeCell ref="D1237:D1238"/>
-    <mergeCell ref="B1239:B1240"/>
-    <mergeCell ref="C1239:C1240"/>
-    <mergeCell ref="D1239:D1240"/>
+    <mergeCell ref="B1220:B1221"/>
+    <mergeCell ref="C1220:C1221"/>
+    <mergeCell ref="D1220:D1221"/>
+    <mergeCell ref="B1222:B1223"/>
+    <mergeCell ref="C1222:C1223"/>
+    <mergeCell ref="D1222:D1223"/>
+    <mergeCell ref="B1224:B1227"/>
+    <mergeCell ref="C1224:C1227"/>
+    <mergeCell ref="D1224:D1227"/>
+    <mergeCell ref="B1228:B1230"/>
+    <mergeCell ref="C1228:C1230"/>
+    <mergeCell ref="D1228:D1230"/>
+    <mergeCell ref="B1231:B1234"/>
+    <mergeCell ref="C1231:C1234"/>
+    <mergeCell ref="D1231:D1234"/>
+    <mergeCell ref="B1235:B1237"/>
+    <mergeCell ref="C1235:C1237"/>
+    <mergeCell ref="D1235:D1237"/>
+    <mergeCell ref="B1238:B1240"/>
+    <mergeCell ref="C1238:C1240"/>
+    <mergeCell ref="D1238:D1240"/>
     <mergeCell ref="B1241:B1242"/>
     <mergeCell ref="C1241:C1242"/>
     <mergeCell ref="D1241:D1242"/>
@@ -38060,21 +38164,21 @@
     <mergeCell ref="B1251:B1252"/>
     <mergeCell ref="C1251:C1252"/>
     <mergeCell ref="D1251:D1252"/>
-    <mergeCell ref="B1253:B1255"/>
-    <mergeCell ref="C1253:C1255"/>
-    <mergeCell ref="D1253:D1255"/>
-    <mergeCell ref="B1256:B1257"/>
-    <mergeCell ref="C1256:C1257"/>
-    <mergeCell ref="D1256:D1257"/>
-    <mergeCell ref="B1258:B1260"/>
-    <mergeCell ref="C1258:C1260"/>
-    <mergeCell ref="D1258:D1260"/>
-    <mergeCell ref="B1261:B1262"/>
-    <mergeCell ref="C1261:C1262"/>
-    <mergeCell ref="D1261:D1262"/>
-    <mergeCell ref="B1263:B1264"/>
-    <mergeCell ref="C1263:C1264"/>
-    <mergeCell ref="D1263:D1264"/>
+    <mergeCell ref="B1253:B1254"/>
+    <mergeCell ref="C1253:C1254"/>
+    <mergeCell ref="D1253:D1254"/>
+    <mergeCell ref="B1255:B1256"/>
+    <mergeCell ref="C1255:C1256"/>
+    <mergeCell ref="D1255:D1256"/>
+    <mergeCell ref="B1257:B1259"/>
+    <mergeCell ref="C1257:C1259"/>
+    <mergeCell ref="D1257:D1259"/>
+    <mergeCell ref="B1260:B1261"/>
+    <mergeCell ref="C1260:C1261"/>
+    <mergeCell ref="D1260:D1261"/>
+    <mergeCell ref="B1262:B1264"/>
+    <mergeCell ref="C1262:C1264"/>
+    <mergeCell ref="D1262:D1264"/>
     <mergeCell ref="B1265:B1266"/>
     <mergeCell ref="C1265:C1266"/>
     <mergeCell ref="D1265:D1266"/>
@@ -38087,36 +38191,36 @@
     <mergeCell ref="B1271:B1272"/>
     <mergeCell ref="C1271:C1272"/>
     <mergeCell ref="D1271:D1272"/>
-    <mergeCell ref="B1273:B1294"/>
-    <mergeCell ref="C1273:C1294"/>
-    <mergeCell ref="D1273:D1294"/>
-    <mergeCell ref="B1295:B1299"/>
-    <mergeCell ref="C1295:C1299"/>
-    <mergeCell ref="D1295:D1299"/>
-    <mergeCell ref="B1300:B1304"/>
-    <mergeCell ref="C1300:C1304"/>
-    <mergeCell ref="D1300:D1304"/>
-    <mergeCell ref="B1305:B1308"/>
-    <mergeCell ref="C1305:C1308"/>
-    <mergeCell ref="D1305:D1308"/>
-    <mergeCell ref="B1309:B1310"/>
-    <mergeCell ref="C1309:C1310"/>
-    <mergeCell ref="D1309:D1310"/>
-    <mergeCell ref="B1311:B1312"/>
-    <mergeCell ref="C1311:C1312"/>
-    <mergeCell ref="D1311:D1312"/>
+    <mergeCell ref="B1273:B1274"/>
+    <mergeCell ref="C1273:C1274"/>
+    <mergeCell ref="D1273:D1274"/>
+    <mergeCell ref="B1275:B1276"/>
+    <mergeCell ref="C1275:C1276"/>
+    <mergeCell ref="D1275:D1276"/>
+    <mergeCell ref="B1277:B1298"/>
+    <mergeCell ref="C1277:C1298"/>
+    <mergeCell ref="D1277:D1298"/>
+    <mergeCell ref="B1299:B1303"/>
+    <mergeCell ref="C1299:C1303"/>
+    <mergeCell ref="D1299:D1303"/>
+    <mergeCell ref="B1304:B1308"/>
+    <mergeCell ref="C1304:C1308"/>
+    <mergeCell ref="D1304:D1308"/>
+    <mergeCell ref="B1309:B1312"/>
+    <mergeCell ref="C1309:C1312"/>
+    <mergeCell ref="D1309:D1312"/>
     <mergeCell ref="B1313:B1314"/>
     <mergeCell ref="C1313:C1314"/>
     <mergeCell ref="D1313:D1314"/>
     <mergeCell ref="B1315:B1316"/>
     <mergeCell ref="C1315:C1316"/>
     <mergeCell ref="D1315:D1316"/>
-    <mergeCell ref="B1317:B1319"/>
-    <mergeCell ref="C1317:C1319"/>
-    <mergeCell ref="D1317:D1319"/>
-    <mergeCell ref="B1320:B1321"/>
-    <mergeCell ref="C1320:C1321"/>
-    <mergeCell ref="D1320:D1321"/>
+    <mergeCell ref="B1317:B1318"/>
+    <mergeCell ref="C1317:C1318"/>
+    <mergeCell ref="D1317:D1318"/>
+    <mergeCell ref="B1319:B1321"/>
+    <mergeCell ref="C1319:C1321"/>
+    <mergeCell ref="D1319:D1321"/>
     <mergeCell ref="B1322:B1323"/>
     <mergeCell ref="C1322:C1323"/>
     <mergeCell ref="D1322:D1323"/>
@@ -38156,21 +38260,21 @@
     <mergeCell ref="B1346:B1347"/>
     <mergeCell ref="C1346:C1347"/>
     <mergeCell ref="D1346:D1347"/>
-    <mergeCell ref="B1348:B1350"/>
-    <mergeCell ref="C1348:C1350"/>
-    <mergeCell ref="D1348:D1350"/>
-    <mergeCell ref="B1351:B1353"/>
-    <mergeCell ref="C1351:C1353"/>
-    <mergeCell ref="D1351:D1353"/>
-    <mergeCell ref="B1354:B1357"/>
-    <mergeCell ref="C1354:C1357"/>
-    <mergeCell ref="D1354:D1357"/>
-    <mergeCell ref="B1358:B1359"/>
-    <mergeCell ref="C1358:C1359"/>
-    <mergeCell ref="D1358:D1359"/>
-    <mergeCell ref="B1360:B1361"/>
-    <mergeCell ref="C1360:C1361"/>
-    <mergeCell ref="D1360:D1361"/>
+    <mergeCell ref="B1348:B1349"/>
+    <mergeCell ref="C1348:C1349"/>
+    <mergeCell ref="D1348:D1349"/>
+    <mergeCell ref="B1350:B1351"/>
+    <mergeCell ref="C1350:C1351"/>
+    <mergeCell ref="D1350:D1351"/>
+    <mergeCell ref="B1352:B1354"/>
+    <mergeCell ref="C1352:C1354"/>
+    <mergeCell ref="D1352:D1354"/>
+    <mergeCell ref="B1355:B1357"/>
+    <mergeCell ref="C1355:C1357"/>
+    <mergeCell ref="D1355:D1357"/>
+    <mergeCell ref="B1358:B1361"/>
+    <mergeCell ref="C1358:C1361"/>
+    <mergeCell ref="D1358:D1361"/>
     <mergeCell ref="B1362:B1363"/>
     <mergeCell ref="C1362:C1363"/>
     <mergeCell ref="D1362:D1363"/>
@@ -38189,15 +38293,15 @@
     <mergeCell ref="B1372:B1373"/>
     <mergeCell ref="C1372:C1373"/>
     <mergeCell ref="D1372:D1373"/>
-    <mergeCell ref="B1374:B1376"/>
-    <mergeCell ref="C1374:C1376"/>
-    <mergeCell ref="D1374:D1376"/>
-    <mergeCell ref="B1377:B1378"/>
-    <mergeCell ref="C1377:C1378"/>
-    <mergeCell ref="D1377:D1378"/>
-    <mergeCell ref="B1379:B1380"/>
-    <mergeCell ref="C1379:C1380"/>
-    <mergeCell ref="D1379:D1380"/>
+    <mergeCell ref="B1374:B1375"/>
+    <mergeCell ref="C1374:C1375"/>
+    <mergeCell ref="D1374:D1375"/>
+    <mergeCell ref="B1376:B1377"/>
+    <mergeCell ref="C1376:C1377"/>
+    <mergeCell ref="D1376:D1377"/>
+    <mergeCell ref="B1378:B1380"/>
+    <mergeCell ref="C1378:C1380"/>
+    <mergeCell ref="D1378:D1380"/>
     <mergeCell ref="B1381:B1382"/>
     <mergeCell ref="C1381:C1382"/>
     <mergeCell ref="D1381:D1382"/>
@@ -38267,6 +38371,12 @@
     <mergeCell ref="B1425:B1426"/>
     <mergeCell ref="C1425:C1426"/>
     <mergeCell ref="D1425:D1426"/>
+    <mergeCell ref="B1427:B1428"/>
+    <mergeCell ref="C1427:C1428"/>
+    <mergeCell ref="D1427:D1428"/>
+    <mergeCell ref="B1429:B1430"/>
+    <mergeCell ref="C1429:C1430"/>
+    <mergeCell ref="D1429:D1430"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -10226,6 +10226,12 @@
     <t>短信登錄</t>
   </si>
   <si>
+    <t>frontstage.form.label.fundsPassword</t>
+  </si>
+  <si>
+    <t>資金密碼</t>
+  </si>
+  <si>
     <t>frontstage.form.button.Add</t>
   </si>
   <si>
@@ -10316,6 +10322,9 @@
     <t>提款</t>
   </si>
   <si>
+    <t>frontstage.form.button.reset</t>
+  </si>
+  <si>
     <t>frontstage.menu.UserDailyRewordRecord</t>
   </si>
   <si>
@@ -11246,6 +11255,9 @@
     <t>week</t>
   </si>
   <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.Week</t>
+  </si>
+  <si>
     <t>frontstage.state.GameCategoryEnum.ESport</t>
   </si>
   <si>
@@ -11465,6 +11477,12 @@
     <t>重置手機成功</t>
   </si>
   <si>
+    <t>frontstage.user.securitySetting.Phone.modifyFailingMsg</t>
+  </si>
+  <si>
+    <t>重置手機失敗</t>
+  </si>
+  <si>
     <t>frontstage.user.securitySetting.Email.label</t>
   </si>
   <si>
@@ -11492,6 +11510,12 @@
     <t>通過郵箱來登錄帳號，帳戶資金變動通知，並在帳號有疑似異常操作時接收提示信息。</t>
   </si>
   <si>
+    <t>frontstage.user.securitySetting.Email.modifyFailingMsg</t>
+  </si>
+  <si>
+    <t>重置郵箱失敗</t>
+  </si>
+  <si>
     <t>frontstage.user.securitySetting.Password.label</t>
   </si>
   <si>
@@ -11528,6 +11552,12 @@
     <t>設置密碼，登錄時可使用密碼登錄。</t>
   </si>
   <si>
+    <t>frontstage.user.securitySetting.Password.mifyFailingMsg</t>
+  </si>
+  <si>
+    <t>重置登錄密碼失敗</t>
+  </si>
+  <si>
     <t>frontstage.user.securitySetting.FundsPassword.modifySuccessMsg</t>
   </si>
   <si>
@@ -11564,6 +11594,24 @@
     <t>設置資金密碼成功</t>
   </si>
   <si>
+    <t>frontstage.user.securitySetting.FundsPassword.mifyFailingMsg</t>
+  </si>
+  <si>
+    <t>重置資金密碼失敗</t>
+  </si>
+  <si>
+    <t>frontstage.user.securitySetting.FundsPassword.settingFailingMsg</t>
+  </si>
+  <si>
+    <t>設置資金密碼失敗</t>
+  </si>
+  <si>
+    <t>frontstage.user.securitySetting.modifyFailingMsg</t>
+  </si>
+  <si>
+    <t>修改失敗</t>
+  </si>
+  <si>
     <t>frontstage.user.BankCard.addBankCard</t>
   </si>
   <si>
@@ -11732,6 +11780,12 @@
     <t>雲閃付</t>
   </si>
   <si>
+    <t>frontstage.user.TppPaymentTypeEnum.BqPay</t>
+  </si>
+  <si>
+    <t>BQPay</t>
+  </si>
+  <si>
     <t>frontstage.user.transfer.msg.successfulTransfer</t>
   </si>
   <si>
@@ -12854,60 +12908,6 @@
     <t>[中心錢包]轉[沙龙]</t>
   </si>
   <si>
-    <t>frontstage.form.label.fundsPassword</t>
-  </si>
-  <si>
-    <t>資金密碼</t>
-  </si>
-  <si>
-    <t>frontstage.form.button.reset</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.Week</t>
-  </si>
-  <si>
-    <t>frontstage.user.securitySetting.Phone.modifyFailingMsg</t>
-  </si>
-  <si>
-    <t>重置手機失敗</t>
-  </si>
-  <si>
-    <t>frontstage.user.securitySetting.Email.modifyFailingMsg</t>
-  </si>
-  <si>
-    <t>重置郵箱失敗</t>
-  </si>
-  <si>
-    <t>frontstage.user.securitySetting.Password.mifyFailingMsg</t>
-  </si>
-  <si>
-    <t>重置登錄密碼失敗</t>
-  </si>
-  <si>
-    <t>frontstage.user.securitySetting.FundsPassword.mifyFailingMsg</t>
-  </si>
-  <si>
-    <t>重置資金密碼失敗</t>
-  </si>
-  <si>
-    <t>frontstage.user.securitySetting.FundsPassword.settingFailingMsg</t>
-  </si>
-  <si>
-    <t>設置資金密碼失敗</t>
-  </si>
-  <si>
-    <t>frontstage.user.securitySetting.modifyFailingMsg</t>
-  </si>
-  <si>
-    <t>修改失敗</t>
-  </si>
-  <si>
-    <t>frontstage.user.TppPaymentTypeEnum.BqPay</t>
-  </si>
-  <si>
-    <t>BQPay</t>
-  </si>
-  <si>
     <t>frontstage.user.changeRecordType.CenterToPs</t>
   </si>
   <si>
@@ -13472,30 +13472,30 @@
     <t>frontstage.state.WithdrawalStateTypeEnum.Undefined</t>
   </si>
   <si>
+    <t>frontstage.state.TppChannelEnum.0</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.Undefined</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.0</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.Undefined</t>
+  </si>
+  <si>
     <t>frontstage.state.WalletTransferStateTypeEnum.0</t>
   </si>
   <si>
     <t>frontstage.state.WalletTransferStateTypeEnum.Undefined</t>
   </si>
   <si>
-    <t>frontstage.state.TppChannelEnum.0</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.Undefined</t>
-  </si>
-  <si>
     <t>frontstage.state.BetOrderState.0</t>
   </si>
   <si>
     <t>frontstage.state.BetOrderState.Undefined</t>
   </si>
   <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.0</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.Undefined</t>
-  </si>
-  <si>
     <t>frontstage.user.changeRecordType.Undefined</t>
   </si>
   <si>
@@ -13940,6 +13940,195 @@
     <t>frontstage.state.WithdrawalStateTypeEnum.Reject</t>
   </si>
   <si>
+    <t>frontstage.state.TppChannelEnum.1</t>
+  </si>
+  <si>
+    <t>Bank card transfer</t>
+  </si>
+  <si>
+    <t>银行卡转帐</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.BankCard</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.2</t>
+  </si>
+  <si>
+    <t>Tpp-online payment</t>
+  </si>
+  <si>
+    <t>Tpp-线上支付</t>
+  </si>
+  <si>
+    <t>Tpp-線上支付</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.OnlinePayment</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.3</t>
+  </si>
+  <si>
+    <t>Tpp-WeChat payment</t>
+  </si>
+  <si>
+    <t>Tpp-微信支付</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.WeChatPay</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.4</t>
+  </si>
+  <si>
+    <t>Tpp- Alipay</t>
+  </si>
+  <si>
+    <t>Tpp-支付宝</t>
+  </si>
+  <si>
+    <t>Tpp-支付寶</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.Alipay</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.5</t>
+  </si>
+  <si>
+    <t>Tpp-Jingdong Pay</t>
+  </si>
+  <si>
+    <t>Tpp-京东支付</t>
+  </si>
+  <si>
+    <t>Tpp-京東支付</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.JingdongQrCode</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.6</t>
+  </si>
+  <si>
+    <t>Tpp-UnionPay QrCode</t>
+  </si>
+  <si>
+    <t>Tpp-银联扫码</t>
+  </si>
+  <si>
+    <t>Tpp-銀聯掃碼</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.UnionPayQrCode</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.7</t>
+  </si>
+  <si>
+    <t>Tpp-Quick Pass</t>
+  </si>
+  <si>
+    <t>Tpp-雲閃付</t>
+  </si>
+  <si>
+    <t>frontstage.state.TppChannelEnum.UnionPay</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.0</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.Undefined</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.1</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>小時</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.Hour</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.2</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.Day</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.4</t>
+  </si>
+  <si>
+    <t>half a month</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.HalfMonth</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.5</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.Month</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.6</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.SettlementCategoryEnum.Quarter</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.1</t>
+  </si>
+  <si>
+    <t>Valid bet</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.BetAviliable</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.2</t>
+  </si>
+  <si>
+    <t>Negative profit</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.WinLose</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.3</t>
+  </si>
+  <si>
+    <t>Negative profit (uneven accounts)</t>
+  </si>
+  <si>
+    <t>frontstage.state.Agent.BenefitSharingSourceEnum.Lose</t>
+  </si>
+  <si>
+    <t>frontstage.state.GameCategoryEnum.5</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>frontstage.state.GameCategoryEnum.Gaming</t>
+  </si>
+  <si>
     <t>frontstage.state.WalletTransferStateTypeEnum.1</t>
   </si>
   <si>
@@ -13976,102 +14165,6 @@
     <t>frontstage.user.transfer.msg.transferFailed</t>
   </si>
   <si>
-    <t>frontstage.state.TppChannelEnum.1</t>
-  </si>
-  <si>
-    <t>Bank card transfer</t>
-  </si>
-  <si>
-    <t>银行卡转帐</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.BankCard</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.2</t>
-  </si>
-  <si>
-    <t>Tpp-online payment</t>
-  </si>
-  <si>
-    <t>Tpp-线上支付</t>
-  </si>
-  <si>
-    <t>Tpp-線上支付</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.OnlinePayment</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.3</t>
-  </si>
-  <si>
-    <t>Tpp-WeChat payment</t>
-  </si>
-  <si>
-    <t>Tpp-微信支付</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.WeChatPay</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.4</t>
-  </si>
-  <si>
-    <t>Tpp- Alipay</t>
-  </si>
-  <si>
-    <t>Tpp-支付宝</t>
-  </si>
-  <si>
-    <t>Tpp-支付寶</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.Alipay</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.5</t>
-  </si>
-  <si>
-    <t>Tpp-Jingdong Pay</t>
-  </si>
-  <si>
-    <t>Tpp-京东支付</t>
-  </si>
-  <si>
-    <t>Tpp-京東支付</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.JingdongQrCode</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.6</t>
-  </si>
-  <si>
-    <t>Tpp-UnionPay QrCode</t>
-  </si>
-  <si>
-    <t>Tpp-银联扫码</t>
-  </si>
-  <si>
-    <t>Tpp-銀聯掃碼</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.UnionPayQrCode</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.7</t>
-  </si>
-  <si>
-    <t>Tpp-Quick Pass</t>
-  </si>
-  <si>
-    <t>Tpp-雲閃付</t>
-  </si>
-  <si>
-    <t>frontstage.state.TppChannelEnum.UnionPay</t>
-  </si>
-  <si>
     <t>frontstage.state.BetOrderState.1</t>
   </si>
   <si>
@@ -14117,93 +14210,6 @@
     <t>frontstage.state.BetOrderState.Canceled</t>
   </si>
   <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.1</t>
-  </si>
-  <si>
-    <t>Valid bet</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.BetAviliable</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.2</t>
-  </si>
-  <si>
-    <t>Negative profit</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.WinLose</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.3</t>
-  </si>
-  <si>
-    <t>Negative profit (uneven accounts)</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.BenefitSharingSourceEnum.Lose</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.1</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>小时</t>
-  </si>
-  <si>
-    <t>小時</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.Hour</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.2</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.Day</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.4</t>
-  </si>
-  <si>
-    <t>half a month</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.HalfMonth</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.5</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.Month</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.6</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.Quarter</t>
-  </si>
-  <si>
-    <t>frontstage.state.GameCategoryEnum.5</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>frontstage.state.GameCategoryEnum.Gaming</t>
-  </si>
-  <si>
     <t>frontstage.user.transferRecord.column.From</t>
   </si>
   <si>
@@ -14244,12 +14250,6 @@
   </si>
   <si>
     <t>frontstage.user.fundsPassword</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.0</t>
-  </si>
-  <si>
-    <t>frontstage.state.Agent.SettlementCategoryEnum.Undefined</t>
   </si>
 </sst>
 </file>
@@ -28447,7 +28447,7 @@
         <v>2976</v>
       </c>
       <c r="E813">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
@@ -28464,7 +28464,7 @@
         <v>2979</v>
       </c>
       <c r="E814">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
@@ -28481,7 +28481,7 @@
         <v>2983</v>
       </c>
       <c r="E815">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
@@ -28498,7 +28498,7 @@
         <v>2987</v>
       </c>
       <c r="E816">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
@@ -28515,7 +28515,7 @@
         <v>2605</v>
       </c>
       <c r="E817">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
@@ -28600,7 +28600,7 @@
         <v>3006</v>
       </c>
       <c r="E822">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.25">
@@ -28685,7 +28685,7 @@
         <v>3024</v>
       </c>
       <c r="E827">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
@@ -28702,7 +28702,7 @@
         <v>3027</v>
       </c>
       <c r="E828">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.25">
@@ -28719,7 +28719,7 @@
         <v>3030</v>
       </c>
       <c r="E829">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.25">
@@ -28736,7 +28736,7 @@
         <v>3033</v>
       </c>
       <c r="E830">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
@@ -28753,7 +28753,7 @@
         <v>176</v>
       </c>
       <c r="E831">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
@@ -28770,7 +28770,7 @@
         <v>3039</v>
       </c>
       <c r="E832">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
@@ -28787,7 +28787,7 @@
         <v>3043</v>
       </c>
       <c r="E833">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.25">
@@ -28804,7 +28804,7 @@
         <v>3047</v>
       </c>
       <c r="E834">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
@@ -28821,7 +28821,7 @@
         <v>2257</v>
       </c>
       <c r="E835">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.25">
@@ -28838,7 +28838,7 @@
         <v>3052</v>
       </c>
       <c r="E836">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.25">
@@ -28855,7 +28855,7 @@
         <v>3056</v>
       </c>
       <c r="E837">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
@@ -28872,7 +28872,7 @@
         <v>3060</v>
       </c>
       <c r="E838">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.25">
@@ -28889,7 +28889,7 @@
         <v>3064</v>
       </c>
       <c r="E839">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.25">
@@ -28906,7 +28906,7 @@
         <v>2369</v>
       </c>
       <c r="E840">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
@@ -28923,7 +28923,7 @@
         <v>3070</v>
       </c>
       <c r="E841">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.25">
@@ -28940,7 +28940,7 @@
         <v>3074</v>
       </c>
       <c r="E842">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
@@ -28957,7 +28957,7 @@
         <v>204</v>
       </c>
       <c r="E843">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.25">
@@ -28974,7 +28974,7 @@
         <v>3079</v>
       </c>
       <c r="E844">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
@@ -28991,7 +28991,7 @@
         <v>3081</v>
       </c>
       <c r="E845">
-        <v>957</v>
+        <v>945</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
@@ -29008,7 +29008,7 @@
         <v>3085</v>
       </c>
       <c r="E846">
-        <v>958</v>
+        <v>946</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
@@ -29025,7 +29025,7 @@
         <v>3089</v>
       </c>
       <c r="E847">
-        <v>959</v>
+        <v>947</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
@@ -29042,7 +29042,7 @@
         <v>3093</v>
       </c>
       <c r="E848">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
@@ -29059,7 +29059,7 @@
         <v>3097</v>
       </c>
       <c r="E849">
-        <v>961</v>
+        <v>949</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
@@ -29076,7 +29076,7 @@
         <v>3101</v>
       </c>
       <c r="E850">
-        <v>962</v>
+        <v>950</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
@@ -29093,7 +29093,7 @@
         <v>3105</v>
       </c>
       <c r="E851">
-        <v>963</v>
+        <v>951</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.25">
@@ -29110,7 +29110,7 @@
         <v>3109</v>
       </c>
       <c r="E852">
-        <v>965</v>
+        <v>952</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
@@ -29127,7 +29127,7 @@
         <v>3113</v>
       </c>
       <c r="E853">
-        <v>966</v>
+        <v>953</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
@@ -29144,7 +29144,7 @@
         <v>3116</v>
       </c>
       <c r="E854">
-        <v>967</v>
+        <v>954</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
@@ -29161,7 +29161,7 @@
         <v>3120</v>
       </c>
       <c r="E855">
-        <v>968</v>
+        <v>955</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.25">
@@ -29178,7 +29178,7 @@
         <v>3124</v>
       </c>
       <c r="E856">
-        <v>969</v>
+        <v>956</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
@@ -29195,7 +29195,7 @@
         <v>3126</v>
       </c>
       <c r="E857">
-        <v>970</v>
+        <v>957</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
@@ -29212,7 +29212,7 @@
         <v>3128</v>
       </c>
       <c r="E858">
-        <v>971</v>
+        <v>958</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
@@ -29229,7 +29229,7 @@
         <v>3130</v>
       </c>
       <c r="E859">
-        <v>972</v>
+        <v>959</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
@@ -29246,7 +29246,7 @@
         <v>2773</v>
       </c>
       <c r="E860">
-        <v>974</v>
+        <v>960</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.25">
@@ -29263,7 +29263,7 @@
         <v>3135</v>
       </c>
       <c r="E861">
-        <v>976</v>
+        <v>961</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
@@ -29280,7 +29280,7 @@
         <v>3139</v>
       </c>
       <c r="E862">
-        <v>978</v>
+        <v>962</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
@@ -29297,7 +29297,7 @@
         <v>3143</v>
       </c>
       <c r="E863">
-        <v>979</v>
+        <v>963</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
@@ -29314,7 +29314,7 @@
         <v>3147</v>
       </c>
       <c r="E864">
-        <v>981</v>
+        <v>964</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
@@ -29331,7 +29331,7 @@
         <v>2779</v>
       </c>
       <c r="E865">
-        <v>982</v>
+        <v>965</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.25">
@@ -29348,7 +29348,7 @@
         <v>3153</v>
       </c>
       <c r="E866">
-        <v>983</v>
+        <v>966</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.25">
@@ -29365,7 +29365,7 @@
         <v>3157</v>
       </c>
       <c r="E867">
-        <v>984</v>
+        <v>967</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.25">
@@ -29382,7 +29382,7 @@
         <v>3161</v>
       </c>
       <c r="E868">
-        <v>985</v>
+        <v>968</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
@@ -29399,7 +29399,7 @@
         <v>3165</v>
       </c>
       <c r="E869">
-        <v>986</v>
+        <v>969</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
@@ -30011,7 +30011,7 @@
         <v>3309</v>
       </c>
       <c r="E905">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.25">
@@ -30028,7 +30028,7 @@
         <v>3313</v>
       </c>
       <c r="E906">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.25">
@@ -30045,7 +30045,7 @@
         <v>3317</v>
       </c>
       <c r="E907">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
@@ -30062,7 +30062,7 @@
         <v>3321</v>
       </c>
       <c r="E908">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
@@ -30079,7 +30079,7 @@
         <v>3325</v>
       </c>
       <c r="E909">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
@@ -30096,7 +30096,7 @@
         <v>3329</v>
       </c>
       <c r="E910">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.25">
@@ -30113,7 +30113,7 @@
         <v>3333</v>
       </c>
       <c r="E911">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
@@ -30130,7 +30130,7 @@
         <v>3337</v>
       </c>
       <c r="E912">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
@@ -30147,7 +30147,7 @@
         <v>3341</v>
       </c>
       <c r="E913">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.25">
@@ -30393,30 +30393,30 @@
         <v>3395</v>
       </c>
       <c r="B928" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D928" t="s">
         <v>3396</v>
       </c>
-      <c r="C928" t="s">
-        <v>3397</v>
-      </c>
-      <c r="D928" t="s">
-        <v>3397</v>
-      </c>
       <c r="E928">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B929" t="s">
         <v>3398</v>
       </c>
-      <c r="B929" t="s">
+      <c r="C929" t="s">
         <v>3399</v>
       </c>
-      <c r="C929" t="s">
-        <v>3400</v>
-      </c>
       <c r="D929" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="E929">
         <v>1049</v>
@@ -30424,36 +30424,36 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B930" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C930" t="s">
         <v>3402</v>
       </c>
-      <c r="B930" t="s">
+      <c r="D930" t="s">
         <v>3403</v>
       </c>
-      <c r="C930" t="s">
-        <v>3404</v>
-      </c>
-      <c r="D930" t="s">
-        <v>3405</v>
-      </c>
       <c r="E930">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B931" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C931" t="s">
         <v>3406</v>
       </c>
-      <c r="B931" t="s">
+      <c r="D931" t="s">
         <v>3407</v>
       </c>
-      <c r="C931" t="s">
-        <v>2619</v>
-      </c>
-      <c r="D931" t="s">
-        <v>2619</v>
-      </c>
       <c r="E931">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
@@ -30464,81 +30464,81 @@
         <v>3409</v>
       </c>
       <c r="C932" t="s">
-        <v>3410</v>
+        <v>2619</v>
       </c>
       <c r="D932" t="s">
-        <v>3411</v>
+        <v>2619</v>
       </c>
       <c r="E932">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B933" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C933" t="s">
         <v>3412</v>
       </c>
-      <c r="B933" t="s">
+      <c r="D933" t="s">
         <v>3413</v>
       </c>
-      <c r="C933" t="s">
-        <v>3414</v>
-      </c>
-      <c r="D933" t="s">
-        <v>3415</v>
-      </c>
       <c r="E933">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B934" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C934" t="s">
         <v>3416</v>
       </c>
-      <c r="B934" t="s">
+      <c r="D934" t="s">
         <v>3417</v>
       </c>
-      <c r="C934" t="s">
-        <v>3418</v>
-      </c>
-      <c r="D934" t="s">
-        <v>3418</v>
-      </c>
       <c r="E934">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B935" t="s">
         <v>3419</v>
       </c>
-      <c r="B935" t="s">
+      <c r="C935" t="s">
         <v>3420</v>
       </c>
-      <c r="C935" t="s">
-        <v>3421</v>
-      </c>
       <c r="D935" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="E935">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B936" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C936" t="s">
         <v>3423</v>
-      </c>
-      <c r="B936" t="s">
-        <v>734</v>
-      </c>
-      <c r="C936" t="s">
-        <v>3424</v>
       </c>
       <c r="D936" t="s">
         <v>3424</v>
       </c>
       <c r="E936">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
@@ -30546,47 +30546,47 @@
         <v>3425</v>
       </c>
       <c r="B937" t="s">
+        <v>734</v>
+      </c>
+      <c r="C937" t="s">
         <v>3426</v>
       </c>
-      <c r="C937" t="s">
-        <v>3427</v>
-      </c>
       <c r="D937" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="E937">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="B938" t="s">
-        <v>3430</v>
+        <v>1823</v>
       </c>
       <c r="C938" t="s">
-        <v>3431</v>
+        <v>1823</v>
       </c>
       <c r="D938" t="s">
-        <v>3432</v>
+        <v>207</v>
       </c>
       <c r="E938">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
       <c r="B939" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
       <c r="C939" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
       <c r="D939" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
       <c r="E939">
         <v>1061</v>
@@ -30594,594 +30594,594 @@
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
       <c r="B940" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
       <c r="C940" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
       <c r="D940" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
       <c r="E940">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
       <c r="B941" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
       <c r="C941" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
       <c r="D941" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
       <c r="E941">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
       <c r="B942" t="s">
-        <v>3446</v>
+        <v>3441</v>
       </c>
       <c r="C942" t="s">
-        <v>3447</v>
+        <v>3442</v>
       </c>
       <c r="D942" t="s">
-        <v>3422</v>
+        <v>3443</v>
       </c>
       <c r="E942">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>3448</v>
+        <v>3444</v>
       </c>
       <c r="B943" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="C943" t="s">
-        <v>3424</v>
+        <v>3446</v>
       </c>
       <c r="D943" t="s">
-        <v>3424</v>
+        <v>3447</v>
       </c>
       <c r="E943">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B944" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C944" t="s">
         <v>3450</v>
       </c>
-      <c r="B944" t="s">
-        <v>3451</v>
-      </c>
-      <c r="C944" t="s">
-        <v>3452</v>
-      </c>
       <c r="D944" t="s">
-        <v>3453</v>
+        <v>3424</v>
       </c>
       <c r="E944">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="B945" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="C945" t="s">
-        <v>3456</v>
+        <v>3426</v>
       </c>
       <c r="D945" t="s">
-        <v>3457</v>
+        <v>3426</v>
       </c>
       <c r="E945">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>3458</v>
+        <v>3453</v>
       </c>
       <c r="B946" t="s">
-        <v>3459</v>
+        <v>3454</v>
       </c>
       <c r="C946" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="D946" t="s">
-        <v>3461</v>
+        <v>3456</v>
       </c>
       <c r="E946">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
       <c r="B947" t="s">
-        <v>3463</v>
+        <v>3458</v>
       </c>
       <c r="C947" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
       <c r="D947" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="E947">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
       <c r="B948" t="s">
-        <v>3467</v>
+        <v>3462</v>
       </c>
       <c r="C948" t="s">
-        <v>3468</v>
+        <v>3463</v>
       </c>
       <c r="D948" t="s">
-        <v>3469</v>
+        <v>3464</v>
       </c>
       <c r="E948">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>3470</v>
+        <v>3465</v>
       </c>
       <c r="B949" t="s">
-        <v>3471</v>
+        <v>3466</v>
       </c>
       <c r="C949" t="s">
-        <v>3472</v>
+        <v>3467</v>
       </c>
       <c r="D949" t="s">
-        <v>3473</v>
+        <v>3468</v>
       </c>
       <c r="E949">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>3474</v>
+        <v>3469</v>
       </c>
       <c r="B950" t="s">
-        <v>1540</v>
+        <v>3470</v>
       </c>
       <c r="C950" t="s">
-        <v>3475</v>
+        <v>3471</v>
       </c>
       <c r="D950" t="s">
-        <v>3476</v>
+        <v>3472</v>
       </c>
       <c r="E950">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>3477</v>
+        <v>3473</v>
       </c>
       <c r="B951" t="s">
-        <v>3478</v>
+        <v>3474</v>
       </c>
       <c r="C951" t="s">
-        <v>3479</v>
+        <v>3475</v>
       </c>
       <c r="D951" t="s">
-        <v>3480</v>
+        <v>3476</v>
       </c>
       <c r="E951">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>3481</v>
+        <v>3477</v>
       </c>
       <c r="B952" t="s">
-        <v>3482</v>
+        <v>1540</v>
       </c>
       <c r="C952" t="s">
-        <v>3483</v>
+        <v>3478</v>
       </c>
       <c r="D952" t="s">
-        <v>3484</v>
+        <v>3479</v>
       </c>
       <c r="E952">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>3485</v>
+        <v>3480</v>
       </c>
       <c r="B953" t="s">
-        <v>3486</v>
+        <v>3481</v>
       </c>
       <c r="C953" t="s">
-        <v>3487</v>
+        <v>3482</v>
       </c>
       <c r="D953" t="s">
-        <v>3488</v>
+        <v>3483</v>
       </c>
       <c r="E953">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>3489</v>
+        <v>3484</v>
       </c>
       <c r="B954" t="s">
-        <v>3490</v>
+        <v>3485</v>
       </c>
       <c r="C954" t="s">
-        <v>3491</v>
+        <v>3486</v>
       </c>
       <c r="D954" t="s">
-        <v>3492</v>
+        <v>3487</v>
       </c>
       <c r="E954">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>3493</v>
+        <v>3488</v>
       </c>
       <c r="B955" t="s">
-        <v>3494</v>
+        <v>3489</v>
       </c>
       <c r="C955" t="s">
-        <v>3495</v>
+        <v>3490</v>
       </c>
       <c r="D955" t="s">
-        <v>3496</v>
+        <v>3491</v>
       </c>
       <c r="E955">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>3497</v>
+        <v>3492</v>
       </c>
       <c r="B956" t="s">
-        <v>3498</v>
+        <v>3493</v>
       </c>
       <c r="C956" t="s">
-        <v>3499</v>
+        <v>3494</v>
       </c>
       <c r="D956" t="s">
-        <v>3499</v>
+        <v>3495</v>
       </c>
       <c r="E956">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>3500</v>
+        <v>3496</v>
       </c>
       <c r="B957" t="s">
-        <v>3501</v>
+        <v>3497</v>
       </c>
       <c r="C957" t="s">
-        <v>3502</v>
+        <v>3498</v>
       </c>
       <c r="D957" t="s">
-        <v>3503</v>
+        <v>3499</v>
       </c>
       <c r="E957">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>3504</v>
+        <v>3500</v>
       </c>
       <c r="B958" t="s">
-        <v>3505</v>
+        <v>3501</v>
       </c>
       <c r="C958" t="s">
-        <v>3506</v>
+        <v>3502</v>
       </c>
       <c r="D958" t="s">
-        <v>3507</v>
+        <v>3502</v>
       </c>
       <c r="E958">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>3508</v>
+        <v>3503</v>
       </c>
       <c r="B959" t="s">
-        <v>3509</v>
+        <v>3504</v>
       </c>
       <c r="C959" t="s">
-        <v>3510</v>
+        <v>3505</v>
       </c>
       <c r="D959" t="s">
-        <v>3511</v>
+        <v>3506</v>
       </c>
       <c r="E959">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>3512</v>
+        <v>3507</v>
       </c>
       <c r="B960" t="s">
-        <v>3513</v>
+        <v>3508</v>
       </c>
       <c r="C960" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
       <c r="D960" t="s">
-        <v>3515</v>
+        <v>3510</v>
       </c>
       <c r="E960">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>3516</v>
+        <v>3511</v>
       </c>
       <c r="B961" t="s">
-        <v>3517</v>
+        <v>3512</v>
       </c>
       <c r="C961" t="s">
-        <v>3518</v>
+        <v>3513</v>
       </c>
       <c r="D961" t="s">
-        <v>3519</v>
+        <v>3514</v>
       </c>
       <c r="E961">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>3520</v>
+        <v>3515</v>
       </c>
       <c r="B962" t="s">
-        <v>3521</v>
+        <v>3516</v>
       </c>
       <c r="C962" t="s">
-        <v>3522</v>
+        <v>3517</v>
       </c>
       <c r="D962" t="s">
-        <v>3523</v>
+        <v>3518</v>
       </c>
       <c r="E962">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>3524</v>
+        <v>3519</v>
       </c>
       <c r="B963" t="s">
-        <v>3525</v>
+        <v>3520</v>
       </c>
       <c r="C963" t="s">
-        <v>3526</v>
+        <v>3521</v>
       </c>
       <c r="D963" t="s">
-        <v>3527</v>
+        <v>3522</v>
       </c>
       <c r="E963">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>3528</v>
+        <v>3523</v>
       </c>
       <c r="B964" t="s">
-        <v>3529</v>
+        <v>3524</v>
       </c>
       <c r="C964" t="s">
-        <v>3530</v>
+        <v>3525</v>
       </c>
       <c r="D964" t="s">
-        <v>3531</v>
+        <v>3526</v>
       </c>
       <c r="E964">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>3532</v>
+        <v>3527</v>
       </c>
       <c r="B965" t="s">
-        <v>3533</v>
+        <v>3528</v>
       </c>
       <c r="C965" t="s">
-        <v>3534</v>
+        <v>3529</v>
       </c>
       <c r="D965" t="s">
-        <v>3535</v>
+        <v>3530</v>
       </c>
       <c r="E965">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>3536</v>
+        <v>3531</v>
       </c>
       <c r="B966" t="s">
-        <v>3537</v>
+        <v>3532</v>
       </c>
       <c r="C966" t="s">
-        <v>3538</v>
+        <v>3533</v>
       </c>
       <c r="D966" t="s">
-        <v>3539</v>
+        <v>3534</v>
       </c>
       <c r="E966">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>3540</v>
+        <v>3535</v>
       </c>
       <c r="B967" t="s">
-        <v>3541</v>
+        <v>3536</v>
       </c>
       <c r="C967" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
       <c r="D967" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
       <c r="E967">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
       <c r="B968" t="s">
-        <v>2001</v>
+        <v>3540</v>
       </c>
       <c r="C968" t="s">
-        <v>3545</v>
+        <v>3541</v>
       </c>
       <c r="D968" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
       <c r="E968">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>3547</v>
+        <v>3543</v>
       </c>
       <c r="B969" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="C969" t="s">
-        <v>3472</v>
+        <v>3545</v>
       </c>
       <c r="D969" t="s">
-        <v>3473</v>
+        <v>3546</v>
       </c>
       <c r="E969">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C970" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D970" t="s">
         <v>3549</v>
       </c>
-      <c r="B970" t="s">
-        <v>3550</v>
-      </c>
-      <c r="C970" t="s">
-        <v>3551</v>
-      </c>
-      <c r="D970" t="s">
-        <v>3552</v>
-      </c>
       <c r="E970">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="B971" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="C971" t="s">
-        <v>3555</v>
+        <v>3475</v>
       </c>
       <c r="D971" t="s">
-        <v>3556</v>
+        <v>3476</v>
       </c>
       <c r="E971">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>3557</v>
+        <v>3552</v>
       </c>
       <c r="B972" t="s">
-        <v>3558</v>
+        <v>3553</v>
       </c>
       <c r="C972" t="s">
-        <v>3559</v>
+        <v>3554</v>
       </c>
       <c r="D972" t="s">
-        <v>3560</v>
+        <v>3555</v>
       </c>
       <c r="E972">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>3561</v>
+        <v>3556</v>
       </c>
       <c r="B973" t="s">
-        <v>3562</v>
+        <v>3557</v>
       </c>
       <c r="C973" t="s">
-        <v>3563</v>
+        <v>3558</v>
       </c>
       <c r="D973" t="s">
-        <v>3564</v>
+        <v>3559</v>
       </c>
       <c r="E973">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>3565</v>
+        <v>3560</v>
       </c>
       <c r="B974" t="s">
-        <v>3566</v>
+        <v>3561</v>
       </c>
       <c r="C974" t="s">
-        <v>3567</v>
+        <v>3562</v>
       </c>
       <c r="D974" t="s">
-        <v>3568</v>
+        <v>3563</v>
       </c>
       <c r="E974">
         <v>1102</v>
@@ -31189,16 +31189,16 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>3569</v>
+        <v>3564</v>
       </c>
       <c r="B975" t="s">
-        <v>3570</v>
+        <v>3565</v>
       </c>
       <c r="C975" t="s">
-        <v>3571</v>
+        <v>3566</v>
       </c>
       <c r="D975" t="s">
-        <v>3572</v>
+        <v>3567</v>
       </c>
       <c r="E975">
         <v>1103</v>
@@ -31206,16 +31206,16 @@
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>3573</v>
+        <v>3568</v>
       </c>
       <c r="B976" t="s">
-        <v>3574</v>
+        <v>3569</v>
       </c>
       <c r="C976" t="s">
-        <v>3575</v>
+        <v>3570</v>
       </c>
       <c r="D976" t="s">
-        <v>3576</v>
+        <v>3571</v>
       </c>
       <c r="E976">
         <v>1104</v>
@@ -31223,16 +31223,16 @@
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>3577</v>
+        <v>3572</v>
       </c>
       <c r="B977" t="s">
-        <v>3578</v>
+        <v>3573</v>
       </c>
       <c r="C977" t="s">
-        <v>3579</v>
+        <v>3574</v>
       </c>
       <c r="D977" t="s">
-        <v>3580</v>
+        <v>3575</v>
       </c>
       <c r="E977">
         <v>1105</v>
@@ -31240,16 +31240,16 @@
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>3581</v>
+        <v>3576</v>
       </c>
       <c r="B978" t="s">
-        <v>3582</v>
+        <v>3577</v>
       </c>
       <c r="C978" t="s">
-        <v>3583</v>
+        <v>3578</v>
       </c>
       <c r="D978" t="s">
-        <v>3584</v>
+        <v>3579</v>
       </c>
       <c r="E978">
         <v>1106</v>
@@ -31257,16 +31257,16 @@
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>3585</v>
+        <v>3580</v>
       </c>
       <c r="B979" t="s">
-        <v>3586</v>
+        <v>3581</v>
       </c>
       <c r="C979" t="s">
-        <v>3587</v>
+        <v>3582</v>
       </c>
       <c r="D979" t="s">
-        <v>3588</v>
+        <v>3583</v>
       </c>
       <c r="E979">
         <v>1107</v>
@@ -31274,16 +31274,16 @@
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>3589</v>
+        <v>3584</v>
       </c>
       <c r="B980" t="s">
-        <v>3590</v>
+        <v>3585</v>
       </c>
       <c r="C980" t="s">
-        <v>3591</v>
+        <v>3586</v>
       </c>
       <c r="D980" t="s">
-        <v>3592</v>
+        <v>3587</v>
       </c>
       <c r="E980">
         <v>1108</v>
@@ -31291,16 +31291,16 @@
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>3593</v>
+        <v>3588</v>
       </c>
       <c r="B981" t="s">
-        <v>3594</v>
+        <v>3589</v>
       </c>
       <c r="C981" t="s">
-        <v>3595</v>
+        <v>3590</v>
       </c>
       <c r="D981" t="s">
-        <v>3596</v>
+        <v>3591</v>
       </c>
       <c r="E981">
         <v>1109</v>
@@ -31308,16 +31308,16 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>3597</v>
+        <v>3592</v>
       </c>
       <c r="B982" t="s">
-        <v>3598</v>
+        <v>3593</v>
       </c>
       <c r="C982" t="s">
-        <v>3599</v>
+        <v>3594</v>
       </c>
       <c r="D982" t="s">
-        <v>3600</v>
+        <v>3595</v>
       </c>
       <c r="E982">
         <v>1110</v>
@@ -31325,16 +31325,16 @@
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>3601</v>
+        <v>3596</v>
       </c>
       <c r="B983" t="s">
-        <v>3602</v>
+        <v>3597</v>
       </c>
       <c r="C983" t="s">
-        <v>3603</v>
+        <v>3598</v>
       </c>
       <c r="D983" t="s">
-        <v>3603</v>
+        <v>3599</v>
       </c>
       <c r="E983">
         <v>1111</v>
@@ -31342,16 +31342,16 @@
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>3604</v>
+        <v>3600</v>
       </c>
       <c r="B984" t="s">
-        <v>3605</v>
+        <v>3601</v>
       </c>
       <c r="C984" t="s">
-        <v>3606</v>
+        <v>3602</v>
       </c>
       <c r="D984" t="s">
-        <v>3607</v>
+        <v>3603</v>
       </c>
       <c r="E984">
         <v>1112</v>
@@ -31359,16 +31359,16 @@
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>3608</v>
+        <v>3604</v>
       </c>
       <c r="B985" t="s">
-        <v>3609</v>
+        <v>3605</v>
       </c>
       <c r="C985" t="s">
-        <v>3610</v>
+        <v>3606</v>
       </c>
       <c r="D985" t="s">
-        <v>3611</v>
+        <v>3606</v>
       </c>
       <c r="E985">
         <v>1113</v>
@@ -31376,16 +31376,16 @@
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>3612</v>
+        <v>3607</v>
       </c>
       <c r="B986" t="s">
-        <v>3613</v>
+        <v>3608</v>
       </c>
       <c r="C986" t="s">
-        <v>3614</v>
+        <v>3609</v>
       </c>
       <c r="D986" t="s">
-        <v>3615</v>
+        <v>3610</v>
       </c>
       <c r="E986">
         <v>1114</v>
@@ -31393,16 +31393,16 @@
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>3616</v>
+        <v>3611</v>
       </c>
       <c r="B987" t="s">
-        <v>3617</v>
+        <v>3612</v>
       </c>
       <c r="C987" t="s">
-        <v>3618</v>
+        <v>3613</v>
       </c>
       <c r="D987" t="s">
-        <v>3619</v>
+        <v>3614</v>
       </c>
       <c r="E987">
         <v>1115</v>
@@ -31410,50 +31410,50 @@
     </row>
     <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>3620</v>
+        <v>3615</v>
       </c>
       <c r="B988" t="s">
-        <v>3621</v>
+        <v>3616</v>
       </c>
       <c r="C988" t="s">
-        <v>3622</v>
+        <v>3617</v>
       </c>
       <c r="D988" t="s">
-        <v>3623</v>
+        <v>3618</v>
       </c>
       <c r="E988">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>3624</v>
+        <v>3619</v>
       </c>
       <c r="B989" t="s">
-        <v>3625</v>
+        <v>3620</v>
       </c>
       <c r="C989" t="s">
-        <v>3626</v>
+        <v>3621</v>
       </c>
       <c r="D989" t="s">
-        <v>3627</v>
+        <v>3622</v>
       </c>
       <c r="E989">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>3628</v>
+        <v>3623</v>
       </c>
       <c r="B990" t="s">
-        <v>3629</v>
+        <v>3624</v>
       </c>
       <c r="C990" t="s">
-        <v>3630</v>
+        <v>3625</v>
       </c>
       <c r="D990" t="s">
-        <v>3631</v>
+        <v>3626</v>
       </c>
       <c r="E990">
         <v>1120</v>
@@ -31461,512 +31461,512 @@
     </row>
     <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>3632</v>
+        <v>3627</v>
       </c>
       <c r="B991" t="s">
-        <v>3633</v>
+        <v>3628</v>
       </c>
       <c r="C991" t="s">
-        <v>526</v>
+        <v>3629</v>
       </c>
       <c r="D991" t="s">
-        <v>527</v>
+        <v>3630</v>
       </c>
       <c r="E991">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B992" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C992" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D992" t="s">
         <v>3634</v>
       </c>
-      <c r="B992" t="s">
-        <v>3635</v>
-      </c>
-      <c r="C992" t="s">
-        <v>3636</v>
-      </c>
-      <c r="D992" t="s">
-        <v>3637</v>
-      </c>
       <c r="E992">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>3638</v>
+        <v>3635</v>
       </c>
       <c r="B993" t="s">
-        <v>3639</v>
+        <v>3636</v>
       </c>
       <c r="C993" t="s">
-        <v>3640</v>
+        <v>526</v>
       </c>
       <c r="D993" t="s">
-        <v>3641</v>
+        <v>527</v>
       </c>
       <c r="E993">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>3642</v>
+        <v>3637</v>
       </c>
       <c r="B994" t="s">
-        <v>3643</v>
+        <v>3638</v>
       </c>
       <c r="C994" t="s">
-        <v>3644</v>
+        <v>3639</v>
       </c>
       <c r="D994" t="s">
-        <v>3645</v>
+        <v>3640</v>
       </c>
       <c r="E994">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>3646</v>
+        <v>3641</v>
       </c>
       <c r="B995" t="s">
-        <v>3647</v>
+        <v>3642</v>
       </c>
       <c r="C995" t="s">
-        <v>3648</v>
+        <v>3643</v>
       </c>
       <c r="D995" t="s">
-        <v>3649</v>
+        <v>3644</v>
       </c>
       <c r="E995">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>3650</v>
+        <v>3645</v>
       </c>
       <c r="B996" t="s">
-        <v>3651</v>
+        <v>3646</v>
       </c>
       <c r="C996" t="s">
-        <v>530</v>
+        <v>3647</v>
       </c>
       <c r="D996" t="s">
-        <v>531</v>
+        <v>3648</v>
       </c>
       <c r="E996">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B997" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C997" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D997" t="s">
         <v>3652</v>
       </c>
-      <c r="B997" t="s">
-        <v>3653</v>
-      </c>
-      <c r="C997" t="s">
-        <v>3654</v>
-      </c>
-      <c r="D997" t="s">
-        <v>3655</v>
-      </c>
       <c r="E997">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>3656</v>
+        <v>3653</v>
       </c>
       <c r="B998" t="s">
-        <v>3657</v>
+        <v>3654</v>
       </c>
       <c r="C998" t="s">
-        <v>3658</v>
+        <v>530</v>
       </c>
       <c r="D998" t="s">
-        <v>3659</v>
+        <v>531</v>
       </c>
       <c r="E998">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>3660</v>
+        <v>3655</v>
       </c>
       <c r="B999" t="s">
-        <v>3661</v>
+        <v>3656</v>
       </c>
       <c r="C999" t="s">
-        <v>3662</v>
+        <v>3657</v>
       </c>
       <c r="D999" t="s">
-        <v>3663</v>
+        <v>3658</v>
       </c>
       <c r="E999">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>3664</v>
+        <v>3659</v>
       </c>
       <c r="B1000" t="s">
-        <v>3665</v>
+        <v>3660</v>
       </c>
       <c r="C1000" t="s">
-        <v>3666</v>
+        <v>3661</v>
       </c>
       <c r="D1000" t="s">
-        <v>3667</v>
+        <v>3662</v>
       </c>
       <c r="E1000">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>3668</v>
+        <v>3663</v>
       </c>
       <c r="B1001" t="s">
-        <v>3669</v>
+        <v>3664</v>
       </c>
       <c r="C1001" t="s">
-        <v>522</v>
+        <v>3665</v>
       </c>
       <c r="D1001" t="s">
-        <v>523</v>
+        <v>3666</v>
       </c>
       <c r="E1001">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D1002" t="s">
         <v>3670</v>
       </c>
-      <c r="B1002" t="s">
-        <v>3671</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>3672</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>3673</v>
-      </c>
       <c r="E1002">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>3674</v>
+        <v>3671</v>
       </c>
       <c r="B1003" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="C1003" t="s">
-        <v>3676</v>
+        <v>522</v>
       </c>
       <c r="D1003" t="s">
-        <v>3677</v>
+        <v>523</v>
       </c>
       <c r="E1003">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>3678</v>
+        <v>3673</v>
       </c>
       <c r="B1004" t="s">
-        <v>3679</v>
+        <v>3674</v>
       </c>
       <c r="C1004" t="s">
-        <v>3680</v>
+        <v>3675</v>
       </c>
       <c r="D1004" t="s">
-        <v>3681</v>
+        <v>3676</v>
       </c>
       <c r="E1004">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>3682</v>
+        <v>3677</v>
       </c>
       <c r="B1005" t="s">
-        <v>3683</v>
+        <v>3678</v>
       </c>
       <c r="C1005" t="s">
-        <v>3684</v>
+        <v>3679</v>
       </c>
       <c r="D1005" t="s">
-        <v>3685</v>
+        <v>3680</v>
       </c>
       <c r="E1005">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>3686</v>
+        <v>3681</v>
       </c>
       <c r="B1006" t="s">
-        <v>3687</v>
+        <v>3682</v>
       </c>
       <c r="C1006" t="s">
-        <v>3688</v>
+        <v>3683</v>
       </c>
       <c r="D1006" t="s">
-        <v>3689</v>
+        <v>3684</v>
       </c>
       <c r="E1006">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>3690</v>
+        <v>3685</v>
       </c>
       <c r="B1007" t="s">
-        <v>3691</v>
+        <v>3686</v>
       </c>
       <c r="C1007" t="s">
-        <v>3692</v>
+        <v>3687</v>
       </c>
       <c r="D1007" t="s">
-        <v>3693</v>
+        <v>3688</v>
       </c>
       <c r="E1007">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>3694</v>
+        <v>3689</v>
       </c>
       <c r="B1008" t="s">
-        <v>3695</v>
+        <v>3690</v>
       </c>
       <c r="C1008" t="s">
-        <v>3696</v>
+        <v>3691</v>
       </c>
       <c r="D1008" t="s">
-        <v>3697</v>
+        <v>3692</v>
       </c>
       <c r="E1008">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>3698</v>
+        <v>3693</v>
       </c>
       <c r="B1009" t="s">
-        <v>3699</v>
+        <v>3694</v>
       </c>
       <c r="C1009" t="s">
-        <v>3700</v>
+        <v>3695</v>
       </c>
       <c r="D1009" t="s">
-        <v>3701</v>
+        <v>3696</v>
       </c>
       <c r="E1009">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>3702</v>
+        <v>3697</v>
       </c>
       <c r="B1010" t="s">
-        <v>3703</v>
+        <v>3698</v>
       </c>
       <c r="C1010" t="s">
-        <v>3704</v>
+        <v>3699</v>
       </c>
       <c r="D1010" t="s">
-        <v>3705</v>
+        <v>3700</v>
       </c>
       <c r="E1010">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>3706</v>
+        <v>3701</v>
       </c>
       <c r="B1011" t="s">
-        <v>3707</v>
+        <v>3702</v>
       </c>
       <c r="C1011" t="s">
-        <v>3708</v>
+        <v>3703</v>
       </c>
       <c r="D1011" t="s">
-        <v>3709</v>
+        <v>3704</v>
       </c>
       <c r="E1011">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>3710</v>
+        <v>3705</v>
       </c>
       <c r="B1012" t="s">
-        <v>3711</v>
+        <v>3706</v>
       </c>
       <c r="C1012" t="s">
-        <v>3712</v>
+        <v>3707</v>
       </c>
       <c r="D1012" t="s">
-        <v>3713</v>
+        <v>3708</v>
       </c>
       <c r="E1012">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>3714</v>
+        <v>3709</v>
       </c>
       <c r="B1013" t="s">
-        <v>3715</v>
+        <v>3710</v>
       </c>
       <c r="C1013" t="s">
-        <v>3716</v>
+        <v>3711</v>
       </c>
       <c r="D1013" t="s">
-        <v>3717</v>
+        <v>3712</v>
       </c>
       <c r="E1013">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>3718</v>
+        <v>3713</v>
       </c>
       <c r="B1014" t="s">
-        <v>3719</v>
+        <v>3714</v>
       </c>
       <c r="C1014" t="s">
-        <v>3720</v>
+        <v>3715</v>
       </c>
       <c r="D1014" t="s">
-        <v>3720</v>
+        <v>3716</v>
       </c>
       <c r="E1014">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>3721</v>
+        <v>3717</v>
       </c>
       <c r="B1015" t="s">
-        <v>3722</v>
+        <v>3718</v>
       </c>
       <c r="C1015" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="D1015" t="s">
         <v>3720</v>
       </c>
       <c r="E1015">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1016" t="s">
         <v>3723</v>
       </c>
-      <c r="B1016" t="s">
-        <v>3724</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>3725</v>
-      </c>
       <c r="D1016" t="s">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="E1016">
-        <v>1157</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
       <c r="B1017" t="s">
-        <v>3728</v>
+        <v>3725</v>
       </c>
       <c r="C1017" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="D1017" t="s">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="E1017">
-        <v>1162</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D1018" t="s">
         <v>3729</v>
       </c>
-      <c r="B1018" t="s">
-        <v>3730</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>3731</v>
-      </c>
-      <c r="D1018" t="s">
-        <v>3732</v>
-      </c>
       <c r="E1018">
-        <v>1188</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>3733</v>
+        <v>3730</v>
       </c>
       <c r="B1019" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
       <c r="C1019" t="s">
-        <v>128</v>
+        <v>3728</v>
       </c>
       <c r="D1019" t="s">
-        <v>128</v>
+        <v>3729</v>
       </c>
       <c r="E1019">
-        <v>1213</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D1020" t="s">
         <v>3735</v>
       </c>
-      <c r="B1020" t="s">
-        <v>3482</v>
-      </c>
-      <c r="C1020" t="s">
-        <v>606</v>
-      </c>
-      <c r="D1020" t="s">
-        <v>607</v>
-      </c>
       <c r="E1020">
-        <v>1237</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
@@ -31977,78 +31977,78 @@
         <v>3737</v>
       </c>
       <c r="C1021" t="s">
-        <v>3738</v>
+        <v>128</v>
       </c>
       <c r="D1021" t="s">
-        <v>3739</v>
+        <v>128</v>
       </c>
       <c r="E1021">
-        <v>1238</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="B1022" t="s">
-        <v>3741</v>
+        <v>1823</v>
       </c>
       <c r="C1022" t="s">
-        <v>3742</v>
+        <v>1823</v>
       </c>
       <c r="D1022" t="s">
-        <v>3742</v>
+        <v>128</v>
       </c>
       <c r="E1022">
-        <v>1240</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>3743</v>
+        <v>3739</v>
       </c>
       <c r="B1023" t="s">
-        <v>3744</v>
+        <v>3485</v>
       </c>
       <c r="C1023" t="s">
-        <v>3745</v>
+        <v>606</v>
       </c>
       <c r="D1023" t="s">
-        <v>3745</v>
+        <v>607</v>
       </c>
       <c r="E1023">
-        <v>1241</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>3746</v>
+        <v>3740</v>
       </c>
       <c r="B1024" t="s">
-        <v>915</v>
+        <v>3741</v>
       </c>
       <c r="C1024" t="s">
-        <v>3747</v>
+        <v>3742</v>
       </c>
       <c r="D1024" t="s">
-        <v>3748</v>
+        <v>3743</v>
       </c>
       <c r="E1024">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>3749</v>
+        <v>3744</v>
       </c>
       <c r="B1025" t="s">
-        <v>3750</v>
+        <v>3745</v>
       </c>
       <c r="C1025" t="s">
-        <v>3751</v>
+        <v>3746</v>
       </c>
       <c r="D1025" t="s">
-        <v>3752</v>
+        <v>3746</v>
       </c>
       <c r="E1025">
         <v>1244</v>
@@ -32056,101 +32056,101 @@
     </row>
     <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>3753</v>
+        <v>3747</v>
       </c>
       <c r="B1026" t="s">
-        <v>3754</v>
+        <v>3748</v>
       </c>
       <c r="C1026" t="s">
-        <v>3755</v>
+        <v>3749</v>
       </c>
       <c r="D1026" t="s">
-        <v>3756</v>
+        <v>3749</v>
       </c>
       <c r="E1026">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>3757</v>
+        <v>3750</v>
       </c>
       <c r="B1027" t="s">
-        <v>3758</v>
+        <v>915</v>
       </c>
       <c r="C1027" t="s">
-        <v>2737</v>
+        <v>3751</v>
       </c>
       <c r="D1027" t="s">
-        <v>2738</v>
+        <v>3752</v>
       </c>
       <c r="E1027">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>3759</v>
+        <v>3753</v>
       </c>
       <c r="B1028" t="s">
-        <v>3760</v>
+        <v>3754</v>
       </c>
       <c r="C1028" t="s">
-        <v>3761</v>
+        <v>3755</v>
       </c>
       <c r="D1028" t="s">
-        <v>3762</v>
+        <v>3756</v>
       </c>
       <c r="E1028">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>3763</v>
+        <v>3757</v>
       </c>
       <c r="B1029" t="s">
-        <v>3764</v>
+        <v>3758</v>
       </c>
       <c r="C1029" t="s">
-        <v>3765</v>
+        <v>3759</v>
       </c>
       <c r="D1029" t="s">
-        <v>3765</v>
+        <v>3760</v>
       </c>
       <c r="E1029">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>3766</v>
+        <v>3761</v>
       </c>
       <c r="B1030" t="s">
-        <v>3767</v>
+        <v>3762</v>
       </c>
       <c r="C1030" t="s">
-        <v>3768</v>
+        <v>2737</v>
       </c>
       <c r="D1030" t="s">
-        <v>3769</v>
+        <v>2738</v>
       </c>
       <c r="E1030">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>3770</v>
+        <v>3763</v>
       </c>
       <c r="B1031" t="s">
-        <v>3771</v>
+        <v>3764</v>
       </c>
       <c r="C1031" t="s">
-        <v>3772</v>
+        <v>3765</v>
       </c>
       <c r="D1031" t="s">
-        <v>3773</v>
+        <v>3766</v>
       </c>
       <c r="E1031">
         <v>1254</v>
@@ -32158,169 +32158,169 @@
     </row>
     <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>3774</v>
+        <v>3767</v>
       </c>
       <c r="B1032" t="s">
-        <v>3775</v>
+        <v>3768</v>
       </c>
       <c r="C1032" t="s">
-        <v>3776</v>
+        <v>3769</v>
       </c>
       <c r="D1032" t="s">
-        <v>3777</v>
+        <v>3769</v>
       </c>
       <c r="E1032">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>3778</v>
+        <v>3770</v>
       </c>
       <c r="B1033" t="s">
-        <v>3779</v>
+        <v>3771</v>
       </c>
       <c r="C1033" t="s">
-        <v>3780</v>
+        <v>3772</v>
       </c>
       <c r="D1033" t="s">
-        <v>3780</v>
+        <v>3773</v>
       </c>
       <c r="E1033">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>3781</v>
+        <v>3774</v>
       </c>
       <c r="B1034" t="s">
-        <v>3782</v>
+        <v>3775</v>
       </c>
       <c r="C1034" t="s">
-        <v>2174</v>
+        <v>3776</v>
       </c>
       <c r="D1034" t="s">
-        <v>2175</v>
+        <v>3777</v>
       </c>
       <c r="E1034">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="B1035" t="s">
-        <v>2150</v>
+        <v>3779</v>
       </c>
       <c r="C1035" t="s">
-        <v>2765</v>
+        <v>3780</v>
       </c>
       <c r="D1035" t="s">
-        <v>2765</v>
+        <v>3781</v>
       </c>
       <c r="E1035">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C1036" t="s">
         <v>3784</v>
       </c>
-      <c r="B1036" t="s">
-        <v>3785</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>3786</v>
-      </c>
       <c r="D1036" t="s">
-        <v>3787</v>
+        <v>3784</v>
       </c>
       <c r="E1036">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>3788</v>
+        <v>3785</v>
       </c>
       <c r="B1037" t="s">
-        <v>3789</v>
+        <v>3786</v>
       </c>
       <c r="C1037" t="s">
-        <v>2155</v>
+        <v>2174</v>
       </c>
       <c r="D1037" t="s">
-        <v>2156</v>
+        <v>2175</v>
       </c>
       <c r="E1037">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>3790</v>
+        <v>3787</v>
       </c>
       <c r="B1038" t="s">
-        <v>3791</v>
+        <v>2150</v>
       </c>
       <c r="C1038" t="s">
-        <v>3792</v>
+        <v>2765</v>
       </c>
       <c r="D1038" t="s">
-        <v>3793</v>
+        <v>2765</v>
       </c>
       <c r="E1038">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>3794</v>
+        <v>3788</v>
       </c>
       <c r="B1039" t="s">
-        <v>3795</v>
+        <v>3789</v>
       </c>
       <c r="C1039" t="s">
-        <v>3796</v>
+        <v>3790</v>
       </c>
       <c r="D1039" t="s">
-        <v>3797</v>
+        <v>3791</v>
       </c>
       <c r="E1039">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>3798</v>
+        <v>3792</v>
       </c>
       <c r="B1040" t="s">
-        <v>3799</v>
+        <v>3793</v>
       </c>
       <c r="C1040" t="s">
-        <v>372</v>
+        <v>2155</v>
       </c>
       <c r="D1040" t="s">
-        <v>373</v>
+        <v>2156</v>
       </c>
       <c r="E1040">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>3800</v>
+        <v>3794</v>
       </c>
       <c r="B1041" t="s">
-        <v>3801</v>
+        <v>3795</v>
       </c>
       <c r="C1041" t="s">
-        <v>3802</v>
+        <v>3796</v>
       </c>
       <c r="D1041" t="s">
-        <v>3803</v>
+        <v>3797</v>
       </c>
       <c r="E1041">
         <v>1267</v>
@@ -32328,16 +32328,16 @@
     </row>
     <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="B1042" t="s">
-        <v>3805</v>
+        <v>3799</v>
       </c>
       <c r="C1042" t="s">
-        <v>3806</v>
+        <v>3800</v>
       </c>
       <c r="D1042" t="s">
-        <v>3807</v>
+        <v>3801</v>
       </c>
       <c r="E1042">
         <v>1268</v>
@@ -32345,186 +32345,186 @@
     </row>
     <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>3808</v>
+        <v>3802</v>
       </c>
       <c r="B1043" t="s">
-        <v>3809</v>
+        <v>3803</v>
       </c>
       <c r="C1043" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D1043" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E1043">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>3810</v>
+        <v>3804</v>
       </c>
       <c r="B1044" t="s">
-        <v>3811</v>
+        <v>3805</v>
       </c>
       <c r="C1044" t="s">
-        <v>3812</v>
+        <v>3806</v>
       </c>
       <c r="D1044" t="s">
-        <v>3812</v>
+        <v>3807</v>
       </c>
       <c r="E1044">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>3813</v>
+        <v>3808</v>
       </c>
       <c r="B1045" t="s">
-        <v>3814</v>
+        <v>3809</v>
       </c>
       <c r="C1045" t="s">
-        <v>3815</v>
+        <v>3810</v>
       </c>
       <c r="D1045" t="s">
-        <v>3816</v>
+        <v>3811</v>
       </c>
       <c r="E1045">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>3817</v>
+        <v>3812</v>
       </c>
       <c r="B1046" t="s">
-        <v>3818</v>
+        <v>1823</v>
       </c>
       <c r="C1046" t="s">
-        <v>3819</v>
+        <v>1823</v>
       </c>
       <c r="D1046" t="s">
-        <v>3820</v>
+        <v>3813</v>
       </c>
       <c r="E1046">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>3821</v>
+        <v>3814</v>
       </c>
       <c r="B1047" t="s">
-        <v>3822</v>
+        <v>3815</v>
       </c>
       <c r="C1047" t="s">
-        <v>3823</v>
+        <v>368</v>
       </c>
       <c r="D1047" t="s">
-        <v>3824</v>
+        <v>369</v>
       </c>
       <c r="E1047">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>3825</v>
+        <v>3816</v>
       </c>
       <c r="B1048" t="s">
-        <v>3826</v>
+        <v>3817</v>
       </c>
       <c r="C1048" t="s">
-        <v>3827</v>
+        <v>3818</v>
       </c>
       <c r="D1048" t="s">
-        <v>3828</v>
+        <v>3818</v>
       </c>
       <c r="E1048">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>3829</v>
+        <v>3819</v>
       </c>
       <c r="B1049" t="s">
-        <v>3830</v>
+        <v>3820</v>
       </c>
       <c r="C1049" t="s">
-        <v>3831</v>
+        <v>3821</v>
       </c>
       <c r="D1049" t="s">
-        <v>3832</v>
+        <v>3822</v>
       </c>
       <c r="E1049">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>3833</v>
+        <v>3823</v>
       </c>
       <c r="B1050" t="s">
-        <v>3834</v>
+        <v>1823</v>
       </c>
       <c r="C1050" t="s">
-        <v>3835</v>
+        <v>1823</v>
       </c>
       <c r="D1050" t="s">
-        <v>3836</v>
+        <v>3824</v>
       </c>
       <c r="E1050">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>3837</v>
+        <v>3825</v>
       </c>
       <c r="B1051" t="s">
-        <v>3838</v>
+        <v>3826</v>
       </c>
       <c r="C1051" t="s">
-        <v>3839</v>
+        <v>3827</v>
       </c>
       <c r="D1051" t="s">
-        <v>3840</v>
+        <v>3828</v>
       </c>
       <c r="E1051">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>3841</v>
+        <v>3829</v>
       </c>
       <c r="B1052" t="s">
-        <v>3842</v>
+        <v>3830</v>
       </c>
       <c r="C1052" t="s">
-        <v>3843</v>
+        <v>3831</v>
       </c>
       <c r="D1052" t="s">
-        <v>3844</v>
+        <v>3832</v>
       </c>
       <c r="E1052">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>3845</v>
+        <v>3833</v>
       </c>
       <c r="B1053" t="s">
-        <v>3846</v>
+        <v>3834</v>
       </c>
       <c r="C1053" t="s">
-        <v>3847</v>
+        <v>3835</v>
       </c>
       <c r="D1053" t="s">
-        <v>3847</v>
+        <v>3836</v>
       </c>
       <c r="E1053">
         <v>1281</v>
@@ -32532,16 +32532,16 @@
     </row>
     <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>3848</v>
+        <v>3837</v>
       </c>
       <c r="B1054" t="s">
-        <v>3849</v>
+        <v>1823</v>
       </c>
       <c r="C1054" t="s">
-        <v>3850</v>
+        <v>1823</v>
       </c>
       <c r="D1054" t="s">
-        <v>3851</v>
+        <v>3838</v>
       </c>
       <c r="E1054">
         <v>1282</v>
@@ -32549,16 +32549,16 @@
     </row>
     <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>3852</v>
+        <v>3839</v>
       </c>
       <c r="B1055" t="s">
-        <v>3853</v>
+        <v>3840</v>
       </c>
       <c r="C1055" t="s">
-        <v>3854</v>
+        <v>3841</v>
       </c>
       <c r="D1055" t="s">
-        <v>3855</v>
+        <v>3842</v>
       </c>
       <c r="E1055">
         <v>1283</v>
@@ -32566,16 +32566,16 @@
     </row>
     <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>3856</v>
+        <v>3843</v>
       </c>
       <c r="B1056" t="s">
-        <v>3857</v>
+        <v>3844</v>
       </c>
       <c r="C1056" t="s">
-        <v>3858</v>
+        <v>3845</v>
       </c>
       <c r="D1056" t="s">
-        <v>3859</v>
+        <v>3846</v>
       </c>
       <c r="E1056">
         <v>1284</v>
@@ -32583,16 +32583,16 @@
     </row>
     <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>3860</v>
+        <v>3847</v>
       </c>
       <c r="B1057" t="s">
-        <v>3861</v>
+        <v>3848</v>
       </c>
       <c r="C1057" t="s">
-        <v>3862</v>
+        <v>3849</v>
       </c>
       <c r="D1057" t="s">
-        <v>3863</v>
+        <v>3850</v>
       </c>
       <c r="E1057">
         <v>1285</v>
@@ -32600,16 +32600,16 @@
     </row>
     <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>3864</v>
+        <v>3851</v>
       </c>
       <c r="B1058" t="s">
-        <v>3865</v>
+        <v>1823</v>
       </c>
       <c r="C1058" t="s">
-        <v>3866</v>
+        <v>1823</v>
       </c>
       <c r="D1058" t="s">
-        <v>3867</v>
+        <v>3852</v>
       </c>
       <c r="E1058">
         <v>1286</v>
@@ -32617,16 +32617,16 @@
     </row>
     <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>3868</v>
+        <v>3853</v>
       </c>
       <c r="B1059" t="s">
-        <v>3869</v>
+        <v>1823</v>
       </c>
       <c r="C1059" t="s">
-        <v>3870</v>
+        <v>1823</v>
       </c>
       <c r="D1059" t="s">
-        <v>3871</v>
+        <v>3854</v>
       </c>
       <c r="E1059">
         <v>1287</v>
@@ -32634,135 +32634,135 @@
     </row>
     <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>3872</v>
+        <v>3855</v>
       </c>
       <c r="B1060" t="s">
-        <v>3873</v>
+        <v>1823</v>
       </c>
       <c r="C1060" t="s">
-        <v>3874</v>
+        <v>1823</v>
       </c>
       <c r="D1060" t="s">
-        <v>3874</v>
+        <v>3856</v>
       </c>
       <c r="E1060">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>3875</v>
+        <v>3857</v>
       </c>
       <c r="B1061" t="s">
-        <v>3876</v>
+        <v>3858</v>
       </c>
       <c r="C1061" t="s">
-        <v>3877</v>
+        <v>3859</v>
       </c>
       <c r="D1061" t="s">
-        <v>3878</v>
+        <v>3860</v>
       </c>
       <c r="E1061">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>3879</v>
+        <v>3861</v>
       </c>
       <c r="B1062" t="s">
-        <v>3880</v>
+        <v>3862</v>
       </c>
       <c r="C1062" t="s">
-        <v>3881</v>
+        <v>3863</v>
       </c>
       <c r="D1062" t="s">
-        <v>3881</v>
+        <v>3863</v>
       </c>
       <c r="E1062">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>3882</v>
+        <v>3864</v>
       </c>
       <c r="B1063" t="s">
-        <v>3883</v>
+        <v>3865</v>
       </c>
       <c r="C1063" t="s">
-        <v>3884</v>
+        <v>3866</v>
       </c>
       <c r="D1063" t="s">
-        <v>3885</v>
+        <v>3867</v>
       </c>
       <c r="E1063">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>3886</v>
+        <v>3868</v>
       </c>
       <c r="B1064" t="s">
-        <v>3887</v>
+        <v>3869</v>
       </c>
       <c r="C1064" t="s">
-        <v>3888</v>
+        <v>3870</v>
       </c>
       <c r="D1064" t="s">
-        <v>3889</v>
+        <v>3871</v>
       </c>
       <c r="E1064">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>3890</v>
+        <v>3872</v>
       </c>
       <c r="B1065" t="s">
-        <v>3891</v>
+        <v>3873</v>
       </c>
       <c r="C1065" t="s">
-        <v>3892</v>
+        <v>3874</v>
       </c>
       <c r="D1065" t="s">
-        <v>3892</v>
+        <v>3875</v>
       </c>
       <c r="E1065">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>3893</v>
+        <v>3876</v>
       </c>
       <c r="B1066" t="s">
-        <v>3894</v>
+        <v>3877</v>
       </c>
       <c r="C1066" t="s">
-        <v>3895</v>
+        <v>3878</v>
       </c>
       <c r="D1066" t="s">
-        <v>3896</v>
+        <v>3879</v>
       </c>
       <c r="E1066">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>3897</v>
+        <v>3880</v>
       </c>
       <c r="B1067" t="s">
-        <v>3898</v>
+        <v>3881</v>
       </c>
       <c r="C1067" t="s">
-        <v>2888</v>
+        <v>3882</v>
       </c>
       <c r="D1067" t="s">
-        <v>2889</v>
+        <v>3883</v>
       </c>
       <c r="E1067">
         <v>1297</v>
@@ -32770,356 +32770,356 @@
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>3899</v>
+        <v>3884</v>
       </c>
       <c r="B1068" t="s">
-        <v>3900</v>
+        <v>3885</v>
       </c>
       <c r="C1068" t="s">
-        <v>3901</v>
+        <v>3886</v>
       </c>
       <c r="D1068" t="s">
-        <v>3902</v>
+        <v>3887</v>
       </c>
       <c r="E1068">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>3903</v>
+        <v>3888</v>
       </c>
       <c r="B1069" t="s">
-        <v>3904</v>
+        <v>3889</v>
       </c>
       <c r="C1069" t="s">
-        <v>392</v>
+        <v>3890</v>
       </c>
       <c r="D1069" t="s">
-        <v>393</v>
+        <v>3890</v>
       </c>
       <c r="E1069">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>3905</v>
+        <v>3891</v>
       </c>
       <c r="B1070" t="s">
-        <v>3906</v>
+        <v>3892</v>
       </c>
       <c r="C1070" t="s">
-        <v>3907</v>
+        <v>3893</v>
       </c>
       <c r="D1070" t="s">
-        <v>3908</v>
+        <v>3894</v>
       </c>
       <c r="E1070">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>3909</v>
+        <v>3895</v>
       </c>
       <c r="B1071" t="s">
-        <v>3910</v>
+        <v>3896</v>
       </c>
       <c r="C1071" t="s">
-        <v>3911</v>
+        <v>3897</v>
       </c>
       <c r="D1071" t="s">
-        <v>3912</v>
+        <v>3897</v>
       </c>
       <c r="E1071">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>3913</v>
+        <v>3898</v>
       </c>
       <c r="B1072" t="s">
-        <v>3914</v>
+        <v>3899</v>
       </c>
       <c r="C1072" t="s">
-        <v>3915</v>
+        <v>3900</v>
       </c>
       <c r="D1072" t="s">
-        <v>3916</v>
+        <v>3901</v>
       </c>
       <c r="E1072">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>3917</v>
+        <v>3902</v>
       </c>
       <c r="B1073" t="s">
-        <v>3918</v>
+        <v>3903</v>
       </c>
       <c r="C1073" t="s">
-        <v>3919</v>
+        <v>3904</v>
       </c>
       <c r="D1073" t="s">
-        <v>3920</v>
+        <v>3905</v>
       </c>
       <c r="E1073">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>3921</v>
+        <v>3906</v>
       </c>
       <c r="B1074" t="s">
-        <v>3922</v>
+        <v>3907</v>
       </c>
       <c r="C1074" t="s">
-        <v>3923</v>
+        <v>3908</v>
       </c>
       <c r="D1074" t="s">
-        <v>3924</v>
+        <v>3908</v>
       </c>
       <c r="E1074">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>3925</v>
+        <v>3909</v>
       </c>
       <c r="B1075" t="s">
-        <v>3926</v>
+        <v>3910</v>
       </c>
       <c r="C1075" t="s">
-        <v>3927</v>
+        <v>3911</v>
       </c>
       <c r="D1075" t="s">
-        <v>3928</v>
+        <v>3912</v>
       </c>
       <c r="E1075">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>3929</v>
+        <v>3913</v>
       </c>
       <c r="B1076" t="s">
-        <v>3930</v>
+        <v>1823</v>
       </c>
       <c r="C1076" t="s">
-        <v>3931</v>
+        <v>1823</v>
       </c>
       <c r="D1076" t="s">
-        <v>3932</v>
+        <v>3914</v>
       </c>
       <c r="E1076">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>3933</v>
+        <v>3915</v>
       </c>
       <c r="B1077" t="s">
-        <v>3934</v>
+        <v>3916</v>
       </c>
       <c r="C1077" t="s">
-        <v>3935</v>
+        <v>2888</v>
       </c>
       <c r="D1077" t="s">
-        <v>3936</v>
+        <v>2889</v>
       </c>
       <c r="E1077">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>3937</v>
+        <v>3917</v>
       </c>
       <c r="B1078" t="s">
-        <v>3938</v>
+        <v>3918</v>
       </c>
       <c r="C1078" t="s">
-        <v>3939</v>
+        <v>3919</v>
       </c>
       <c r="D1078" t="s">
-        <v>3940</v>
+        <v>3920</v>
       </c>
       <c r="E1078">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>3941</v>
+        <v>3921</v>
       </c>
       <c r="B1079" t="s">
-        <v>3942</v>
+        <v>3922</v>
       </c>
       <c r="C1079" t="s">
-        <v>3943</v>
+        <v>392</v>
       </c>
       <c r="D1079" t="s">
-        <v>3944</v>
+        <v>393</v>
       </c>
       <c r="E1079">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>3945</v>
+        <v>3923</v>
       </c>
       <c r="B1080" t="s">
-        <v>3946</v>
+        <v>3924</v>
       </c>
       <c r="C1080" t="s">
-        <v>3947</v>
+        <v>3925</v>
       </c>
       <c r="D1080" t="s">
-        <v>3948</v>
+        <v>3926</v>
       </c>
       <c r="E1080">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>3949</v>
+        <v>3927</v>
       </c>
       <c r="B1081" t="s">
-        <v>3950</v>
+        <v>3928</v>
       </c>
       <c r="C1081" t="s">
-        <v>3951</v>
+        <v>3929</v>
       </c>
       <c r="D1081" t="s">
-        <v>3952</v>
+        <v>3930</v>
       </c>
       <c r="E1081">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>3953</v>
+        <v>3931</v>
       </c>
       <c r="B1082" t="s">
-        <v>3954</v>
+        <v>3932</v>
       </c>
       <c r="C1082" t="s">
-        <v>3955</v>
+        <v>3933</v>
       </c>
       <c r="D1082" t="s">
-        <v>3956</v>
+        <v>3934</v>
       </c>
       <c r="E1082">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>3957</v>
+        <v>3935</v>
       </c>
       <c r="B1083" t="s">
-        <v>3958</v>
+        <v>3936</v>
       </c>
       <c r="C1083" t="s">
-        <v>3959</v>
+        <v>3937</v>
       </c>
       <c r="D1083" t="s">
-        <v>3960</v>
+        <v>3938</v>
       </c>
       <c r="E1083">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>3961</v>
+        <v>3939</v>
       </c>
       <c r="B1084" t="s">
-        <v>3962</v>
+        <v>3940</v>
       </c>
       <c r="C1084" t="s">
-        <v>3963</v>
+        <v>3941</v>
       </c>
       <c r="D1084" t="s">
-        <v>3964</v>
+        <v>3942</v>
       </c>
       <c r="E1084">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>3965</v>
+        <v>3943</v>
       </c>
       <c r="B1085" t="s">
-        <v>3966</v>
+        <v>3944</v>
       </c>
       <c r="C1085" t="s">
-        <v>3967</v>
+        <v>3945</v>
       </c>
       <c r="D1085" t="s">
-        <v>3968</v>
+        <v>3946</v>
       </c>
       <c r="E1085">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>3969</v>
+        <v>3947</v>
       </c>
       <c r="B1086" t="s">
-        <v>3970</v>
+        <v>3948</v>
       </c>
       <c r="C1086" t="s">
-        <v>3971</v>
+        <v>3949</v>
       </c>
       <c r="D1086" t="s">
-        <v>3972</v>
+        <v>3950</v>
       </c>
       <c r="E1086">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>3973</v>
+        <v>3951</v>
       </c>
       <c r="B1087" t="s">
-        <v>3974</v>
+        <v>3952</v>
       </c>
       <c r="C1087" t="s">
-        <v>3975</v>
+        <v>3953</v>
       </c>
       <c r="D1087" t="s">
-        <v>3976</v>
+        <v>3954</v>
       </c>
       <c r="E1087">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>3977</v>
+        <v>3955</v>
       </c>
       <c r="B1088" t="s">
-        <v>3978</v>
+        <v>3956</v>
       </c>
       <c r="C1088" t="s">
-        <v>3979</v>
+        <v>3957</v>
       </c>
       <c r="D1088" t="s">
-        <v>3980</v>
+        <v>3958</v>
       </c>
       <c r="E1088">
         <v>1322</v>
@@ -33127,16 +33127,16 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>3981</v>
+        <v>3959</v>
       </c>
       <c r="B1089" t="s">
-        <v>3982</v>
+        <v>3960</v>
       </c>
       <c r="C1089" t="s">
-        <v>3983</v>
+        <v>3961</v>
       </c>
       <c r="D1089" t="s">
-        <v>3984</v>
+        <v>3962</v>
       </c>
       <c r="E1089">
         <v>1323</v>
@@ -33144,16 +33144,16 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>3985</v>
+        <v>3963</v>
       </c>
       <c r="B1090" t="s">
-        <v>3986</v>
+        <v>3964</v>
       </c>
       <c r="C1090" t="s">
-        <v>3987</v>
+        <v>3965</v>
       </c>
       <c r="D1090" t="s">
-        <v>3988</v>
+        <v>3966</v>
       </c>
       <c r="E1090">
         <v>1324</v>
@@ -33161,16 +33161,16 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>3989</v>
+        <v>3967</v>
       </c>
       <c r="B1091" t="s">
-        <v>3990</v>
+        <v>3968</v>
       </c>
       <c r="C1091" t="s">
-        <v>3991</v>
+        <v>3969</v>
       </c>
       <c r="D1091" t="s">
-        <v>3992</v>
+        <v>3970</v>
       </c>
       <c r="E1091">
         <v>1325</v>
@@ -33178,16 +33178,16 @@
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>3993</v>
+        <v>3971</v>
       </c>
       <c r="B1092" t="s">
-        <v>3994</v>
+        <v>3972</v>
       </c>
       <c r="C1092" t="s">
-        <v>3995</v>
+        <v>3973</v>
       </c>
       <c r="D1092" t="s">
-        <v>3996</v>
+        <v>3974</v>
       </c>
       <c r="E1092">
         <v>1326</v>
@@ -33195,16 +33195,16 @@
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>3997</v>
+        <v>3975</v>
       </c>
       <c r="B1093" t="s">
-        <v>3998</v>
+        <v>3976</v>
       </c>
       <c r="C1093" t="s">
-        <v>3999</v>
+        <v>3977</v>
       </c>
       <c r="D1093" t="s">
-        <v>4000</v>
+        <v>3978</v>
       </c>
       <c r="E1093">
         <v>1327</v>
@@ -33212,16 +33212,16 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>4001</v>
+        <v>3979</v>
       </c>
       <c r="B1094" t="s">
-        <v>4002</v>
+        <v>3980</v>
       </c>
       <c r="C1094" t="s">
-        <v>4003</v>
+        <v>3981</v>
       </c>
       <c r="D1094" t="s">
-        <v>4004</v>
+        <v>3982</v>
       </c>
       <c r="E1094">
         <v>1328</v>
@@ -33229,16 +33229,16 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>4005</v>
+        <v>3983</v>
       </c>
       <c r="B1095" t="s">
-        <v>4006</v>
+        <v>3984</v>
       </c>
       <c r="C1095" t="s">
-        <v>4007</v>
+        <v>3985</v>
       </c>
       <c r="D1095" t="s">
-        <v>4008</v>
+        <v>3986</v>
       </c>
       <c r="E1095">
         <v>1329</v>
@@ -33246,16 +33246,16 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>4009</v>
+        <v>3987</v>
       </c>
       <c r="B1096" t="s">
-        <v>4010</v>
+        <v>3988</v>
       </c>
       <c r="C1096" t="s">
-        <v>4011</v>
+        <v>3989</v>
       </c>
       <c r="D1096" t="s">
-        <v>4012</v>
+        <v>3990</v>
       </c>
       <c r="E1096">
         <v>1330</v>
@@ -33263,16 +33263,16 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>4013</v>
+        <v>3991</v>
       </c>
       <c r="B1097" t="s">
-        <v>4014</v>
+        <v>3992</v>
       </c>
       <c r="C1097" t="s">
-        <v>4015</v>
+        <v>3993</v>
       </c>
       <c r="D1097" t="s">
-        <v>4016</v>
+        <v>3994</v>
       </c>
       <c r="E1097">
         <v>1331</v>
@@ -33280,16 +33280,16 @@
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>4017</v>
+        <v>3995</v>
       </c>
       <c r="B1098" t="s">
-        <v>4018</v>
+        <v>3996</v>
       </c>
       <c r="C1098" t="s">
-        <v>4019</v>
+        <v>3997</v>
       </c>
       <c r="D1098" t="s">
-        <v>4020</v>
+        <v>3998</v>
       </c>
       <c r="E1098">
         <v>1332</v>
@@ -33297,16 +33297,16 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>4021</v>
+        <v>3999</v>
       </c>
       <c r="B1099" t="s">
-        <v>4022</v>
+        <v>4000</v>
       </c>
       <c r="C1099" t="s">
-        <v>4023</v>
+        <v>4001</v>
       </c>
       <c r="D1099" t="s">
-        <v>4024</v>
+        <v>4002</v>
       </c>
       <c r="E1099">
         <v>1333</v>
@@ -33314,16 +33314,16 @@
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>4025</v>
+        <v>4003</v>
       </c>
       <c r="B1100" t="s">
-        <v>4026</v>
+        <v>4004</v>
       </c>
       <c r="C1100" t="s">
-        <v>4027</v>
+        <v>4005</v>
       </c>
       <c r="D1100" t="s">
-        <v>4028</v>
+        <v>4006</v>
       </c>
       <c r="E1100">
         <v>1334</v>
@@ -33331,16 +33331,16 @@
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>4029</v>
+        <v>4007</v>
       </c>
       <c r="B1101" t="s">
-        <v>1433</v>
+        <v>4008</v>
       </c>
       <c r="C1101" t="s">
-        <v>4030</v>
+        <v>4009</v>
       </c>
       <c r="D1101" t="s">
-        <v>4031</v>
+        <v>4010</v>
       </c>
       <c r="E1101">
         <v>1335</v>
@@ -33348,16 +33348,16 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>4032</v>
+        <v>4011</v>
       </c>
       <c r="B1102" t="s">
-        <v>4033</v>
+        <v>4012</v>
       </c>
       <c r="C1102" t="s">
-        <v>3796</v>
+        <v>4013</v>
       </c>
       <c r="D1102" t="s">
-        <v>3797</v>
+        <v>4014</v>
       </c>
       <c r="E1102">
         <v>1336</v>
@@ -33365,16 +33365,16 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>4034</v>
+        <v>4015</v>
       </c>
       <c r="B1103" t="s">
-        <v>4035</v>
+        <v>4016</v>
       </c>
       <c r="C1103" t="s">
-        <v>4036</v>
+        <v>4017</v>
       </c>
       <c r="D1103" t="s">
-        <v>4037</v>
+        <v>4018</v>
       </c>
       <c r="E1103">
         <v>1337</v>
@@ -33382,16 +33382,16 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>4038</v>
+        <v>4019</v>
       </c>
       <c r="B1104" t="s">
-        <v>4039</v>
+        <v>4020</v>
       </c>
       <c r="C1104" t="s">
-        <v>4040</v>
+        <v>4021</v>
       </c>
       <c r="D1104" t="s">
-        <v>4041</v>
+        <v>4022</v>
       </c>
       <c r="E1104">
         <v>1338</v>
@@ -33399,16 +33399,16 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>4042</v>
+        <v>4023</v>
       </c>
       <c r="B1105" t="s">
-        <v>4043</v>
+        <v>4024</v>
       </c>
       <c r="C1105" t="s">
-        <v>877</v>
+        <v>4025</v>
       </c>
       <c r="D1105" t="s">
-        <v>878</v>
+        <v>4026</v>
       </c>
       <c r="E1105">
         <v>1339</v>
@@ -33416,16 +33416,16 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>4044</v>
+        <v>4027</v>
       </c>
       <c r="B1106" t="s">
-        <v>4045</v>
+        <v>4028</v>
       </c>
       <c r="C1106" t="s">
-        <v>796</v>
+        <v>4029</v>
       </c>
       <c r="D1106" t="s">
-        <v>797</v>
+        <v>4030</v>
       </c>
       <c r="E1106">
         <v>1340</v>
@@ -33433,16 +33433,16 @@
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>4046</v>
+        <v>4031</v>
       </c>
       <c r="B1107" t="s">
-        <v>4047</v>
+        <v>4032</v>
       </c>
       <c r="C1107" t="s">
-        <v>4048</v>
+        <v>4033</v>
       </c>
       <c r="D1107" t="s">
-        <v>4049</v>
+        <v>4034</v>
       </c>
       <c r="E1107">
         <v>1341</v>
@@ -33450,16 +33450,16 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>4050</v>
+        <v>4035</v>
       </c>
       <c r="B1108" t="s">
-        <v>4051</v>
+        <v>4036</v>
       </c>
       <c r="C1108" t="s">
-        <v>4052</v>
+        <v>4037</v>
       </c>
       <c r="D1108" t="s">
-        <v>4053</v>
+        <v>4038</v>
       </c>
       <c r="E1108">
         <v>1342</v>
@@ -33467,16 +33467,16 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>4054</v>
+        <v>4039</v>
       </c>
       <c r="B1109" t="s">
-        <v>4055</v>
+        <v>4040</v>
       </c>
       <c r="C1109" t="s">
-        <v>4056</v>
+        <v>4041</v>
       </c>
       <c r="D1109" t="s">
-        <v>4057</v>
+        <v>4042</v>
       </c>
       <c r="E1109">
         <v>1343</v>
@@ -33484,16 +33484,16 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>4058</v>
+        <v>4043</v>
       </c>
       <c r="B1110" t="s">
-        <v>4059</v>
+        <v>4044</v>
       </c>
       <c r="C1110" t="s">
-        <v>905</v>
+        <v>4045</v>
       </c>
       <c r="D1110" t="s">
-        <v>906</v>
+        <v>4046</v>
       </c>
       <c r="E1110">
         <v>1344</v>
@@ -33501,16 +33501,16 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>4060</v>
+        <v>4047</v>
       </c>
       <c r="B1111" t="s">
-        <v>4061</v>
+        <v>1433</v>
       </c>
       <c r="C1111" t="s">
-        <v>869</v>
+        <v>4048</v>
       </c>
       <c r="D1111" t="s">
-        <v>870</v>
+        <v>4049</v>
       </c>
       <c r="E1111">
         <v>1345</v>
@@ -33518,16 +33518,16 @@
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>4062</v>
+        <v>4050</v>
       </c>
       <c r="B1112" t="s">
-        <v>4063</v>
+        <v>4051</v>
       </c>
       <c r="C1112" t="s">
-        <v>893</v>
+        <v>3800</v>
       </c>
       <c r="D1112" t="s">
-        <v>894</v>
+        <v>3801</v>
       </c>
       <c r="E1112">
         <v>1346</v>
@@ -33535,16 +33535,16 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>4064</v>
+        <v>4052</v>
       </c>
       <c r="B1113" t="s">
-        <v>4065</v>
+        <v>4053</v>
       </c>
       <c r="C1113" t="s">
-        <v>4066</v>
+        <v>4054</v>
       </c>
       <c r="D1113" t="s">
-        <v>4067</v>
+        <v>4055</v>
       </c>
       <c r="E1113">
         <v>1347</v>
@@ -33552,16 +33552,16 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>4068</v>
+        <v>4056</v>
       </c>
       <c r="B1114" t="s">
-        <v>4069</v>
+        <v>4057</v>
       </c>
       <c r="C1114" t="s">
-        <v>4070</v>
+        <v>4058</v>
       </c>
       <c r="D1114" t="s">
-        <v>4071</v>
+        <v>4059</v>
       </c>
       <c r="E1114">
         <v>1348</v>
@@ -33569,16 +33569,16 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>4072</v>
+        <v>4060</v>
       </c>
       <c r="B1115" t="s">
-        <v>4073</v>
+        <v>4061</v>
       </c>
       <c r="C1115" t="s">
-        <v>4074</v>
+        <v>877</v>
       </c>
       <c r="D1115" t="s">
-        <v>4075</v>
+        <v>878</v>
       </c>
       <c r="E1115">
         <v>1349</v>
@@ -33586,16 +33586,16 @@
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>4076</v>
+        <v>4062</v>
       </c>
       <c r="B1116" t="s">
-        <v>4077</v>
+        <v>4063</v>
       </c>
       <c r="C1116" t="s">
-        <v>4078</v>
+        <v>796</v>
       </c>
       <c r="D1116" t="s">
-        <v>4079</v>
+        <v>797</v>
       </c>
       <c r="E1116">
         <v>1350</v>
@@ -33603,1192 +33603,1192 @@
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>4080</v>
+        <v>4064</v>
       </c>
       <c r="B1117" t="s">
-        <v>4081</v>
+        <v>4065</v>
       </c>
       <c r="C1117" t="s">
-        <v>4082</v>
+        <v>4066</v>
       </c>
       <c r="D1117" t="s">
-        <v>4083</v>
+        <v>4067</v>
       </c>
       <c r="E1117">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>4084</v>
+        <v>4068</v>
       </c>
       <c r="B1118" t="s">
-        <v>4085</v>
+        <v>4069</v>
       </c>
       <c r="C1118" t="s">
-        <v>4086</v>
+        <v>4070</v>
       </c>
       <c r="D1118" t="s">
-        <v>4087</v>
+        <v>4071</v>
       </c>
       <c r="E1118">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>4088</v>
+        <v>4072</v>
       </c>
       <c r="B1119" t="s">
-        <v>4089</v>
+        <v>4073</v>
       </c>
       <c r="C1119" t="s">
-        <v>4090</v>
+        <v>4074</v>
       </c>
       <c r="D1119" t="s">
-        <v>4091</v>
+        <v>4075</v>
       </c>
       <c r="E1119">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>4092</v>
+        <v>4076</v>
       </c>
       <c r="B1120" t="s">
-        <v>4093</v>
+        <v>4077</v>
       </c>
       <c r="C1120" t="s">
-        <v>4094</v>
+        <v>905</v>
       </c>
       <c r="D1120" t="s">
-        <v>4095</v>
+        <v>906</v>
       </c>
       <c r="E1120">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>4096</v>
+        <v>4078</v>
       </c>
       <c r="B1121" t="s">
-        <v>4097</v>
+        <v>4079</v>
       </c>
       <c r="C1121" t="s">
-        <v>4098</v>
+        <v>869</v>
       </c>
       <c r="D1121" t="s">
-        <v>4099</v>
+        <v>870</v>
       </c>
       <c r="E1121">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>4100</v>
+        <v>4080</v>
       </c>
       <c r="B1122" t="s">
-        <v>4101</v>
+        <v>4081</v>
       </c>
       <c r="C1122" t="s">
-        <v>792</v>
+        <v>893</v>
       </c>
       <c r="D1122" t="s">
-        <v>793</v>
+        <v>894</v>
       </c>
       <c r="E1122">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>4102</v>
+        <v>4082</v>
       </c>
       <c r="B1123" t="s">
-        <v>4103</v>
+        <v>4083</v>
       </c>
       <c r="C1123" t="s">
-        <v>4104</v>
+        <v>4084</v>
       </c>
       <c r="D1123" t="s">
-        <v>4105</v>
+        <v>4085</v>
       </c>
       <c r="E1123">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>4106</v>
+        <v>4086</v>
       </c>
       <c r="B1124" t="s">
-        <v>4107</v>
+        <v>4087</v>
       </c>
       <c r="C1124" t="s">
-        <v>4108</v>
+        <v>4088</v>
       </c>
       <c r="D1124" t="s">
-        <v>4109</v>
+        <v>4089</v>
       </c>
       <c r="E1124">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>4110</v>
+        <v>4090</v>
       </c>
       <c r="B1125" t="s">
-        <v>4111</v>
+        <v>4091</v>
       </c>
       <c r="C1125" t="s">
-        <v>4112</v>
+        <v>4092</v>
       </c>
       <c r="D1125" t="s">
-        <v>4113</v>
+        <v>4093</v>
       </c>
       <c r="E1125">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>4114</v>
+        <v>4094</v>
       </c>
       <c r="B1126" t="s">
-        <v>4115</v>
+        <v>4095</v>
       </c>
       <c r="C1126" t="s">
-        <v>4116</v>
+        <v>4096</v>
       </c>
       <c r="D1126" t="s">
-        <v>4117</v>
+        <v>4097</v>
       </c>
       <c r="E1126">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>4118</v>
+        <v>4098</v>
       </c>
       <c r="B1127" t="s">
-        <v>4119</v>
+        <v>4099</v>
       </c>
       <c r="C1127" t="s">
-        <v>881</v>
+        <v>4100</v>
       </c>
       <c r="D1127" t="s">
-        <v>882</v>
+        <v>4101</v>
       </c>
       <c r="E1127">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>4120</v>
+        <v>4102</v>
       </c>
       <c r="B1128" t="s">
-        <v>4121</v>
+        <v>4103</v>
       </c>
       <c r="C1128" t="s">
-        <v>222</v>
+        <v>4104</v>
       </c>
       <c r="D1128" t="s">
-        <v>223</v>
+        <v>4105</v>
       </c>
       <c r="E1128">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>4122</v>
+        <v>4106</v>
       </c>
       <c r="B1129" t="s">
-        <v>4123</v>
+        <v>4107</v>
       </c>
       <c r="C1129" t="s">
-        <v>897</v>
+        <v>4108</v>
       </c>
       <c r="D1129" t="s">
-        <v>898</v>
+        <v>4109</v>
       </c>
       <c r="E1129">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>4124</v>
+        <v>4110</v>
       </c>
       <c r="B1130" t="s">
-        <v>4125</v>
+        <v>4111</v>
       </c>
       <c r="C1130" t="s">
-        <v>4126</v>
+        <v>4112</v>
       </c>
       <c r="D1130" t="s">
-        <v>4127</v>
+        <v>4113</v>
       </c>
       <c r="E1130">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>4128</v>
+        <v>4114</v>
       </c>
       <c r="B1131" t="s">
-        <v>4129</v>
+        <v>4115</v>
       </c>
       <c r="C1131" t="s">
-        <v>628</v>
+        <v>4116</v>
       </c>
       <c r="D1131" t="s">
-        <v>628</v>
+        <v>4117</v>
       </c>
       <c r="E1131">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>4130</v>
+        <v>4118</v>
       </c>
       <c r="B1132" t="s">
-        <v>4131</v>
+        <v>4119</v>
       </c>
       <c r="C1132" t="s">
-        <v>4132</v>
+        <v>792</v>
       </c>
       <c r="D1132" t="s">
-        <v>4133</v>
+        <v>793</v>
       </c>
       <c r="E1132">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>4134</v>
+        <v>4120</v>
       </c>
       <c r="B1133" t="s">
-        <v>4135</v>
+        <v>4121</v>
       </c>
       <c r="C1133" t="s">
-        <v>4136</v>
+        <v>4122</v>
       </c>
       <c r="D1133" t="s">
-        <v>4137</v>
+        <v>4123</v>
       </c>
       <c r="E1133">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>4138</v>
+        <v>4124</v>
       </c>
       <c r="B1134" t="s">
-        <v>4139</v>
+        <v>4125</v>
       </c>
       <c r="C1134" t="s">
-        <v>873</v>
+        <v>4126</v>
       </c>
       <c r="D1134" t="s">
-        <v>874</v>
+        <v>4127</v>
       </c>
       <c r="E1134">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>4140</v>
+        <v>4128</v>
       </c>
       <c r="B1135" t="s">
-        <v>4141</v>
+        <v>4129</v>
       </c>
       <c r="C1135" t="s">
-        <v>4142</v>
+        <v>4130</v>
       </c>
       <c r="D1135" t="s">
-        <v>4143</v>
+        <v>4131</v>
       </c>
       <c r="E1135">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>4144</v>
+        <v>4132</v>
       </c>
       <c r="B1136" t="s">
-        <v>4145</v>
+        <v>4133</v>
       </c>
       <c r="C1136" t="s">
-        <v>4146</v>
+        <v>4134</v>
       </c>
       <c r="D1136" t="s">
-        <v>4147</v>
+        <v>4135</v>
       </c>
       <c r="E1136">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>4148</v>
+        <v>4136</v>
       </c>
       <c r="B1137" t="s">
-        <v>4149</v>
+        <v>4137</v>
       </c>
       <c r="C1137" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D1137" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E1137">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>4150</v>
+        <v>4138</v>
       </c>
       <c r="B1138" t="s">
-        <v>4151</v>
+        <v>4139</v>
       </c>
       <c r="C1138" t="s">
-        <v>4152</v>
+        <v>222</v>
       </c>
       <c r="D1138" t="s">
-        <v>4153</v>
+        <v>223</v>
       </c>
       <c r="E1138">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>4154</v>
+        <v>4140</v>
       </c>
       <c r="B1139" t="s">
-        <v>4155</v>
+        <v>4141</v>
       </c>
       <c r="C1139" t="s">
-        <v>4156</v>
+        <v>897</v>
       </c>
       <c r="D1139" t="s">
-        <v>4157</v>
+        <v>898</v>
       </c>
       <c r="E1139">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>4158</v>
+        <v>4142</v>
       </c>
       <c r="B1140" t="s">
-        <v>4159</v>
+        <v>4143</v>
       </c>
       <c r="C1140" t="s">
-        <v>4160</v>
+        <v>4144</v>
       </c>
       <c r="D1140" t="s">
-        <v>4161</v>
+        <v>4145</v>
       </c>
       <c r="E1140">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>4162</v>
+        <v>4146</v>
       </c>
       <c r="B1141" t="s">
-        <v>836</v>
+        <v>4147</v>
       </c>
       <c r="C1141" t="s">
-        <v>838</v>
+        <v>628</v>
       </c>
       <c r="D1141" t="s">
-        <v>837</v>
+        <v>628</v>
       </c>
       <c r="E1141">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>4163</v>
+        <v>4148</v>
       </c>
       <c r="B1142" t="s">
-        <v>4164</v>
+        <v>4149</v>
       </c>
       <c r="C1142" t="s">
-        <v>4165</v>
+        <v>4150</v>
       </c>
       <c r="D1142" t="s">
-        <v>4166</v>
+        <v>4151</v>
       </c>
       <c r="E1142">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>4167</v>
+        <v>4152</v>
       </c>
       <c r="B1143" t="s">
-        <v>4168</v>
+        <v>4153</v>
       </c>
       <c r="C1143" t="s">
-        <v>845</v>
+        <v>4154</v>
       </c>
       <c r="D1143" t="s">
-        <v>846</v>
+        <v>4155</v>
       </c>
       <c r="E1143">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>4169</v>
+        <v>4156</v>
       </c>
       <c r="B1144" t="s">
-        <v>4170</v>
+        <v>4157</v>
       </c>
       <c r="C1144" t="s">
-        <v>1667</v>
+        <v>873</v>
       </c>
       <c r="D1144" t="s">
-        <v>1667</v>
+        <v>874</v>
       </c>
       <c r="E1144">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>4171</v>
+        <v>4158</v>
       </c>
       <c r="B1145" t="s">
-        <v>4172</v>
+        <v>4159</v>
       </c>
       <c r="C1145" t="s">
-        <v>4173</v>
+        <v>4160</v>
       </c>
       <c r="D1145" t="s">
-        <v>4174</v>
+        <v>4161</v>
       </c>
       <c r="E1145">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>4175</v>
+        <v>4162</v>
       </c>
       <c r="B1146" t="s">
-        <v>4176</v>
+        <v>4163</v>
       </c>
       <c r="C1146" t="s">
-        <v>4177</v>
+        <v>4164</v>
       </c>
       <c r="D1146" t="s">
-        <v>4178</v>
+        <v>4165</v>
       </c>
       <c r="E1146">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>4179</v>
+        <v>4166</v>
       </c>
       <c r="B1147" t="s">
-        <v>4180</v>
+        <v>4167</v>
       </c>
       <c r="C1147" t="s">
-        <v>4181</v>
+        <v>889</v>
       </c>
       <c r="D1147" t="s">
-        <v>4182</v>
+        <v>890</v>
       </c>
       <c r="E1147">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>4183</v>
+        <v>4168</v>
       </c>
       <c r="B1148" t="s">
-        <v>4184</v>
+        <v>4169</v>
       </c>
       <c r="C1148" t="s">
-        <v>4185</v>
+        <v>4170</v>
       </c>
       <c r="D1148" t="s">
-        <v>4186</v>
+        <v>4171</v>
       </c>
       <c r="E1148">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>4187</v>
+        <v>4172</v>
       </c>
       <c r="B1149" t="s">
-        <v>4188</v>
+        <v>4173</v>
       </c>
       <c r="C1149" t="s">
-        <v>819</v>
+        <v>4174</v>
       </c>
       <c r="D1149" t="s">
-        <v>819</v>
+        <v>4175</v>
       </c>
       <c r="E1149">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>4189</v>
+        <v>4176</v>
       </c>
       <c r="B1150" t="s">
-        <v>4190</v>
+        <v>4177</v>
       </c>
       <c r="C1150" t="s">
-        <v>4191</v>
+        <v>4178</v>
       </c>
       <c r="D1150" t="s">
-        <v>4191</v>
+        <v>4179</v>
       </c>
       <c r="E1150">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>4192</v>
+        <v>4180</v>
       </c>
       <c r="B1151" t="s">
-        <v>4193</v>
+        <v>836</v>
       </c>
       <c r="C1151" t="s">
-        <v>4194</v>
+        <v>838</v>
       </c>
       <c r="D1151" t="s">
-        <v>4195</v>
+        <v>837</v>
       </c>
       <c r="E1151">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>4196</v>
+        <v>4181</v>
       </c>
       <c r="B1152" t="s">
-        <v>4197</v>
+        <v>4182</v>
       </c>
       <c r="C1152" t="s">
-        <v>4198</v>
+        <v>4183</v>
       </c>
       <c r="D1152" t="s">
-        <v>4199</v>
+        <v>4184</v>
       </c>
       <c r="E1152">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>4200</v>
+        <v>4185</v>
       </c>
       <c r="B1153" t="s">
-        <v>4201</v>
+        <v>4186</v>
       </c>
       <c r="C1153" t="s">
-        <v>4202</v>
+        <v>845</v>
       </c>
       <c r="D1153" t="s">
-        <v>4203</v>
+        <v>846</v>
       </c>
       <c r="E1153">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>4204</v>
+        <v>4187</v>
       </c>
       <c r="B1154" t="s">
-        <v>4205</v>
+        <v>4188</v>
       </c>
       <c r="C1154" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="D1154" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E1154">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>4206</v>
+        <v>4189</v>
       </c>
       <c r="B1155" t="s">
-        <v>4207</v>
+        <v>4190</v>
       </c>
       <c r="C1155" t="s">
-        <v>4208</v>
+        <v>4191</v>
       </c>
       <c r="D1155" t="s">
-        <v>4209</v>
+        <v>4192</v>
       </c>
       <c r="E1155">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>4210</v>
+        <v>4193</v>
       </c>
       <c r="B1156" t="s">
-        <v>4211</v>
+        <v>4194</v>
       </c>
       <c r="C1156" t="s">
-        <v>4212</v>
+        <v>4195</v>
       </c>
       <c r="D1156" t="s">
-        <v>4213</v>
+        <v>4196</v>
       </c>
       <c r="E1156">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>4214</v>
+        <v>4197</v>
       </c>
       <c r="B1157" t="s">
-        <v>4215</v>
+        <v>4198</v>
       </c>
       <c r="C1157" t="s">
-        <v>1673</v>
+        <v>4199</v>
       </c>
       <c r="D1157" t="s">
-        <v>1673</v>
+        <v>4200</v>
       </c>
       <c r="E1157">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>4216</v>
+        <v>4201</v>
       </c>
       <c r="B1158" t="s">
-        <v>4217</v>
+        <v>4202</v>
       </c>
       <c r="C1158" t="s">
-        <v>4218</v>
+        <v>4203</v>
       </c>
       <c r="D1158" t="s">
-        <v>4219</v>
+        <v>4204</v>
       </c>
       <c r="E1158">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>4220</v>
+        <v>4205</v>
       </c>
       <c r="B1159" t="s">
-        <v>4221</v>
+        <v>4206</v>
       </c>
       <c r="C1159" t="s">
-        <v>849</v>
+        <v>819</v>
       </c>
       <c r="D1159" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="E1159">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>4222</v>
+        <v>4207</v>
       </c>
       <c r="B1160" t="s">
-        <v>4223</v>
+        <v>4208</v>
       </c>
       <c r="C1160" t="s">
-        <v>865</v>
+        <v>4209</v>
       </c>
       <c r="D1160" t="s">
-        <v>866</v>
+        <v>4209</v>
       </c>
       <c r="E1160">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>4224</v>
+        <v>4210</v>
       </c>
       <c r="B1161" t="s">
-        <v>4225</v>
+        <v>4211</v>
       </c>
       <c r="C1161" t="s">
-        <v>659</v>
+        <v>4212</v>
       </c>
       <c r="D1161" t="s">
-        <v>659</v>
+        <v>4213</v>
       </c>
       <c r="E1161">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>4226</v>
+        <v>4214</v>
       </c>
       <c r="B1162" t="s">
-        <v>4227</v>
+        <v>4215</v>
       </c>
       <c r="C1162" t="s">
-        <v>669</v>
+        <v>4216</v>
       </c>
       <c r="D1162" t="s">
-        <v>670</v>
+        <v>4217</v>
       </c>
       <c r="E1162">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>4228</v>
+        <v>4218</v>
       </c>
       <c r="B1163" t="s">
-        <v>4229</v>
+        <v>4219</v>
       </c>
       <c r="C1163" t="s">
-        <v>663</v>
+        <v>4220</v>
       </c>
       <c r="D1163" t="s">
-        <v>663</v>
+        <v>4221</v>
       </c>
       <c r="E1163">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>4230</v>
+        <v>4222</v>
       </c>
       <c r="B1164" t="s">
-        <v>4231</v>
+        <v>4223</v>
       </c>
       <c r="C1164" t="s">
-        <v>666</v>
+        <v>1670</v>
       </c>
       <c r="D1164" t="s">
-        <v>4232</v>
+        <v>1670</v>
       </c>
       <c r="E1164">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>4233</v>
+        <v>4224</v>
       </c>
       <c r="B1165" t="s">
-        <v>4234</v>
+        <v>4225</v>
       </c>
       <c r="C1165" t="s">
-        <v>834</v>
+        <v>4226</v>
       </c>
       <c r="D1165" t="s">
-        <v>834</v>
+        <v>4227</v>
       </c>
       <c r="E1165">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>4235</v>
+        <v>4228</v>
       </c>
       <c r="B1166" t="s">
-        <v>4236</v>
+        <v>4229</v>
       </c>
       <c r="C1166" t="s">
-        <v>853</v>
+        <v>4230</v>
       </c>
       <c r="D1166" t="s">
-        <v>854</v>
+        <v>4231</v>
       </c>
       <c r="E1166">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>4237</v>
+        <v>4232</v>
       </c>
       <c r="B1167" t="s">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="C1167" t="s">
-        <v>4239</v>
+        <v>1673</v>
       </c>
       <c r="D1167" t="s">
-        <v>4240</v>
+        <v>1673</v>
       </c>
       <c r="E1167">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>4241</v>
+        <v>4234</v>
       </c>
       <c r="B1168" t="s">
-        <v>4242</v>
+        <v>4235</v>
       </c>
       <c r="C1168" t="s">
-        <v>861</v>
+        <v>4236</v>
       </c>
       <c r="D1168" t="s">
-        <v>862</v>
+        <v>4237</v>
       </c>
       <c r="E1168">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>4243</v>
+        <v>4238</v>
       </c>
       <c r="B1169" t="s">
-        <v>4244</v>
+        <v>4239</v>
       </c>
       <c r="C1169" t="s">
-        <v>4245</v>
+        <v>849</v>
       </c>
       <c r="D1169" t="s">
-        <v>4246</v>
+        <v>850</v>
       </c>
       <c r="E1169">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>4247</v>
+        <v>4240</v>
       </c>
       <c r="B1170" t="s">
-        <v>4248</v>
+        <v>4241</v>
       </c>
       <c r="C1170" t="s">
-        <v>901</v>
+        <v>865</v>
       </c>
       <c r="D1170" t="s">
-        <v>902</v>
+        <v>866</v>
       </c>
       <c r="E1170">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>4249</v>
+        <v>4242</v>
       </c>
       <c r="B1171" t="s">
-        <v>4250</v>
+        <v>4243</v>
       </c>
       <c r="C1171" t="s">
-        <v>4251</v>
+        <v>659</v>
       </c>
       <c r="D1171" t="s">
-        <v>4252</v>
+        <v>659</v>
       </c>
       <c r="E1171">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>4253</v>
+        <v>4244</v>
       </c>
       <c r="B1172" t="s">
-        <v>4254</v>
+        <v>4245</v>
       </c>
       <c r="C1172" t="s">
-        <v>4255</v>
+        <v>669</v>
       </c>
       <c r="D1172" t="s">
-        <v>4256</v>
+        <v>670</v>
       </c>
       <c r="E1172">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>4257</v>
+        <v>4246</v>
       </c>
       <c r="B1173" t="s">
-        <v>4258</v>
+        <v>4247</v>
       </c>
       <c r="C1173" t="s">
-        <v>4259</v>
+        <v>663</v>
       </c>
       <c r="D1173" t="s">
-        <v>4260</v>
+        <v>663</v>
       </c>
       <c r="E1173">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>4261</v>
+        <v>4248</v>
       </c>
       <c r="B1174" t="s">
-        <v>4262</v>
+        <v>4249</v>
       </c>
       <c r="C1174" t="s">
-        <v>4263</v>
+        <v>666</v>
       </c>
       <c r="D1174" t="s">
-        <v>4264</v>
+        <v>4250</v>
       </c>
       <c r="E1174">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>4265</v>
+        <v>4251</v>
       </c>
       <c r="B1175" t="s">
-        <v>4266</v>
+        <v>4252</v>
       </c>
       <c r="C1175" t="s">
-        <v>885</v>
+        <v>834</v>
       </c>
       <c r="D1175" t="s">
-        <v>886</v>
+        <v>834</v>
       </c>
       <c r="E1175">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>4267</v>
+        <v>4253</v>
       </c>
       <c r="B1176" t="s">
-        <v>4268</v>
+        <v>4254</v>
       </c>
       <c r="C1176" t="s">
-        <v>4269</v>
+        <v>853</v>
       </c>
       <c r="D1176" t="s">
-        <v>4270</v>
+        <v>854</v>
       </c>
       <c r="E1176">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>4271</v>
+        <v>4255</v>
       </c>
       <c r="B1177" t="s">
-        <v>1823</v>
+        <v>4256</v>
       </c>
       <c r="C1177" t="s">
-        <v>1823</v>
+        <v>4257</v>
       </c>
       <c r="D1177" t="s">
-        <v>4272</v>
+        <v>4258</v>
       </c>
       <c r="E1177">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>4273</v>
+        <v>4259</v>
       </c>
       <c r="B1178" t="s">
-        <v>1823</v>
+        <v>4260</v>
       </c>
       <c r="C1178" t="s">
-        <v>1823</v>
+        <v>861</v>
       </c>
       <c r="D1178" t="s">
-        <v>207</v>
+        <v>862</v>
       </c>
       <c r="E1178">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>4274</v>
+        <v>4261</v>
       </c>
       <c r="B1179" t="s">
-        <v>1823</v>
+        <v>4262</v>
       </c>
       <c r="C1179" t="s">
-        <v>1823</v>
+        <v>4263</v>
       </c>
       <c r="D1179" t="s">
-        <v>128</v>
+        <v>4264</v>
       </c>
       <c r="E1179">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>4275</v>
+        <v>4265</v>
       </c>
       <c r="B1180" t="s">
-        <v>1823</v>
+        <v>4266</v>
       </c>
       <c r="C1180" t="s">
-        <v>1823</v>
+        <v>901</v>
       </c>
       <c r="D1180" t="s">
-        <v>4276</v>
+        <v>902</v>
       </c>
       <c r="E1180">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>4277</v>
+        <v>4267</v>
       </c>
       <c r="B1181" t="s">
-        <v>1823</v>
+        <v>4268</v>
       </c>
       <c r="C1181" t="s">
-        <v>1823</v>
+        <v>4269</v>
       </c>
       <c r="D1181" t="s">
-        <v>4278</v>
+        <v>4270</v>
       </c>
       <c r="E1181">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>4279</v>
+        <v>4271</v>
       </c>
       <c r="B1182" t="s">
-        <v>1823</v>
+        <v>4272</v>
       </c>
       <c r="C1182" t="s">
-        <v>1823</v>
+        <v>4273</v>
       </c>
       <c r="D1182" t="s">
-        <v>4280</v>
+        <v>4274</v>
       </c>
       <c r="E1182">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>4281</v>
+        <v>4275</v>
       </c>
       <c r="B1183" t="s">
-        <v>1823</v>
+        <v>4276</v>
       </c>
       <c r="C1183" t="s">
-        <v>1823</v>
+        <v>4277</v>
       </c>
       <c r="D1183" t="s">
-        <v>4282</v>
+        <v>4278</v>
       </c>
       <c r="E1183">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>4283</v>
+        <v>4279</v>
       </c>
       <c r="B1184" t="s">
-        <v>1823</v>
+        <v>4280</v>
       </c>
       <c r="C1184" t="s">
-        <v>1823</v>
+        <v>4281</v>
       </c>
       <c r="D1184" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
       <c r="E1184">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
       <c r="B1185" t="s">
-        <v>1823</v>
+        <v>4284</v>
       </c>
       <c r="C1185" t="s">
-        <v>1823</v>
+        <v>885</v>
       </c>
       <c r="D1185" t="s">
-        <v>4286</v>
+        <v>886</v>
       </c>
       <c r="E1185">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C1186" t="s">
         <v>4287</v>
-      </c>
-      <c r="B1186" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C1186" t="s">
-        <v>1823</v>
       </c>
       <c r="D1186" t="s">
         <v>4288</v>
       </c>
       <c r="E1186">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.25">
@@ -34805,7 +34805,7 @@
         <v>4290</v>
       </c>
       <c r="E1187">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.25">
@@ -34822,7 +34822,7 @@
         <v>4292</v>
       </c>
       <c r="E1188">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.25">
@@ -34839,7 +34839,7 @@
         <v>4294</v>
       </c>
       <c r="E1189">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.25">
@@ -34867,7 +34867,7 @@
       <c r="C1191"/>
       <c r="D1191"/>
       <c r="E1191">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
@@ -34973,7 +34973,7 @@
       <c r="C1199"/>
       <c r="D1199"/>
       <c r="E1199">
-        <v>1052</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.25">
@@ -35001,7 +35001,7 @@
       <c r="C1201"/>
       <c r="D1201"/>
       <c r="E1201">
-        <v>927</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.25">
@@ -35029,7 +35029,7 @@
       <c r="C1203"/>
       <c r="D1203"/>
       <c r="E1203">
-        <v>928</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
@@ -35057,7 +35057,7 @@
       <c r="C1205"/>
       <c r="D1205"/>
       <c r="E1205">
-        <v>929</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
@@ -35085,7 +35085,7 @@
       <c r="C1207"/>
       <c r="D1207"/>
       <c r="E1207">
-        <v>930</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
@@ -35113,7 +35113,7 @@
       <c r="C1209"/>
       <c r="D1209"/>
       <c r="E1209">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
@@ -35141,7 +35141,7 @@
       <c r="C1211"/>
       <c r="D1211"/>
       <c r="E1211">
-        <v>939</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
@@ -35169,7 +35169,7 @@
       <c r="C1213"/>
       <c r="D1213"/>
       <c r="E1213">
-        <v>956</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
@@ -35197,7 +35197,7 @@
       <c r="C1215"/>
       <c r="D1215"/>
       <c r="E1215">
-        <v>954</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.25">
@@ -35225,7 +35225,7 @@
       <c r="C1217"/>
       <c r="D1217"/>
       <c r="E1217">
-        <v>955</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.25">
@@ -35253,7 +35253,7 @@
       <c r="C1219"/>
       <c r="D1219"/>
       <c r="E1219">
-        <v>1124</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
@@ -35281,7 +35281,7 @@
       <c r="C1221"/>
       <c r="D1221"/>
       <c r="E1221">
-        <v>1121</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
@@ -35309,7 +35309,7 @@
       <c r="C1223"/>
       <c r="D1223"/>
       <c r="E1223">
-        <v>1263</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
@@ -35337,7 +35337,7 @@
       <c r="C1225"/>
       <c r="D1225"/>
       <c r="E1225">
-        <v>1078</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
@@ -35348,7 +35348,7 @@
       <c r="C1226"/>
       <c r="D1226"/>
       <c r="E1226">
-        <v>1222</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
@@ -35359,7 +35359,7 @@
       <c r="C1227"/>
       <c r="D1227"/>
       <c r="E1227">
-        <v>1232</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
@@ -35370,10 +35370,10 @@
         <v>4373</v>
       </c>
       <c r="C1228" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="D1228" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="E1228">
         <v>176</v>
@@ -35387,7 +35387,7 @@
       <c r="C1229"/>
       <c r="D1229"/>
       <c r="E1229">
-        <v>1223</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
@@ -35398,7 +35398,7 @@
       <c r="C1230"/>
       <c r="D1230"/>
       <c r="E1230">
-        <v>1235</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
@@ -35426,7 +35426,7 @@
       <c r="C1232"/>
       <c r="D1232"/>
       <c r="E1232">
-        <v>1079</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
@@ -35437,7 +35437,7 @@
       <c r="C1233"/>
       <c r="D1233"/>
       <c r="E1233">
-        <v>1224</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
@@ -35448,7 +35448,7 @@
       <c r="C1234"/>
       <c r="D1234"/>
       <c r="E1234">
-        <v>1233</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
@@ -35456,7 +35456,7 @@
         <v>4383</v>
       </c>
       <c r="B1235" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="C1235" t="s">
         <v>4384</v>
@@ -35476,7 +35476,7 @@
       <c r="C1236"/>
       <c r="D1236"/>
       <c r="E1236">
-        <v>1225</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
@@ -35487,7 +35487,7 @@
       <c r="C1237"/>
       <c r="D1237"/>
       <c r="E1237">
-        <v>1236</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
@@ -35498,10 +35498,10 @@
         <v>4389</v>
       </c>
       <c r="C1238" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="D1238" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="E1238">
         <v>181</v>
@@ -35515,7 +35515,7 @@
       <c r="C1239"/>
       <c r="D1239"/>
       <c r="E1239">
-        <v>1228</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
@@ -35526,7 +35526,7 @@
       <c r="C1240"/>
       <c r="D1240"/>
       <c r="E1240">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
@@ -35554,7 +35554,7 @@
       <c r="C1242"/>
       <c r="D1242"/>
       <c r="E1242">
-        <v>1351</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
@@ -35582,7 +35582,7 @@
       <c r="C1244"/>
       <c r="D1244"/>
       <c r="E1244">
-        <v>1397</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
@@ -35590,7 +35590,7 @@
         <v>4400</v>
       </c>
       <c r="B1245" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="C1245" t="s">
         <v>1990</v>
@@ -35618,7 +35618,7 @@
         <v>4402</v>
       </c>
       <c r="B1247" t="s">
-        <v>4073</v>
+        <v>4091</v>
       </c>
       <c r="C1247" t="s">
         <v>4403</v>
@@ -35666,7 +35666,7 @@
       <c r="C1250"/>
       <c r="D1250"/>
       <c r="E1250">
-        <v>1264</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
@@ -35694,7 +35694,7 @@
       <c r="C1252"/>
       <c r="D1252"/>
       <c r="E1252">
-        <v>1239</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
@@ -35722,7 +35722,7 @@
       <c r="C1254"/>
       <c r="D1254"/>
       <c r="E1254">
-        <v>932</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1255" spans="1:5" x14ac:dyDescent="0.25">
@@ -35761,10 +35761,10 @@
         <v>4423</v>
       </c>
       <c r="C1257" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="D1257" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="E1257">
         <v>410</v>
@@ -35789,7 +35789,7 @@
       <c r="C1259"/>
       <c r="D1259"/>
       <c r="E1259">
-        <v>926</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.25">
@@ -35884,7 +35884,7 @@
       <c r="C1266"/>
       <c r="D1266"/>
       <c r="E1266">
-        <v>1062</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1267" spans="1:5" x14ac:dyDescent="0.25">
@@ -35940,7 +35940,7 @@
       <c r="C1270"/>
       <c r="D1270"/>
       <c r="E1270">
-        <v>1070</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1271" spans="1:5" x14ac:dyDescent="0.25">
@@ -35996,7 +35996,7 @@
       <c r="C1274"/>
       <c r="D1274"/>
       <c r="E1274">
-        <v>1050</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1275" spans="1:5" x14ac:dyDescent="0.25">
@@ -36024,7 +36024,7 @@
       <c r="C1276"/>
       <c r="D1276"/>
       <c r="E1276">
-        <v>937</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1277" spans="1:5" x14ac:dyDescent="0.25">
@@ -36140,7 +36140,7 @@
       <c r="C1286"/>
       <c r="D1286"/>
       <c r="E1286">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1287" spans="1:5" x14ac:dyDescent="0.25">
@@ -36162,7 +36162,7 @@
       <c r="C1288"/>
       <c r="D1288"/>
       <c r="E1288">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1289" spans="1:5" x14ac:dyDescent="0.25">
@@ -36173,7 +36173,7 @@
       <c r="C1289"/>
       <c r="D1289"/>
       <c r="E1289">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.25">
@@ -36184,7 +36184,7 @@
       <c r="C1290"/>
       <c r="D1290"/>
       <c r="E1290">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1291" spans="1:5" x14ac:dyDescent="0.25">
@@ -36195,7 +36195,7 @@
       <c r="C1291"/>
       <c r="D1291"/>
       <c r="E1291">
-        <v>1171</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1292" spans="1:5" x14ac:dyDescent="0.25">
@@ -36206,7 +36206,7 @@
       <c r="C1292"/>
       <c r="D1292"/>
       <c r="E1292">
-        <v>1172</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1293" spans="1:5" x14ac:dyDescent="0.25">
@@ -36217,7 +36217,7 @@
       <c r="C1293"/>
       <c r="D1293"/>
       <c r="E1293">
-        <v>1184</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1294" spans="1:5" x14ac:dyDescent="0.25">
@@ -36228,7 +36228,7 @@
       <c r="C1294"/>
       <c r="D1294"/>
       <c r="E1294">
-        <v>1189</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1295" spans="1:5" x14ac:dyDescent="0.25">
@@ -36239,7 +36239,7 @@
       <c r="C1295"/>
       <c r="D1295"/>
       <c r="E1295">
-        <v>1200</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.25">
@@ -36250,7 +36250,7 @@
       <c r="C1296"/>
       <c r="D1296"/>
       <c r="E1296">
-        <v>1201</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.25">
@@ -36261,7 +36261,7 @@
       <c r="C1297"/>
       <c r="D1297"/>
       <c r="E1297">
-        <v>1210</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.25">
@@ -36272,7 +36272,7 @@
       <c r="C1298"/>
       <c r="D1298"/>
       <c r="E1298">
-        <v>1362</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1299" spans="1:5" x14ac:dyDescent="0.25">
@@ -36483,7 +36483,7 @@
         <v>2067</v>
       </c>
       <c r="C1315" t="s">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="D1315" t="s">
         <v>4512</v>
@@ -36556,7 +36556,7 @@
       <c r="C1320"/>
       <c r="D1320"/>
       <c r="E1320">
-        <v>1255</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
@@ -36567,7 +36567,7 @@
       <c r="C1321"/>
       <c r="D1321"/>
       <c r="E1321">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
@@ -36595,7 +36595,7 @@
       <c r="C1323"/>
       <c r="D1323"/>
       <c r="E1323">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
@@ -36623,7 +36623,7 @@
       <c r="C1325"/>
       <c r="D1325"/>
       <c r="E1325">
-        <v>1251</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
@@ -36679,7 +36679,7 @@
       <c r="C1329"/>
       <c r="D1329"/>
       <c r="E1329">
-        <v>1253</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
@@ -36763,7 +36763,7 @@
       <c r="C1335"/>
       <c r="D1335"/>
       <c r="E1335">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
@@ -36791,7 +36791,7 @@
       <c r="C1337"/>
       <c r="D1337"/>
       <c r="E1337">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
@@ -36819,7 +36819,7 @@
       <c r="C1339"/>
       <c r="D1339"/>
       <c r="E1339">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
@@ -36847,7 +36847,7 @@
       <c r="C1341"/>
       <c r="D1341"/>
       <c r="E1341">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
@@ -36875,7 +36875,7 @@
       <c r="C1343"/>
       <c r="D1343"/>
       <c r="E1343">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
@@ -36892,7 +36892,7 @@
         <v>4578</v>
       </c>
       <c r="E1344">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
@@ -36903,7 +36903,7 @@
       <c r="C1345"/>
       <c r="D1345"/>
       <c r="E1345">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
@@ -36920,7 +36920,7 @@
         <v>4583</v>
       </c>
       <c r="E1346">
-        <v>953</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
@@ -36931,7 +36931,7 @@
       <c r="C1347"/>
       <c r="D1347"/>
       <c r="E1347">
-        <v>1321</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
@@ -36948,7 +36948,7 @@
         <v>4588</v>
       </c>
       <c r="E1348">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
@@ -36959,7 +36959,7 @@
       <c r="C1349"/>
       <c r="D1349"/>
       <c r="E1349">
-        <v>975</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
@@ -36987,7 +36987,7 @@
       <c r="C1351"/>
       <c r="D1351"/>
       <c r="E1351">
-        <v>1023</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
@@ -37004,7 +37004,7 @@
         <v>4598</v>
       </c>
       <c r="E1352">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
@@ -37015,7 +37015,7 @@
       <c r="C1353"/>
       <c r="D1353"/>
       <c r="E1353">
-        <v>1243</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
@@ -37026,7 +37026,7 @@
       <c r="C1354"/>
       <c r="D1354"/>
       <c r="E1354">
-        <v>1300</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
@@ -37043,7 +37043,7 @@
         <v>2773</v>
       </c>
       <c r="E1355">
-        <v>1065</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
@@ -37054,7 +37054,7 @@
       <c r="C1356"/>
       <c r="D1356"/>
       <c r="E1356">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
@@ -37065,7 +37065,7 @@
       <c r="C1357"/>
       <c r="D1357"/>
       <c r="E1357">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
@@ -37082,7 +37082,7 @@
         <v>611</v>
       </c>
       <c r="E1358">
-        <v>1080</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
@@ -37093,7 +37093,7 @@
       <c r="C1359"/>
       <c r="D1359"/>
       <c r="E1359">
-        <v>1227</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
@@ -37104,7 +37104,7 @@
       <c r="C1360"/>
       <c r="D1360"/>
       <c r="E1360">
-        <v>1229</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
@@ -37115,7 +37115,7 @@
       <c r="C1361"/>
       <c r="D1361"/>
       <c r="E1361">
-        <v>1234</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
@@ -37132,7 +37132,7 @@
         <v>4613</v>
       </c>
       <c r="E1362">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
@@ -37143,7 +37143,7 @@
       <c r="C1363"/>
       <c r="D1363"/>
       <c r="E1363">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
@@ -37160,7 +37160,7 @@
         <v>4617</v>
       </c>
       <c r="E1364">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
@@ -37171,7 +37171,7 @@
       <c r="C1365"/>
       <c r="D1365"/>
       <c r="E1365">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
@@ -37188,7 +37188,7 @@
         <v>4509</v>
       </c>
       <c r="E1366">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
@@ -37199,7 +37199,7 @@
       <c r="C1367"/>
       <c r="D1367"/>
       <c r="E1367">
-        <v>1152</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
@@ -37216,7 +37216,7 @@
         <v>4624</v>
       </c>
       <c r="E1368">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
@@ -37227,7 +37227,7 @@
       <c r="C1369"/>
       <c r="D1369"/>
       <c r="E1369">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
@@ -37244,7 +37244,7 @@
         <v>4628</v>
       </c>
       <c r="E1370">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
@@ -37255,7 +37255,7 @@
       <c r="C1371"/>
       <c r="D1371"/>
       <c r="E1371">
-        <v>1161</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
@@ -37272,7 +37272,7 @@
         <v>428</v>
       </c>
       <c r="E1372">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
@@ -37283,7 +37283,7 @@
       <c r="C1373"/>
       <c r="D1373"/>
       <c r="E1373">
-        <v>1160</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
@@ -37297,10 +37297,10 @@
         <v>4635</v>
       </c>
       <c r="D1374" t="s">
-        <v>4635</v>
+        <v>3887</v>
       </c>
       <c r="E1374">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
@@ -37311,7 +37311,7 @@
       <c r="C1375"/>
       <c r="D1375"/>
       <c r="E1375">
-        <v>1170</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
@@ -37325,749 +37325,749 @@
         <v>4639</v>
       </c>
       <c r="D1376" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="E1376">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="B1377"/>
       <c r="C1377"/>
       <c r="D1377"/>
       <c r="E1377">
-        <v>1169</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="B1378" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="C1378" t="s">
-        <v>2891</v>
+        <v>4644</v>
       </c>
       <c r="D1378" t="s">
-        <v>2892</v>
+        <v>4644</v>
       </c>
       <c r="E1378">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
       <c r="B1379"/>
       <c r="C1379"/>
       <c r="D1379"/>
       <c r="E1379">
-        <v>1168</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1380" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B1380"/>
-      <c r="C1380"/>
-      <c r="D1380"/>
+        <v>4646</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>4648</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>4649</v>
+      </c>
       <c r="E1380">
-        <v>1298</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>4645</v>
-      </c>
-      <c r="B1381" t="s">
-        <v>4646</v>
-      </c>
-      <c r="C1381" t="s">
-        <v>4647</v>
-      </c>
-      <c r="D1381" t="s">
-        <v>3871</v>
-      </c>
+        <v>4650</v>
+      </c>
+      <c r="B1381"/>
+      <c r="C1381"/>
+      <c r="D1381"/>
       <c r="E1381">
-        <v>1173</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>4648</v>
-      </c>
-      <c r="B1382"/>
-      <c r="C1382"/>
-      <c r="D1382"/>
+        <v>4651</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>4654</v>
+      </c>
       <c r="E1382">
-        <v>1181</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>4649</v>
-      </c>
-      <c r="B1383" t="s">
-        <v>4650</v>
-      </c>
-      <c r="C1383" t="s">
-        <v>4651</v>
-      </c>
-      <c r="D1383" t="s">
-        <v>4652</v>
-      </c>
+        <v>4655</v>
+      </c>
+      <c r="B1383"/>
+      <c r="C1383"/>
+      <c r="D1383"/>
       <c r="E1383">
-        <v>1174</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>4653</v>
-      </c>
-      <c r="B1384"/>
-      <c r="C1384"/>
-      <c r="D1384"/>
+        <v>4656</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>4657</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>4658</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>4659</v>
+      </c>
       <c r="E1384">
-        <v>1183</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1385" t="s">
-        <v>4654</v>
-      </c>
-      <c r="B1385" t="s">
-        <v>4655</v>
-      </c>
-      <c r="C1385" t="s">
-        <v>4656</v>
-      </c>
-      <c r="D1385" t="s">
-        <v>4656</v>
-      </c>
+        <v>4660</v>
+      </c>
+      <c r="B1385"/>
+      <c r="C1385"/>
+      <c r="D1385"/>
       <c r="E1385">
-        <v>1175</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>4657</v>
-      </c>
-      <c r="B1386"/>
-      <c r="C1386"/>
-      <c r="D1386"/>
+        <v>4661</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>4663</v>
+      </c>
       <c r="E1386">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>4658</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>4659</v>
-      </c>
-      <c r="C1387" t="s">
-        <v>4660</v>
-      </c>
-      <c r="D1387" t="s">
-        <v>4661</v>
-      </c>
+        <v>4664</v>
+      </c>
+      <c r="B1387"/>
+      <c r="C1387"/>
+      <c r="D1387"/>
       <c r="E1387">
-        <v>1176</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>4662</v>
-      </c>
-      <c r="B1388"/>
-      <c r="C1388"/>
-      <c r="D1388"/>
+        <v>4665</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>2416</v>
+      </c>
       <c r="E1388">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>4663</v>
-      </c>
-      <c r="B1389" t="s">
-        <v>4664</v>
-      </c>
-      <c r="C1389" t="s">
-        <v>4665</v>
-      </c>
-      <c r="D1389" t="s">
         <v>4666</v>
       </c>
+      <c r="B1389"/>
+      <c r="C1389"/>
+      <c r="D1389"/>
       <c r="E1389">
-        <v>1177</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
         <v>4667</v>
       </c>
-      <c r="B1390"/>
-      <c r="C1390"/>
-      <c r="D1390"/>
+      <c r="B1390" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>4670</v>
+      </c>
       <c r="E1390">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>4668</v>
-      </c>
-      <c r="B1391" t="s">
-        <v>4669</v>
-      </c>
-      <c r="C1391" t="s">
-        <v>4670</v>
-      </c>
-      <c r="D1391" t="s">
         <v>4671</v>
       </c>
+      <c r="B1391"/>
+      <c r="C1391"/>
+      <c r="D1391"/>
       <c r="E1391">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
         <v>4672</v>
       </c>
-      <c r="B1392"/>
-      <c r="C1392"/>
-      <c r="D1392"/>
+      <c r="B1392" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>4673</v>
+      </c>
       <c r="E1392">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>4673</v>
-      </c>
-      <c r="B1393" t="s">
         <v>4674</v>
       </c>
-      <c r="C1393" t="s">
-        <v>3731</v>
-      </c>
-      <c r="D1393" t="s">
-        <v>4675</v>
-      </c>
+      <c r="B1393"/>
+      <c r="C1393"/>
+      <c r="D1393"/>
       <c r="E1393">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B1394" t="s">
         <v>4676</v>
       </c>
-      <c r="B1394"/>
-      <c r="C1394"/>
-      <c r="D1394"/>
+      <c r="C1394" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>138</v>
+      </c>
       <c r="E1394">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
         <v>4677</v>
       </c>
-      <c r="B1395" t="s">
-        <v>4678</v>
-      </c>
-      <c r="C1395" t="s">
-        <v>2865</v>
-      </c>
-      <c r="D1395" t="s">
-        <v>2865</v>
-      </c>
+      <c r="B1395"/>
+      <c r="C1395"/>
+      <c r="D1395"/>
       <c r="E1395">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B1396" t="s">
         <v>4679</v>
       </c>
-      <c r="B1396"/>
-      <c r="C1396"/>
-      <c r="D1396"/>
+      <c r="C1396" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>135</v>
+      </c>
       <c r="E1396">
-        <v>1198</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
         <v>4680</v>
       </c>
-      <c r="B1397" t="s">
-        <v>4681</v>
-      </c>
-      <c r="C1397" t="s">
-        <v>2867</v>
-      </c>
-      <c r="D1397" t="s">
-        <v>2867</v>
-      </c>
+      <c r="B1397"/>
+      <c r="C1397"/>
+      <c r="D1397"/>
       <c r="E1397">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B1398" t="s">
         <v>4682</v>
       </c>
-      <c r="B1398"/>
-      <c r="C1398"/>
-      <c r="D1398"/>
+      <c r="C1398" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>132</v>
+      </c>
       <c r="E1398">
-        <v>1196</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
         <v>4683</v>
       </c>
-      <c r="B1399" t="s">
-        <v>4684</v>
-      </c>
-      <c r="C1399" t="s">
-        <v>2869</v>
-      </c>
-      <c r="D1399" t="s">
-        <v>2870</v>
-      </c>
+      <c r="B1399"/>
+      <c r="C1399"/>
+      <c r="D1399"/>
       <c r="E1399">
-        <v>1192</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B1400" t="s">
         <v>4685</v>
       </c>
-      <c r="B1400"/>
-      <c r="C1400"/>
-      <c r="D1400"/>
+      <c r="C1400" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>2765</v>
+      </c>
       <c r="E1400">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
         <v>4686</v>
       </c>
-      <c r="B1401" t="s">
-        <v>4687</v>
-      </c>
-      <c r="C1401" t="s">
-        <v>2872</v>
-      </c>
-      <c r="D1401" t="s">
-        <v>2872</v>
-      </c>
+      <c r="B1401"/>
+      <c r="C1401"/>
+      <c r="D1401"/>
       <c r="E1401">
-        <v>1193</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B1402" t="s">
         <v>4688</v>
       </c>
-      <c r="B1402"/>
-      <c r="C1402"/>
-      <c r="D1402"/>
+      <c r="C1402" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>2768</v>
+      </c>
       <c r="E1402">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>4689</v>
       </c>
-      <c r="B1403" t="s">
-        <v>4690</v>
-      </c>
-      <c r="C1403" t="s">
-        <v>2874</v>
-      </c>
-      <c r="D1403" t="s">
-        <v>2874</v>
-      </c>
+      <c r="B1403"/>
+      <c r="C1403"/>
+      <c r="D1403"/>
       <c r="E1403">
-        <v>1194</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B1404" t="s">
         <v>4691</v>
       </c>
-      <c r="B1404"/>
-      <c r="C1404"/>
-      <c r="D1404"/>
+      <c r="C1404" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>2771</v>
+      </c>
       <c r="E1404">
-        <v>1195</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>4692</v>
       </c>
-      <c r="B1405" t="s">
-        <v>4693</v>
-      </c>
-      <c r="C1405" t="s">
-        <v>2765</v>
-      </c>
-      <c r="D1405" t="s">
-        <v>2765</v>
-      </c>
+      <c r="B1405"/>
+      <c r="C1405"/>
+      <c r="D1405"/>
       <c r="E1405">
-        <v>1202</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B1406" t="s">
         <v>4694</v>
       </c>
-      <c r="B1406"/>
-      <c r="C1406"/>
-      <c r="D1406"/>
+      <c r="C1406" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>607</v>
+      </c>
       <c r="E1406">
-        <v>1207</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>4695</v>
       </c>
-      <c r="B1407" t="s">
-        <v>4696</v>
-      </c>
-      <c r="C1407" t="s">
-        <v>2767</v>
-      </c>
-      <c r="D1407" t="s">
-        <v>2768</v>
-      </c>
+      <c r="B1407"/>
+      <c r="C1407"/>
+      <c r="D1407"/>
       <c r="E1407">
-        <v>1203</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B1408" t="s">
         <v>4697</v>
       </c>
-      <c r="B1408"/>
-      <c r="C1408"/>
-      <c r="D1408"/>
+      <c r="C1408" t="s">
+        <v>4698</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>4698</v>
+      </c>
       <c r="E1408">
-        <v>1206</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>4698</v>
-      </c>
-      <c r="B1409" t="s">
         <v>4699</v>
       </c>
-      <c r="C1409" t="s">
-        <v>2770</v>
-      </c>
-      <c r="D1409" t="s">
-        <v>2771</v>
-      </c>
+      <c r="B1409"/>
+      <c r="C1409"/>
+      <c r="D1409"/>
       <c r="E1409">
-        <v>1204</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
         <v>4700</v>
       </c>
-      <c r="B1410"/>
-      <c r="C1410"/>
-      <c r="D1410"/>
+      <c r="B1410" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>4702</v>
+      </c>
       <c r="E1410">
-        <v>1209</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>4701</v>
-      </c>
-      <c r="B1411" t="s">
-        <v>4702</v>
-      </c>
-      <c r="C1411" t="s">
         <v>4703</v>
       </c>
-      <c r="D1411" t="s">
-        <v>4704</v>
-      </c>
+      <c r="B1411"/>
+      <c r="C1411"/>
+      <c r="D1411"/>
       <c r="E1411">
-        <v>1211</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B1412" t="s">
         <v>4705</v>
       </c>
-      <c r="B1412"/>
-      <c r="C1412"/>
-      <c r="D1412"/>
+      <c r="C1412" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>2892</v>
+      </c>
       <c r="E1412">
-        <v>1219</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
         <v>4706</v>
       </c>
-      <c r="B1413" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1413" t="s">
-        <v>4707</v>
-      </c>
-      <c r="D1413" t="s">
-        <v>4707</v>
-      </c>
+      <c r="B1413"/>
+      <c r="C1413"/>
+      <c r="D1413"/>
       <c r="E1413">
-        <v>1212</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
       <c r="B1414"/>
       <c r="C1414"/>
       <c r="D1414"/>
       <c r="E1414">
-        <v>1220</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B1415" t="s">
         <v>4709</v>
       </c>
-      <c r="B1415" t="s">
-        <v>4710</v>
-      </c>
       <c r="C1415" t="s">
-        <v>138</v>
+        <v>2865</v>
       </c>
       <c r="D1415" t="s">
-        <v>138</v>
+        <v>2865</v>
       </c>
       <c r="E1415">
-        <v>1214</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="B1416"/>
       <c r="C1416"/>
       <c r="D1416"/>
       <c r="E1416">
-        <v>1221</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B1417" t="s">
         <v>4712</v>
       </c>
-      <c r="B1417" t="s">
-        <v>4713</v>
-      </c>
       <c r="C1417" t="s">
-        <v>135</v>
+        <v>2867</v>
       </c>
       <c r="D1417" t="s">
-        <v>135</v>
+        <v>2867</v>
       </c>
       <c r="E1417">
-        <v>1215</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
       <c r="B1418"/>
       <c r="C1418"/>
       <c r="D1418"/>
       <c r="E1418">
-        <v>1218</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B1419" t="s">
         <v>4715</v>
       </c>
-      <c r="B1419" t="s">
-        <v>4716</v>
-      </c>
       <c r="C1419" t="s">
-        <v>132</v>
+        <v>2869</v>
       </c>
       <c r="D1419" t="s">
-        <v>132</v>
+        <v>2870</v>
       </c>
       <c r="E1419">
-        <v>1216</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="B1420"/>
       <c r="C1420"/>
       <c r="D1420"/>
       <c r="E1420">
-        <v>1217</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B1421" t="s">
         <v>4718</v>
       </c>
-      <c r="B1421" t="s">
-        <v>4719</v>
-      </c>
       <c r="C1421" t="s">
-        <v>606</v>
+        <v>2872</v>
       </c>
       <c r="D1421" t="s">
-        <v>607</v>
+        <v>2872</v>
       </c>
       <c r="E1421">
-        <v>1226</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
       <c r="B1422"/>
       <c r="C1422"/>
       <c r="D1422"/>
       <c r="E1422">
-        <v>1231</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B1423" t="s">
         <v>4721</v>
       </c>
-      <c r="B1423" t="s">
-        <v>4722</v>
-      </c>
       <c r="C1423" t="s">
-        <v>4723</v>
+        <v>2874</v>
       </c>
       <c r="D1423" t="s">
-        <v>4724</v>
+        <v>2874</v>
       </c>
       <c r="E1423">
-        <v>1245</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
-        <v>4725</v>
+        <v>4722</v>
       </c>
       <c r="B1424"/>
       <c r="C1424"/>
       <c r="D1424"/>
       <c r="E1424">
-        <v>1295</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D1425" t="s">
         <v>4726</v>
       </c>
-      <c r="B1425" t="s">
-        <v>4727</v>
-      </c>
-      <c r="C1425" t="s">
-        <v>4728</v>
-      </c>
-      <c r="D1425" t="s">
-        <v>4729</v>
-      </c>
       <c r="E1425">
-        <v>1246</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
-        <v>4730</v>
+        <v>4727</v>
       </c>
       <c r="B1426"/>
       <c r="C1426"/>
       <c r="D1426"/>
       <c r="E1426">
-        <v>1296</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>4730</v>
+      </c>
+      <c r="D1427" t="s">
         <v>4731</v>
       </c>
-      <c r="B1427" t="s">
-        <v>4732</v>
-      </c>
-      <c r="C1427" t="s">
-        <v>4733</v>
-      </c>
-      <c r="D1427" t="s">
-        <v>4272</v>
-      </c>
       <c r="E1427">
-        <v>1275</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="B1428"/>
       <c r="C1428"/>
       <c r="D1428"/>
       <c r="E1428">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>4734</v>
+      </c>
+      <c r="C1429" t="s">
         <v>4735</v>
       </c>
-      <c r="B1429" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C1429" t="s">
-        <v>1823</v>
-      </c>
       <c r="D1429" t="s">
-        <v>2416</v>
+        <v>3396</v>
       </c>
       <c r="E1429">
-        <v>1416</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1430" spans="1:5" x14ac:dyDescent="0.25">
@@ -38078,7 +38078,7 @@
       <c r="C1430"/>
       <c r="D1430"/>
       <c r="E1430">
-        <v>1417</v>
+        <v>1428</v>
       </c>
     </row>
   </sheetData>
@@ -38299,60 +38299,60 @@
     <mergeCell ref="B1376:B1377"/>
     <mergeCell ref="C1376:C1377"/>
     <mergeCell ref="D1376:D1377"/>
-    <mergeCell ref="B1378:B1380"/>
-    <mergeCell ref="C1378:C1380"/>
-    <mergeCell ref="D1378:D1380"/>
-    <mergeCell ref="B1381:B1382"/>
-    <mergeCell ref="C1381:C1382"/>
-    <mergeCell ref="D1381:D1382"/>
-    <mergeCell ref="B1383:B1384"/>
-    <mergeCell ref="C1383:C1384"/>
-    <mergeCell ref="D1383:D1384"/>
-    <mergeCell ref="B1385:B1386"/>
-    <mergeCell ref="C1385:C1386"/>
-    <mergeCell ref="D1385:D1386"/>
-    <mergeCell ref="B1387:B1388"/>
-    <mergeCell ref="C1387:C1388"/>
-    <mergeCell ref="D1387:D1388"/>
-    <mergeCell ref="B1389:B1390"/>
-    <mergeCell ref="C1389:C1390"/>
-    <mergeCell ref="D1389:D1390"/>
-    <mergeCell ref="B1391:B1392"/>
-    <mergeCell ref="C1391:C1392"/>
-    <mergeCell ref="D1391:D1392"/>
-    <mergeCell ref="B1393:B1394"/>
-    <mergeCell ref="C1393:C1394"/>
-    <mergeCell ref="D1393:D1394"/>
-    <mergeCell ref="B1395:B1396"/>
-    <mergeCell ref="C1395:C1396"/>
-    <mergeCell ref="D1395:D1396"/>
-    <mergeCell ref="B1397:B1398"/>
-    <mergeCell ref="C1397:C1398"/>
-    <mergeCell ref="D1397:D1398"/>
-    <mergeCell ref="B1399:B1400"/>
-    <mergeCell ref="C1399:C1400"/>
-    <mergeCell ref="D1399:D1400"/>
-    <mergeCell ref="B1401:B1402"/>
-    <mergeCell ref="C1401:C1402"/>
-    <mergeCell ref="D1401:D1402"/>
-    <mergeCell ref="B1403:B1404"/>
-    <mergeCell ref="C1403:C1404"/>
-    <mergeCell ref="D1403:D1404"/>
-    <mergeCell ref="B1405:B1406"/>
-    <mergeCell ref="C1405:C1406"/>
-    <mergeCell ref="D1405:D1406"/>
-    <mergeCell ref="B1407:B1408"/>
-    <mergeCell ref="C1407:C1408"/>
-    <mergeCell ref="D1407:D1408"/>
-    <mergeCell ref="B1409:B1410"/>
-    <mergeCell ref="C1409:C1410"/>
-    <mergeCell ref="D1409:D1410"/>
-    <mergeCell ref="B1411:B1412"/>
-    <mergeCell ref="C1411:C1412"/>
-    <mergeCell ref="D1411:D1412"/>
-    <mergeCell ref="B1413:B1414"/>
-    <mergeCell ref="C1413:C1414"/>
-    <mergeCell ref="D1413:D1414"/>
+    <mergeCell ref="B1378:B1379"/>
+    <mergeCell ref="C1378:C1379"/>
+    <mergeCell ref="D1378:D1379"/>
+    <mergeCell ref="B1380:B1381"/>
+    <mergeCell ref="C1380:C1381"/>
+    <mergeCell ref="D1380:D1381"/>
+    <mergeCell ref="B1382:B1383"/>
+    <mergeCell ref="C1382:C1383"/>
+    <mergeCell ref="D1382:D1383"/>
+    <mergeCell ref="B1384:B1385"/>
+    <mergeCell ref="C1384:C1385"/>
+    <mergeCell ref="D1384:D1385"/>
+    <mergeCell ref="B1386:B1387"/>
+    <mergeCell ref="C1386:C1387"/>
+    <mergeCell ref="D1386:D1387"/>
+    <mergeCell ref="B1388:B1389"/>
+    <mergeCell ref="C1388:C1389"/>
+    <mergeCell ref="D1388:D1389"/>
+    <mergeCell ref="B1390:B1391"/>
+    <mergeCell ref="C1390:C1391"/>
+    <mergeCell ref="D1390:D1391"/>
+    <mergeCell ref="B1392:B1393"/>
+    <mergeCell ref="C1392:C1393"/>
+    <mergeCell ref="D1392:D1393"/>
+    <mergeCell ref="B1394:B1395"/>
+    <mergeCell ref="C1394:C1395"/>
+    <mergeCell ref="D1394:D1395"/>
+    <mergeCell ref="B1396:B1397"/>
+    <mergeCell ref="C1396:C1397"/>
+    <mergeCell ref="D1396:D1397"/>
+    <mergeCell ref="B1398:B1399"/>
+    <mergeCell ref="C1398:C1399"/>
+    <mergeCell ref="D1398:D1399"/>
+    <mergeCell ref="B1400:B1401"/>
+    <mergeCell ref="C1400:C1401"/>
+    <mergeCell ref="D1400:D1401"/>
+    <mergeCell ref="B1402:B1403"/>
+    <mergeCell ref="C1402:C1403"/>
+    <mergeCell ref="D1402:D1403"/>
+    <mergeCell ref="B1404:B1405"/>
+    <mergeCell ref="C1404:C1405"/>
+    <mergeCell ref="D1404:D1405"/>
+    <mergeCell ref="B1406:B1407"/>
+    <mergeCell ref="C1406:C1407"/>
+    <mergeCell ref="D1406:D1407"/>
+    <mergeCell ref="B1408:B1409"/>
+    <mergeCell ref="C1408:C1409"/>
+    <mergeCell ref="D1408:D1409"/>
+    <mergeCell ref="B1410:B1411"/>
+    <mergeCell ref="C1410:C1411"/>
+    <mergeCell ref="D1410:D1411"/>
+    <mergeCell ref="B1412:B1414"/>
+    <mergeCell ref="C1412:C1414"/>
+    <mergeCell ref="D1412:D1414"/>
     <mergeCell ref="B1415:B1416"/>
     <mergeCell ref="C1415:C1416"/>
     <mergeCell ref="D1415:D1416"/>

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -37507,7 +37507,7 @@
       <c r="C1389"/>
       <c r="D1389"/>
       <c r="E1389">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
@@ -37535,7 +37535,7 @@
       <c r="C1391"/>
       <c r="D1391"/>
       <c r="E1391">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
@@ -37563,7 +37563,7 @@
       <c r="C1393"/>
       <c r="D1393"/>
       <c r="E1393">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
@@ -37591,7 +37591,7 @@
       <c r="C1395"/>
       <c r="D1395"/>
       <c r="E1395">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
@@ -37619,7 +37619,7 @@
       <c r="C1397"/>
       <c r="D1397"/>
       <c r="E1397">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
@@ -37647,7 +37647,7 @@
       <c r="C1399"/>
       <c r="D1399"/>
       <c r="E1399">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -14628,6 +14628,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1430"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="2" width="246" customWidth="1"/>
+    <col min="3" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -10082,7 +10082,7 @@
     <t>新资金密码</t>
   </si>
   <si>
-    <t>新資金密碼</t>
+    <t>\b新資金密碼</t>
   </si>
   <si>
     <t>frontstage.form.label.BranchBankName</t>

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -2767,7 +2767,7 @@
     <t>AVIA to Center</t>
   </si>
   <si>
-    <t xml:space="preserve">[泛亚电竞]转[中心钱包]	</t>
+    <t>[泛亚电竞]转[中心钱包]\t</t>
   </si>
   <si>
     <t>[泛亞電競]轉[中心錢包]</t>
@@ -2779,7 +2779,7 @@
     <t>Center to EG</t>
   </si>
   <si>
-    <t xml:space="preserve">[中心钱包]转[EG]	</t>
+    <t>[中心钱包]转[EG]\t</t>
   </si>
   <si>
     <t>[中心錢包]轉[EG]</t>
@@ -2959,7 +2959,7 @@
     <t>NWG to Center</t>
   </si>
   <si>
-    <t xml:space="preserve">[新世界棋牌]转[中心钱包]	</t>
+    <t>[新世界棋牌]转[中心钱包]\t</t>
   </si>
   <si>
     <t>[新世界棋牌]轉[中心錢包]</t>
@@ -2983,7 +2983,7 @@
     <t>RMG to Center</t>
   </si>
   <si>
-    <t xml:space="preserve">[大富翁棋牌]转[中心钱包]	</t>
+    <t>[大富翁棋牌]转[中心钱包]\t</t>
   </si>
   <si>
     <t>[大富翁棋牌]轉[中心錢包]</t>
@@ -2995,7 +2995,7 @@
     <t>Center to SA</t>
   </si>
   <si>
-    <t xml:space="preserve">[中心钱包]转[沙龙]	</t>
+    <t>[中心钱包]转[沙龙]\t</t>
   </si>
   <si>
     <t>[中心錢包]轉[沙龍]</t>

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -15073,7 +15073,7 @@
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="246" customWidth="1"/>
-    <col min="5" max="6" width="48" customWidth="1"/>
+    <col min="5" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35906,10 +35906,10 @@
         <v>3309</v>
       </c>
       <c r="E906" t="s">
-        <v>3308</v>
+        <v>11</v>
       </c>
       <c r="F906" t="s">
-        <v>3308</v>
+        <v>11</v>
       </c>
       <c r="G906">
         <v>1025</v>
@@ -35929,10 +35929,10 @@
         <v>3313</v>
       </c>
       <c r="E907" t="s">
-        <v>3312</v>
+        <v>11</v>
       </c>
       <c r="F907" t="s">
-        <v>3312</v>
+        <v>11</v>
       </c>
       <c r="G907">
         <v>1026</v>
@@ -35952,10 +35952,10 @@
         <v>3317</v>
       </c>
       <c r="E908" t="s">
-        <v>3316</v>
+        <v>11</v>
       </c>
       <c r="F908" t="s">
-        <v>3316</v>
+        <v>11</v>
       </c>
       <c r="G908">
         <v>1027</v>
@@ -35975,10 +35975,10 @@
         <v>3321</v>
       </c>
       <c r="E909" t="s">
-        <v>3320</v>
+        <v>11</v>
       </c>
       <c r="F909" t="s">
-        <v>3320</v>
+        <v>11</v>
       </c>
       <c r="G909">
         <v>1028</v>
@@ -35998,10 +35998,10 @@
         <v>3325</v>
       </c>
       <c r="E910" t="s">
-        <v>3324</v>
+        <v>11</v>
       </c>
       <c r="F910" t="s">
-        <v>3324</v>
+        <v>11</v>
       </c>
       <c r="G910">
         <v>1029</v>
@@ -36021,10 +36021,10 @@
         <v>3329</v>
       </c>
       <c r="E911" t="s">
-        <v>3328</v>
+        <v>11</v>
       </c>
       <c r="F911" t="s">
-        <v>3328</v>
+        <v>11</v>
       </c>
       <c r="G911">
         <v>1030</v>
@@ -36044,10 +36044,10 @@
         <v>3333</v>
       </c>
       <c r="E912" t="s">
-        <v>3332</v>
+        <v>11</v>
       </c>
       <c r="F912" t="s">
-        <v>3332</v>
+        <v>11</v>
       </c>
       <c r="G912">
         <v>1031</v>
@@ -36067,10 +36067,10 @@
         <v>3337</v>
       </c>
       <c r="E913" t="s">
-        <v>3336</v>
+        <v>11</v>
       </c>
       <c r="F913" t="s">
-        <v>3336</v>
+        <v>11</v>
       </c>
       <c r="G913">
         <v>1032</v>
@@ -36090,10 +36090,10 @@
         <v>3341</v>
       </c>
       <c r="E914" t="s">
-        <v>3340</v>
+        <v>11</v>
       </c>
       <c r="F914" t="s">
-        <v>3340</v>
+        <v>11</v>
       </c>
       <c r="G914">
         <v>1033</v>
@@ -36113,10 +36113,10 @@
         <v>3345</v>
       </c>
       <c r="E915" t="s">
-        <v>3344</v>
+        <v>11</v>
       </c>
       <c r="F915" t="s">
-        <v>3344</v>
+        <v>11</v>
       </c>
       <c r="G915">
         <v>1034</v>
@@ -36136,10 +36136,10 @@
         <v>3349</v>
       </c>
       <c r="E916" t="s">
-        <v>3348</v>
+        <v>11</v>
       </c>
       <c r="F916" t="s">
-        <v>3348</v>
+        <v>11</v>
       </c>
       <c r="G916">
         <v>1035</v>
@@ -36159,10 +36159,10 @@
         <v>3353</v>
       </c>
       <c r="E917" t="s">
-        <v>3352</v>
+        <v>11</v>
       </c>
       <c r="F917" t="s">
-        <v>3352</v>
+        <v>11</v>
       </c>
       <c r="G917">
         <v>1036</v>
@@ -36182,10 +36182,10 @@
         <v>3357</v>
       </c>
       <c r="E918" t="s">
-        <v>3356</v>
+        <v>11</v>
       </c>
       <c r="F918" t="s">
-        <v>3356</v>
+        <v>11</v>
       </c>
       <c r="G918">
         <v>1037</v>
@@ -36205,10 +36205,10 @@
         <v>3361</v>
       </c>
       <c r="E919" t="s">
-        <v>3360</v>
+        <v>11</v>
       </c>
       <c r="F919" t="s">
-        <v>3360</v>
+        <v>11</v>
       </c>
       <c r="G919">
         <v>1038</v>
@@ -36228,10 +36228,10 @@
         <v>3365</v>
       </c>
       <c r="E920" t="s">
-        <v>3364</v>
+        <v>11</v>
       </c>
       <c r="F920" t="s">
-        <v>3364</v>
+        <v>11</v>
       </c>
       <c r="G920">
         <v>1039</v>
@@ -36251,10 +36251,10 @@
         <v>3369</v>
       </c>
       <c r="E921" t="s">
-        <v>3368</v>
+        <v>11</v>
       </c>
       <c r="F921" t="s">
-        <v>3368</v>
+        <v>11</v>
       </c>
       <c r="G921">
         <v>1040</v>
@@ -36274,10 +36274,10 @@
         <v>3373</v>
       </c>
       <c r="E922" t="s">
-        <v>3372</v>
+        <v>11</v>
       </c>
       <c r="F922" t="s">
-        <v>3372</v>
+        <v>11</v>
       </c>
       <c r="G922">
         <v>1041</v>
@@ -36297,10 +36297,10 @@
         <v>3377</v>
       </c>
       <c r="E923" t="s">
-        <v>3376</v>
+        <v>11</v>
       </c>
       <c r="F923" t="s">
-        <v>3376</v>
+        <v>11</v>
       </c>
       <c r="G923">
         <v>1042</v>
@@ -36320,10 +36320,10 @@
         <v>3381</v>
       </c>
       <c r="E924" t="s">
-        <v>3380</v>
+        <v>11</v>
       </c>
       <c r="F924" t="s">
-        <v>3380</v>
+        <v>11</v>
       </c>
       <c r="G924">
         <v>1043</v>
@@ -36343,10 +36343,10 @@
         <v>3385</v>
       </c>
       <c r="E925" t="s">
-        <v>3384</v>
+        <v>11</v>
       </c>
       <c r="F925" t="s">
-        <v>3384</v>
+        <v>11</v>
       </c>
       <c r="G925">
         <v>1044</v>
@@ -36366,10 +36366,10 @@
         <v>3389</v>
       </c>
       <c r="E926" t="s">
-        <v>3388</v>
+        <v>11</v>
       </c>
       <c r="F926" t="s">
-        <v>3388</v>
+        <v>11</v>
       </c>
       <c r="G926">
         <v>1045</v>
@@ -36412,10 +36412,10 @@
         <v>3397</v>
       </c>
       <c r="E928" t="s">
-        <v>3396</v>
+        <v>11</v>
       </c>
       <c r="F928" t="s">
-        <v>3396</v>
+        <v>11</v>
       </c>
       <c r="G928">
         <v>1047</v>
@@ -36435,10 +36435,10 @@
         <v>3401</v>
       </c>
       <c r="E929" t="s">
-        <v>3400</v>
+        <v>11</v>
       </c>
       <c r="F929" t="s">
-        <v>3400</v>
+        <v>11</v>
       </c>
       <c r="G929">
         <v>1048</v>

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -15073,7 +15073,7 @@
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="246" customWidth="1"/>
-    <col min="5" max="6" width="30" customWidth="1"/>
+    <col min="5" max="6" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40276,10 +40276,10 @@
         <v>4013</v>
       </c>
       <c r="E1096" t="s">
-        <v>4012</v>
+        <v>11</v>
       </c>
       <c r="F1096" t="s">
-        <v>4012</v>
+        <v>11</v>
       </c>
       <c r="G1096">
         <v>1347</v>
@@ -40299,10 +40299,10 @@
         <v>4017</v>
       </c>
       <c r="E1097" t="s">
-        <v>4016</v>
+        <v>11</v>
       </c>
       <c r="F1097" t="s">
-        <v>4016</v>
+        <v>11</v>
       </c>
       <c r="G1097">
         <v>1348</v>

--- a/src/Inspection.xlsx
+++ b/src/Inspection.xlsx
@@ -10537,113 +10537,97 @@
     <t>frontstage.dd.sentence.ESport.0</t>
   </si>
   <si>
-    <t xml:space="preserve">投注界面柔美、信息简洁、操作简单
-让投注变得简单高效</t>
+    <t>投注界面柔美、信息简洁、操作简单\n让投注变得简单高效</t>
   </si>
   <si>
     <t>投注界面柔美、信息簡潔、操作簡單&lt;br /&gt;讓投注變得簡單高效</t>
   </si>
   <si>
-    <t xml:space="preserve">The betting page is delicate, the information is pithy, and the operation is simple, 
- making placing bets simple and efficient.</t>
+    <t>The betting page is delicate, the information is pithy, and the operation is simple, \n making placing bets simple and efficient.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.ESport.1</t>
   </si>
   <si>
-    <t xml:space="preserve">盘口丰富，超过50种特殊盘口
-让你享受独特的投注体验</t>
+    <t>盘口丰富，超过50种特殊盘口\n让你享受独特的投注体验</t>
   </si>
   <si>
     <t>盤口豐富，超過50種特殊盤口&lt;br /&gt;讓你享受獨特的投注體驗</t>
   </si>
   <si>
-    <t xml:space="preserve">There are plenty handicaps, with more than 50 special handicaps 
- allowing you to enjoy a unique betting experience.</t>
+    <t>There are plenty handicaps, with more than 50 special handicaps \n allowing you to enjoy a unique betting experience.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.ESport.2</t>
   </si>
   <si>
-    <t xml:space="preserve">超炫酷投注界面，投注玩法多样
-亚洲最成熟投注平台</t>
+    <t>超炫酷投注界面，投注玩法多样\n亚洲最成熟投注平台</t>
   </si>
   <si>
     <t>超炫酷投注界面，投注玩法多樣&lt;br /&gt;亞洲最成熟投注平台</t>
   </si>
   <si>
-    <t xml:space="preserve">The awesome and cool betting interface with various betting methods 
- is the most mature betting platform in Asia.</t>
+    <t>The awesome and cool betting interface with various betting methods \n is the most mature betting platform in Asia.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.ESport.3</t>
   </si>
   <si>
-    <t xml:space="preserve">欧洲牌照 热门最全电子竞技
-竞技赛事 应有尽有</t>
+    <t>欧洲牌照 热门最全电子竞技\n竞技赛事 应有尽有</t>
   </si>
   <si>
     <t>歐洲牌照 熱門最全電子競技&lt;br /&gt;競技賽事 應有盡有</t>
   </si>
   <si>
-    <t xml:space="preserve">European licenses, hottest and most complete eSports and 
- all kinds of eSports competitions.</t>
+    <t>European licenses, hottest and most complete eSports and \n all kinds of eSports competitions.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.sport.0</t>
   </si>
   <si>
-    <t xml:space="preserve">多样化投注 超多赛事滚球
-超高赔率，赢到手软</t>
+    <t>多样化投注 超多赛事滚球\n超高赔率，赢到手软</t>
   </si>
   <si>
     <t>多樣化投注 超多賽事滾球&lt;br/&gt;超高賠率，贏到手軟</t>
   </si>
   <si>
-    <t xml:space="preserve">With diversified betting, there are many sport competitions that you can place bets during the game. 
- With super high betting odds, you can win a lot of prize money.</t>
+    <t>With diversified betting, there are many sport competitions that you can place bets during the game. \n With super high betting odds, you can win a lot of prize money.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.sport.1</t>
   </si>
   <si>
-    <t xml:space="preserve">盘口多 赔付款 让投注更灵活
-数万赛事多种盘口，供您选择</t>
+    <t>盘口多 赔付款 让投注更灵活\n数万赛事多种盘口，供您选择</t>
   </si>
   <si>
     <t>盤口多 賠付款 讓投注更靈活&lt;br/&gt;數萬賽事多種盤口，供您選擇</t>
   </si>
   <si>
-    <t xml:space="preserve">Plenty handicaps and compensation make betting more flexible, 
- and tens of thousands of sports competitions with various handicaps for you to choose.</t>
+    <t>Plenty handicaps and compensation make betting more flexible, \n and tens of thousands of sports competitions with various handicaps for you to choose.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.sport.2</t>
   </si>
   <si>
-    <t xml:space="preserve">让球、大小、半全场、混合过关等丰富竞猜玩法
-边看比赛边投注</t>
+    <t>让球、大小、半全场、混合过关等丰富竞猜玩法\n边看比赛边投注</t>
   </si>
   <si>
     <t>讓球、大小、半全場、混合過關等豐富競猜玩法&lt;br/&gt;邊看比賽邊投注</t>
   </si>
   <si>
-    <t xml:space="preserve">Plenty betting methods, such as handicaps, big and small, half-time and whole game, and mixed clearance, 
- allow you to place bets while watching the game.</t>
+    <t>Plenty betting methods, such as handicaps, big and small, half-time and whole game, and mixed clearance, \n allow you to place bets while watching the game.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.sport.3</t>
   </si>
   <si>
-    <t xml:space="preserve">香港盘 亚洲盘 虚拟运动 让您的投注盈利最大化
-多种盘口选择，总有一款适合您</t>
+    <t>香港盘 亚洲盘 虚拟运动 让您的投注盈利最大化\n多种盘口选择，总有一款适合您</t>
   </si>
   <si>
     <t>香港盤 亞洲盤 虛擬運動 讓您的投注盈利最大化&lt;br/&gt;多種盤口選擇，總有一款適合您</t>
   </si>
   <si>
-    <t xml:space="preserve">Hong Kong style handicap, Asian style handicap and virtual sports to maximize your betting profit, 
- and with various handicap options, there is always one suitable for you.</t>
+    <t>Hong Kong style handicap, Asian style handicap and virtual sports to maximize your betting profit, \n and with various handicap options, there is always one suitable for you.</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.sport.4</t>
@@ -10757,61 +10741,49 @@
     <t>frontstage.dd.sentence.lottery.0</t>
   </si>
   <si>
-    <t xml:space="preserve">彩种丰富，高额奖金组
-极致投注体验，快捷投注模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">彩種豐富，高額獎金組
-極致投注體驗，快捷投注模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich color, high bonus group
-Extreme betting experience, quick betting mode</t>
+    <t>彩种丰富，高额奖金组\n极致投注体验，快捷投注模式</t>
+  </si>
+  <si>
+    <t>彩種豐富，高額獎金組\n極致投注體驗，快捷投注模式</t>
+  </si>
+  <si>
+    <t>Rich color, high bonus group\nExtreme betting experience, quick betting mode</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.lottery.1</t>
   </si>
   <si>
-    <t xml:space="preserve">双面盘 传统盘 投注方式多样
-彩种丰富 玩法刺激</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雙面盤 傳統盤 投注方式多樣
-彩種豐富 玩法刺激</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-sided disk Traditional disk Various betting methods
-Rich color variety Gameplay stimulation</t>
+    <t>双面盘 传统盘 投注方式多样\n彩种丰富 玩法刺激</t>
+  </si>
+  <si>
+    <t>雙面盤 傳統盤 投注方式多樣\n彩種豐富 玩法刺激</t>
+  </si>
+  <si>
+    <t>Double-sided disk Traditional disk Various betting methods\nRich color variety Gameplay stimulation</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.lottery.2</t>
   </si>
   <si>
-    <t xml:space="preserve">传统彩票模式与刮刮乐彩票
-尽兴刮卡尽享多重趣味</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傳統彩票模式與刮刮樂彩票
-盡興刮卡盡享多重趣味</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional lottery model and scratch lottery tickets
-Enjoy multiple fun with scratch cards</t>
+    <t>传统彩票模式与刮刮乐彩票\n尽兴刮卡尽享多重趣味</t>
+  </si>
+  <si>
+    <t>傳統彩票模式與刮刮樂彩票\n盡興刮卡盡享多重趣味</t>
+  </si>
+  <si>
+    <t>Traditional lottery model and scratch lottery tickets\nEnjoy multiple fun with scratch cards</t>
   </si>
   <si>
     <t>frontstage.dd.sentence.lottery.3</t>
   </si>
   <si>
-    <t xml:space="preserve">新型视讯彩票，火辣美女主播时时互动
-快周期开奖模式，投注到手软</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新型視訊彩票，火辣美女主播時時互動
-快週期開獎模式，投注到手軟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New-type video lottery, hot girl anchors always interact
-Quick cycle lottery mode, betting softly</t>
+    <t>新型视讯彩票，火辣美女主播时时互动\n快周期开奖模式，投注到手软</t>
+  </si>
+  <si>
+    <t>新型視訊彩票，火辣美女主播時時互動\n快週期開獎模式，投注到手軟</t>
+  </si>
+  <si>
+    <t>New-type video lottery, hot girl anchors always interact\nQuick cycle lottery mode, betting softly</t>
   </si>
   <si>
     <t>frontstage.dialog.deleteBankCardLabel</t>
